--- a/Conceptual/Game rules + pay amounts.xlsx
+++ b/Conceptual/Game rules + pay amounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy_\OneDrive\Documenten\GitHub\slotmachine-practice\Conceptual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EF3B9C-0113-42C6-841A-C244BFD6795D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EAC7BD-0D61-4579-8817-A3C30E3B1598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28020" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="201">
   <si>
     <t>Symbols</t>
   </si>
@@ -607,6 +607,45 @@
   <si>
     <t>same as minValueStorage</t>
   </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>VisibleArray1Url[a]</t>
+  </si>
+  <si>
+    <t>VisibleArray2Url[b]</t>
+  </si>
+  <si>
+    <t>VisibleArray3Url[c]</t>
+  </si>
+  <si>
+    <t>VisibleArray4Url[d]</t>
+  </si>
+  <si>
+    <t>VisibleArray5Url[e]</t>
+  </si>
+  <si>
+    <t>winValueStorage</t>
+  </si>
+  <si>
+    <t>winValueStorage = (Payline -1)</t>
+  </si>
 </sst>
 </file>
 
@@ -1162,7 +1201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1496,6 +1535,13 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1553,6 +1599,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1565,15 +1614,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2147,7 +2189,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2188,12 +2230,12 @@
       <c r="H1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="164" t="s">
+      <c r="K1" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="166"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="169"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2258,11 +2300,11 @@
         <f>$H$19*Tabel1[[#This Row],[Pay 5X]]</f>
         <v>2</v>
       </c>
-      <c r="K3" s="170" t="s">
+      <c r="K3" s="173" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
       <c r="N3" s="66"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2326,12 +2368,12 @@
         <f>$H$19*Tabel1[[#This Row],[Pay 5X]]</f>
         <v>1.5</v>
       </c>
-      <c r="K5" s="171" t="s">
+      <c r="K5" s="174" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="172"/>
-      <c r="M5" s="172"/>
-      <c r="N5" s="173"/>
+      <c r="L5" s="175"/>
+      <c r="M5" s="175"/>
+      <c r="N5" s="176"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2511,12 +2553,12 @@
         <f>$H$19*Tabel1[[#This Row],[Pay 5X]]</f>
         <v>0.35</v>
       </c>
-      <c r="K10" s="167" t="s">
+      <c r="K10" s="170" t="s">
         <v>92</v>
       </c>
-      <c r="L10" s="168"/>
-      <c r="M10" s="168"/>
-      <c r="N10" s="169"/>
+      <c r="L10" s="171"/>
+      <c r="M10" s="171"/>
+      <c r="N10" s="172"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2571,23 +2613,23 @@
       <c r="N13" s="66"/>
     </row>
     <row r="14" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="K14" s="164" t="s">
+      <c r="K14" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="165"/>
-      <c r="M14" s="165"/>
-      <c r="N14" s="166"/>
+      <c r="L14" s="168"/>
+      <c r="M14" s="168"/>
+      <c r="N14" s="169"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="157" t="s">
+      <c r="K15" s="160" t="s">
         <v>96</v>
       </c>
-      <c r="L15" s="158"/>
-      <c r="M15" s="158"/>
-      <c r="N15" s="159"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="162"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -2622,10 +2664,10 @@
       <c r="G18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="162" t="s">
+      <c r="H18" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="I18" s="162"/>
+      <c r="I18" s="165"/>
       <c r="K18" s="42">
         <v>6</v>
       </c>
@@ -2656,11 +2698,11 @@
         <f>A16*A28*B19</f>
         <v>125</v>
       </c>
-      <c r="H19" s="163">
+      <c r="H19" s="166">
         <f>A16*A19*B24</f>
         <v>0.25</v>
       </c>
-      <c r="I19" s="163"/>
+      <c r="I19" s="166"/>
       <c r="J19" s="85"/>
       <c r="K19" s="42">
         <v>9</v>
@@ -2687,8 +2729,8 @@
         <v>0.2</v>
       </c>
       <c r="E20" s="2">
-        <f>D19*E2</f>
-        <v>2.5</v>
+        <f>D19*C3</f>
+        <v>0.35</v>
       </c>
       <c r="F20" s="86"/>
       <c r="G20" s="86"/>
@@ -2774,10 +2816,10 @@
       <c r="L23" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="M23" s="160" t="s">
+      <c r="M23" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="N23" s="161"/>
+      <c r="N23" s="164"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="97">
@@ -3242,34 +3284,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="174">
-        <v>1</v>
-      </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="H1" s="174">
-        <v>2</v>
-      </c>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="N1" s="174">
+      <c r="B1" s="177">
+        <v>1</v>
+      </c>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="H1" s="177">
+        <v>2</v>
+      </c>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="N1" s="177">
         <v>3</v>
       </c>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="T1" s="174">
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="T1" s="177">
         <v>4</v>
       </c>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="121" t="s">
@@ -3492,37 +3534,37 @@
       <c r="X5" s="123"/>
     </row>
     <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="175">
+      <c r="B6" s="178">
         <v>5</v>
       </c>
-      <c r="C6" s="175"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
       <c r="G6" s="123"/>
-      <c r="H6" s="175">
+      <c r="H6" s="178">
         <v>6</v>
       </c>
-      <c r="I6" s="175"/>
-      <c r="J6" s="175"/>
-      <c r="K6" s="175"/>
-      <c r="L6" s="175"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="178"/>
+      <c r="K6" s="178"/>
+      <c r="L6" s="178"/>
       <c r="M6" s="123"/>
-      <c r="N6" s="175">
+      <c r="N6" s="178">
         <v>7</v>
       </c>
-      <c r="O6" s="175"/>
-      <c r="P6" s="175"/>
-      <c r="Q6" s="175"/>
-      <c r="R6" s="175"/>
+      <c r="O6" s="178"/>
+      <c r="P6" s="178"/>
+      <c r="Q6" s="178"/>
+      <c r="R6" s="178"/>
       <c r="S6" s="123"/>
-      <c r="T6" s="175">
+      <c r="T6" s="178">
         <v>8</v>
       </c>
-      <c r="U6" s="175"/>
-      <c r="V6" s="175"/>
-      <c r="W6" s="175"/>
-      <c r="X6" s="175"/>
+      <c r="U6" s="178"/>
+      <c r="V6" s="178"/>
+      <c r="W6" s="178"/>
+      <c r="X6" s="178"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="105" t="s">
@@ -3745,37 +3787,37 @@
       <c r="X10" s="123"/>
     </row>
     <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="175">
+      <c r="B11" s="178">
         <v>9</v>
       </c>
-      <c r="C11" s="175"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="175"/>
-      <c r="F11" s="175"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="178"/>
       <c r="G11" s="123"/>
-      <c r="H11" s="175">
+      <c r="H11" s="178">
         <v>10</v>
       </c>
-      <c r="I11" s="175"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="175"/>
-      <c r="L11" s="175"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="178"/>
       <c r="M11" s="123"/>
-      <c r="N11" s="175">
+      <c r="N11" s="178">
         <v>11</v>
       </c>
-      <c r="O11" s="175"/>
-      <c r="P11" s="175"/>
-      <c r="Q11" s="175"/>
-      <c r="R11" s="175"/>
+      <c r="O11" s="178"/>
+      <c r="P11" s="178"/>
+      <c r="Q11" s="178"/>
+      <c r="R11" s="178"/>
       <c r="S11" s="123"/>
-      <c r="T11" s="175">
+      <c r="T11" s="178">
         <v>12</v>
       </c>
-      <c r="U11" s="175"/>
-      <c r="V11" s="175"/>
-      <c r="W11" s="175"/>
-      <c r="X11" s="175"/>
+      <c r="U11" s="178"/>
+      <c r="V11" s="178"/>
+      <c r="W11" s="178"/>
+      <c r="X11" s="178"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="105" t="s">
@@ -3998,37 +4040,37 @@
       <c r="X15" s="123"/>
     </row>
     <row r="16" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="175">
+      <c r="B16" s="178">
         <v>13</v>
       </c>
-      <c r="C16" s="175"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="175"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
       <c r="G16" s="123"/>
-      <c r="H16" s="175">
+      <c r="H16" s="178">
         <v>14</v>
       </c>
-      <c r="I16" s="175"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="175"/>
-      <c r="L16" s="175"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="178"/>
+      <c r="K16" s="178"/>
+      <c r="L16" s="178"/>
       <c r="M16" s="123"/>
-      <c r="N16" s="175">
+      <c r="N16" s="178">
         <v>15</v>
       </c>
-      <c r="O16" s="175"/>
-      <c r="P16" s="175"/>
-      <c r="Q16" s="175"/>
-      <c r="R16" s="175"/>
+      <c r="O16" s="178"/>
+      <c r="P16" s="178"/>
+      <c r="Q16" s="178"/>
+      <c r="R16" s="178"/>
       <c r="S16" s="123"/>
-      <c r="T16" s="175">
+      <c r="T16" s="178">
         <v>16</v>
       </c>
-      <c r="U16" s="175"/>
-      <c r="V16" s="175"/>
-      <c r="W16" s="175"/>
-      <c r="X16" s="175"/>
+      <c r="U16" s="178"/>
+      <c r="V16" s="178"/>
+      <c r="W16" s="178"/>
+      <c r="X16" s="178"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="105" t="s">
@@ -4226,34 +4268,34 @@
       </c>
     </row>
     <row r="21" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="174">
+      <c r="B21" s="177">
         <v>17</v>
       </c>
-      <c r="C21" s="174"/>
-      <c r="D21" s="174"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="174"/>
-      <c r="H21" s="174">
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="H21" s="177">
         <v>18</v>
       </c>
-      <c r="I21" s="174"/>
-      <c r="J21" s="174"/>
-      <c r="K21" s="174"/>
-      <c r="L21" s="174"/>
-      <c r="N21" s="174">
+      <c r="I21" s="177"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="N21" s="177">
         <v>19</v>
       </c>
-      <c r="O21" s="174"/>
-      <c r="P21" s="174"/>
-      <c r="Q21" s="174"/>
-      <c r="R21" s="174"/>
-      <c r="T21" s="174">
+      <c r="O21" s="177"/>
+      <c r="P21" s="177"/>
+      <c r="Q21" s="177"/>
+      <c r="R21" s="177"/>
+      <c r="T21" s="177">
         <v>20</v>
       </c>
-      <c r="U21" s="174"/>
-      <c r="V21" s="174"/>
-      <c r="W21" s="174"/>
-      <c r="X21" s="174"/>
+      <c r="U21" s="177"/>
+      <c r="V21" s="177"/>
+      <c r="W21" s="177"/>
+      <c r="X21" s="177"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="105" t="s">
@@ -4442,34 +4484,34 @@
       </c>
     </row>
     <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="174">
-        <v>21</v>
-      </c>
-      <c r="C26" s="174"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
-      <c r="H26" s="174">
+      <c r="B26" s="177">
+        <v>21</v>
+      </c>
+      <c r="C26" s="177"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="H26" s="177">
         <v>22</v>
       </c>
-      <c r="I26" s="174"/>
-      <c r="J26" s="174"/>
-      <c r="K26" s="174"/>
-      <c r="L26" s="174"/>
-      <c r="N26" s="174">
+      <c r="I26" s="177"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="177"/>
+      <c r="L26" s="177"/>
+      <c r="N26" s="177">
         <v>23</v>
       </c>
-      <c r="O26" s="174"/>
-      <c r="P26" s="174"/>
-      <c r="Q26" s="174"/>
-      <c r="R26" s="174"/>
-      <c r="T26" s="174">
+      <c r="O26" s="177"/>
+      <c r="P26" s="177"/>
+      <c r="Q26" s="177"/>
+      <c r="R26" s="177"/>
+      <c r="T26" s="177">
         <v>24</v>
       </c>
-      <c r="U26" s="174"/>
-      <c r="V26" s="174"/>
-      <c r="W26" s="174"/>
-      <c r="X26" s="174"/>
+      <c r="U26" s="177"/>
+      <c r="V26" s="177"/>
+      <c r="W26" s="177"/>
+      <c r="X26" s="177"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="105" t="s">
@@ -4658,18 +4700,18 @@
       </c>
     </row>
     <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="174">
+      <c r="B31" s="177">
         <v>25</v>
       </c>
-      <c r="C31" s="174"/>
-      <c r="D31" s="174"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="174"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="180"/>
-      <c r="J31" s="180"/>
-      <c r="K31" s="180"/>
-      <c r="L31" s="180"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="177"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="157"/>
+      <c r="L31" s="157"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="105" t="s">
@@ -4751,6 +4793,23 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="N21:R21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="T16:X16"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="N1:R1"/>
@@ -4759,23 +4818,6 @@
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="N6:R6"/>
     <mergeCell ref="T6:X6"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="N21:R21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4783,2450 +4825,4703 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF38956-FDBF-4967-97AF-72744B5458AB}">
-  <dimension ref="A1:X124"/>
+  <dimension ref="A1:AC174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66:J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="7" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="96" t="s">
+    <row r="1" spans="5:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="5"/>
+      <c r="H1" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="I1" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="J1" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="K1" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="L1" s="96" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E2" s="5"/>
+      <c r="G2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="121">
+      <c r="H2" s="121">
         <v>0</v>
       </c>
-      <c r="D2" s="116">
+      <c r="I2" s="116">
         <v>0</v>
       </c>
-      <c r="E2" s="116">
+      <c r="J2" s="116">
         <v>0</v>
       </c>
-      <c r="F2" s="116">
+      <c r="K2" s="116">
         <v>0</v>
       </c>
-      <c r="G2" s="122">
+      <c r="L2" s="122">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
         <v>178</v>
       </c>
-      <c r="J2" s="131">
+      <c r="O2" s="131">
         <v>0</v>
       </c>
-      <c r="K2" s="123" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="183" t="s">
+      <c r="P2" s="123" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="159" t="s">
         <v>181</v>
       </c>
-      <c r="M2" s="183" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="183" t="s">
+      <c r="R2" s="159" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="159" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="117">
-        <v>1</v>
-      </c>
-      <c r="D3" s="114">
-        <v>1</v>
-      </c>
-      <c r="E3" s="114">
-        <v>1</v>
-      </c>
-      <c r="F3" s="114">
-        <v>1</v>
-      </c>
-      <c r="G3" s="118">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
+    <row r="3" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E3" s="5"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="117">
+        <v>1</v>
+      </c>
+      <c r="I3" s="114">
+        <v>1</v>
+      </c>
+      <c r="J3" s="114">
+        <v>1</v>
+      </c>
+      <c r="K3" s="114">
+        <v>1</v>
+      </c>
+      <c r="L3" s="118">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>179</v>
       </c>
-      <c r="K3" s="123" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="183" t="s">
+      <c r="P3" s="123" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="159" t="s">
         <v>183</v>
       </c>
-      <c r="M3" s="183" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="183" t="s">
+      <c r="R3" s="159" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="159" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="111">
-        <v>2</v>
-      </c>
-      <c r="D4" s="112">
-        <v>2</v>
-      </c>
-      <c r="E4" s="112">
-        <v>2</v>
-      </c>
-      <c r="F4" s="112">
-        <v>2</v>
-      </c>
-      <c r="G4" s="113">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
+    <row r="4" spans="5:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="5"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="111">
+        <v>2</v>
+      </c>
+      <c r="I4" s="112">
+        <v>2</v>
+      </c>
+      <c r="J4" s="112">
+        <v>2</v>
+      </c>
+      <c r="K4" s="112">
+        <v>2</v>
+      </c>
+      <c r="L4" s="113">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>180</v>
       </c>
-      <c r="K4" s="123" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="181" t="s">
+      <c r="P4" s="123" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="179" t="s">
         <v>185</v>
       </c>
-      <c r="M4" s="181"/>
-      <c r="N4" s="181"/>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
+      <c r="R4" s="179"/>
+      <c r="S4" s="179"/>
+    </row>
+    <row r="5" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E5" s="5"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="123"/>
-      <c r="I5" s="182" t="s">
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="158" t="s">
         <v>186</v>
       </c>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="182" t="s">
+      <c r="O5" s="123"/>
+      <c r="P5" s="123" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="158" t="s">
         <v>187</v>
       </c>
-      <c r="M5" s="183"/>
-      <c r="N5" s="183"/>
-      <c r="O5" s="123"/>
-      <c r="U5" s="123"/>
-      <c r="V5" s="123"/>
-      <c r="W5" s="123"/>
-      <c r="X5" s="123"/>
-    </row>
-    <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="96" t="s">
+      <c r="R5" s="159"/>
+      <c r="S5" s="159"/>
+      <c r="T5" s="123"/>
+      <c r="Z5" s="123"/>
+      <c r="AA5" s="123"/>
+      <c r="AB5" s="123"/>
+      <c r="AC5" s="123"/>
+    </row>
+    <row r="6" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="8" spans="5:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="5"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="I8" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="96" t="s">
+      <c r="J8" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F6" s="96" t="s">
+      <c r="K8" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G6" s="96" t="s">
+      <c r="L8" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="K6" s="123"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="P8" s="123"/>
+    </row>
+    <row r="9" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E9" s="5"/>
+      <c r="G9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="105">
+      <c r="H9" s="105">
         <v>0</v>
       </c>
-      <c r="D7" s="106">
+      <c r="I9" s="106">
         <v>0</v>
       </c>
-      <c r="E7" s="106">
+      <c r="J9" s="106">
         <v>0</v>
       </c>
-      <c r="F7" s="106">
+      <c r="K9" s="106">
         <v>0</v>
       </c>
-      <c r="G7" s="107">
+      <c r="L9" s="107">
         <v>0</v>
       </c>
-      <c r="I7" t="s">
+      <c r="N9" t="s">
         <v>178</v>
       </c>
-      <c r="J7" s="131">
-        <v>1</v>
-      </c>
-      <c r="K7" s="123"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="108">
-        <v>1</v>
-      </c>
-      <c r="D8" s="109">
-        <v>1</v>
-      </c>
-      <c r="E8" s="109">
-        <v>1</v>
-      </c>
-      <c r="F8" s="109">
-        <v>1</v>
-      </c>
-      <c r="G8" s="110">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="O9" s="131">
+        <v>1</v>
+      </c>
+      <c r="P9" s="123"/>
+    </row>
+    <row r="10" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E10" s="5"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="108">
+        <v>1</v>
+      </c>
+      <c r="I10" s="109">
+        <v>1</v>
+      </c>
+      <c r="J10" s="109">
+        <v>1</v>
+      </c>
+      <c r="K10" s="109">
+        <v>1</v>
+      </c>
+      <c r="L10" s="110">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>179</v>
       </c>
-      <c r="K8" s="123"/>
-    </row>
-    <row r="9" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="111">
-        <v>2</v>
-      </c>
-      <c r="D9" s="112">
-        <v>2</v>
-      </c>
-      <c r="E9" s="112">
-        <v>2</v>
-      </c>
-      <c r="F9" s="112">
-        <v>2</v>
-      </c>
-      <c r="G9" s="113">
-        <v>2</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="P10" s="123"/>
+      <c r="T10" s="123"/>
+      <c r="Z10" s="123"/>
+      <c r="AA10" s="123"/>
+      <c r="AB10" s="123"/>
+      <c r="AC10" s="123"/>
+    </row>
+    <row r="11" spans="5:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="5"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="111">
+        <v>2</v>
+      </c>
+      <c r="I11" s="112">
+        <v>2</v>
+      </c>
+      <c r="J11" s="112">
+        <v>2</v>
+      </c>
+      <c r="K11" s="112">
+        <v>2</v>
+      </c>
+      <c r="L11" s="113">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
         <v>180</v>
       </c>
-      <c r="K9" s="123"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="123"/>
-      <c r="O10" s="123"/>
-      <c r="U10" s="123"/>
-      <c r="V10" s="123"/>
-      <c r="W10" s="123"/>
-      <c r="X10" s="123"/>
-    </row>
-    <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="96" t="s">
+      <c r="P11" s="123"/>
+    </row>
+    <row r="12" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E12" s="5"/>
+      <c r="G12" s="1"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
+    </row>
+    <row r="13" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E13" s="5"/>
+      <c r="G13" s="1"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+    </row>
+    <row r="14" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="123"/>
+    </row>
+    <row r="15" spans="5:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="1"/>
+      <c r="H15" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="96" t="s">
+      <c r="I15" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="96" t="s">
+      <c r="J15" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F11" s="96" t="s">
+      <c r="K15" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G11" s="96" t="s">
+      <c r="L15" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="K11" s="123"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="P15" s="123"/>
+    </row>
+    <row r="16" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="105">
+      <c r="H16" s="105">
         <v>0</v>
       </c>
-      <c r="D12" s="106">
+      <c r="I16" s="106">
         <v>0</v>
       </c>
-      <c r="E12" s="106">
+      <c r="J16" s="106">
         <v>0</v>
       </c>
-      <c r="F12" s="106">
+      <c r="K16" s="106">
         <v>0</v>
       </c>
-      <c r="G12" s="107">
+      <c r="L16" s="107">
         <v>0</v>
       </c>
-      <c r="I12" t="s">
+      <c r="N16" t="s">
         <v>178</v>
       </c>
-      <c r="J12" s="131">
-        <v>2</v>
-      </c>
-      <c r="K12" s="123"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="117">
-        <v>1</v>
-      </c>
-      <c r="D13" s="114">
-        <v>1</v>
-      </c>
-      <c r="E13" s="114">
-        <v>1</v>
-      </c>
-      <c r="F13" s="114">
-        <v>1</v>
-      </c>
-      <c r="G13" s="118">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="O16" s="131">
+        <v>2</v>
+      </c>
+      <c r="P16" s="123"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+      <c r="H17" s="117">
+        <v>1</v>
+      </c>
+      <c r="I17" s="114">
+        <v>1</v>
+      </c>
+      <c r="J17" s="114">
+        <v>1</v>
+      </c>
+      <c r="K17" s="114">
+        <v>1</v>
+      </c>
+      <c r="L17" s="118">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
         <v>179</v>
       </c>
-      <c r="K13" s="123"/>
-    </row>
-    <row r="14" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="119">
-        <v>2</v>
-      </c>
-      <c r="D14" s="115">
-        <v>2</v>
-      </c>
-      <c r="E14" s="115">
-        <v>2</v>
-      </c>
-      <c r="F14" s="115">
-        <v>2</v>
-      </c>
-      <c r="G14" s="120">
-        <v>2</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="P17" s="123"/>
+      <c r="T17" s="123"/>
+      <c r="Z17" s="123"/>
+      <c r="AA17" s="123"/>
+      <c r="AB17" s="123"/>
+      <c r="AC17" s="123"/>
+    </row>
+    <row r="18" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="1"/>
+      <c r="H18" s="119">
+        <v>2</v>
+      </c>
+      <c r="I18" s="115">
+        <v>2</v>
+      </c>
+      <c r="J18" s="115">
+        <v>2</v>
+      </c>
+      <c r="K18" s="115">
+        <v>2</v>
+      </c>
+      <c r="L18" s="120">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
         <v>180</v>
       </c>
-      <c r="K14" s="123"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
-      <c r="O15" s="123"/>
-      <c r="U15" s="123"/>
-      <c r="V15" s="123"/>
-      <c r="W15" s="123"/>
-      <c r="X15" s="123"/>
-    </row>
-    <row r="16" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="96" t="s">
+      <c r="P18" s="123"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="184" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" s="184"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="184"/>
+      <c r="G20" s="1"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+    </row>
+    <row r="21" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="1"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+    </row>
+    <row r="22" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="41">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="I22" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="96" t="s">
+      <c r="J22" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F16" s="96" t="s">
+      <c r="K22" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G16" s="96" t="s">
+      <c r="L22" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="K16" s="123"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="P22" s="123"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="43">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="121">
+      <c r="H23" s="121">
         <v>0</v>
       </c>
-      <c r="D17" s="106">
+      <c r="I23" s="106">
         <v>0</v>
       </c>
-      <c r="E17" s="106">
+      <c r="J23" s="106">
         <v>0</v>
       </c>
-      <c r="F17" s="106">
+      <c r="K23" s="106">
         <v>0</v>
       </c>
-      <c r="G17" s="122">
+      <c r="L23" s="122">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
+      <c r="N23" t="s">
         <v>178</v>
       </c>
-      <c r="J17" s="131">
+      <c r="O23" s="131">
         <v>0</v>
       </c>
-      <c r="K17" s="123"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="117">
-        <v>1</v>
-      </c>
-      <c r="D18" s="109">
-        <v>1</v>
-      </c>
-      <c r="E18" s="114">
-        <v>1</v>
-      </c>
-      <c r="F18" s="109">
-        <v>1</v>
-      </c>
-      <c r="G18" s="118">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="P23" s="123"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="43">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="117">
+        <v>1</v>
+      </c>
+      <c r="I24" s="109">
+        <v>1</v>
+      </c>
+      <c r="J24" s="114">
+        <v>1</v>
+      </c>
+      <c r="K24" s="109">
+        <v>1</v>
+      </c>
+      <c r="L24" s="118">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
         <v>179</v>
       </c>
-      <c r="J18" s="131"/>
-      <c r="K18" s="123"/>
-    </row>
-    <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="111">
-        <v>2</v>
-      </c>
-      <c r="D19" s="112">
-        <v>2</v>
-      </c>
-      <c r="E19" s="115">
-        <v>2</v>
-      </c>
-      <c r="F19" s="112">
-        <v>2</v>
-      </c>
-      <c r="G19" s="113">
-        <v>2</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="O24" s="131"/>
+      <c r="P24" s="123"/>
+    </row>
+    <row r="25" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="43">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="111">
+        <v>2</v>
+      </c>
+      <c r="I25" s="112">
+        <v>2</v>
+      </c>
+      <c r="J25" s="115">
+        <v>2</v>
+      </c>
+      <c r="K25" s="112">
+        <v>2</v>
+      </c>
+      <c r="L25" s="113">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
         <v>180</v>
       </c>
-      <c r="J19" s="131"/>
-      <c r="K19" s="123"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="131"/>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="96" t="s">
+      <c r="O25" s="131"/>
+      <c r="P25" s="123"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="43">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="131"/>
+    </row>
+    <row r="27" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="46">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="131"/>
+    </row>
+    <row r="28" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="1"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="131"/>
+    </row>
+    <row r="29" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="41">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="96" t="s">
+      <c r="I29" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="96" t="s">
+      <c r="J29" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="96" t="s">
+      <c r="K29" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G21" s="96" t="s">
+      <c r="L29" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="J21" s="131"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="O29" s="131"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="43">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="105">
+      <c r="H30" s="105">
         <v>0</v>
       </c>
-      <c r="D22" s="106">
+      <c r="I30" s="106">
         <v>0</v>
       </c>
-      <c r="E22" s="116">
+      <c r="J30" s="116">
         <v>0</v>
       </c>
-      <c r="F22" s="106">
+      <c r="K30" s="106">
         <v>0</v>
       </c>
-      <c r="G22" s="107">
+      <c r="L30" s="107">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
+      <c r="N30" t="s">
         <v>178</v>
       </c>
-      <c r="J22" s="131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="117">
-        <v>1</v>
-      </c>
-      <c r="D23" s="109">
-        <v>1</v>
-      </c>
-      <c r="E23" s="114">
-        <v>1</v>
-      </c>
-      <c r="F23" s="109">
-        <v>1</v>
-      </c>
-      <c r="G23" s="118">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="O30" s="131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="43">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="117">
+        <v>1</v>
+      </c>
+      <c r="I31" s="109">
+        <v>1</v>
+      </c>
+      <c r="J31" s="114">
+        <v>1</v>
+      </c>
+      <c r="K31" s="109">
+        <v>1</v>
+      </c>
+      <c r="L31" s="118">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
         <v>179</v>
       </c>
-      <c r="J23" s="131"/>
-    </row>
-    <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="119">
-        <v>2</v>
-      </c>
-      <c r="D24" s="112">
-        <v>2</v>
-      </c>
-      <c r="E24" s="112">
-        <v>2</v>
-      </c>
-      <c r="F24" s="112">
-        <v>2</v>
-      </c>
-      <c r="G24" s="120">
-        <v>2</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="O31" s="131"/>
+    </row>
+    <row r="32" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="43">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="119">
+        <v>2</v>
+      </c>
+      <c r="I32" s="112">
+        <v>2</v>
+      </c>
+      <c r="J32" s="112">
+        <v>2</v>
+      </c>
+      <c r="K32" s="112">
+        <v>2</v>
+      </c>
+      <c r="L32" s="120">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
         <v>180</v>
       </c>
-      <c r="J24" s="131"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="131"/>
-    </row>
-    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-      <c r="C26" s="96" t="s">
+      <c r="O32" s="131"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="43">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="131"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="46">
+        <v>4</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="N34" s="123"/>
+      <c r="O34" s="131"/>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="1"/>
+      <c r="N35" s="123"/>
+      <c r="O35" s="131"/>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="41">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="96" t="s">
+      <c r="I36" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E26" s="96" t="s">
+      <c r="J36" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F26" s="96" t="s">
+      <c r="K36" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G26" s="96" t="s">
+      <c r="L36" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="J26" s="131"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="O36" s="131"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="43">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C27" s="105">
+      <c r="H37" s="105">
         <v>0</v>
       </c>
-      <c r="D27" s="116">
+      <c r="I37" s="116">
         <v>0</v>
       </c>
-      <c r="E27" s="116">
+      <c r="J37" s="116">
         <v>0</v>
       </c>
-      <c r="F27" s="116">
+      <c r="K37" s="116">
         <v>0</v>
       </c>
-      <c r="G27" s="107">
+      <c r="L37" s="107">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
+      <c r="N37" t="s">
         <v>178</v>
       </c>
-      <c r="J27" s="131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="108">
-        <v>1</v>
-      </c>
-      <c r="D28" s="114">
-        <v>1</v>
-      </c>
-      <c r="E28" s="114">
-        <v>1</v>
-      </c>
-      <c r="F28" s="114">
-        <v>1</v>
-      </c>
-      <c r="G28" s="110">
-        <v>1</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="O37" s="131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="43">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="108">
+        <v>1</v>
+      </c>
+      <c r="I38" s="114">
+        <v>1</v>
+      </c>
+      <c r="J38" s="114">
+        <v>1</v>
+      </c>
+      <c r="K38" s="114">
+        <v>1</v>
+      </c>
+      <c r="L38" s="110">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
         <v>179</v>
       </c>
-      <c r="J28" s="131"/>
-    </row>
-    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="111">
-        <v>2</v>
-      </c>
-      <c r="D29" s="112">
-        <v>2</v>
-      </c>
-      <c r="E29" s="112">
-        <v>2</v>
-      </c>
-      <c r="F29" s="112">
-        <v>2</v>
-      </c>
-      <c r="G29" s="113">
-        <v>2</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="O38" s="131"/>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="43">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="111">
+        <v>2</v>
+      </c>
+      <c r="I39" s="112">
+        <v>2</v>
+      </c>
+      <c r="J39" s="112">
+        <v>2</v>
+      </c>
+      <c r="K39" s="112">
+        <v>2</v>
+      </c>
+      <c r="L39" s="113">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
         <v>180</v>
       </c>
-      <c r="J29" s="131"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="131"/>
-    </row>
-    <row r="31" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="1"/>
-      <c r="C31" s="96" t="s">
+      <c r="O39" s="131"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="43">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="N40" s="123"/>
+      <c r="O40" s="131"/>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="46">
+        <v>5</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="N41" s="123"/>
+      <c r="O41" s="131"/>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G42" s="1"/>
+      <c r="N42" s="123"/>
+      <c r="O42" s="131"/>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="41">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D31" s="96" t="s">
+      <c r="I43" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E31" s="96" t="s">
+      <c r="J43" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F31" s="96" t="s">
+      <c r="K43" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G31" s="96" t="s">
+      <c r="L43" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="H31" s="180"/>
-      <c r="J31" s="131"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+      <c r="M43" s="157"/>
+      <c r="O43" s="131"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="43">
+        <v>2</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C32" s="124">
+      <c r="H44" s="124">
         <v>0</v>
       </c>
-      <c r="D32" s="125">
+      <c r="I44" s="125">
         <v>0</v>
       </c>
-      <c r="E32" s="125">
+      <c r="J44" s="125">
         <v>0</v>
       </c>
-      <c r="F32" s="125">
+      <c r="K44" s="125">
         <v>0</v>
       </c>
-      <c r="G32" s="126">
+      <c r="L44" s="126">
         <v>0</v>
       </c>
-      <c r="H32" s="131"/>
-      <c r="I32" t="s">
+      <c r="M44" s="131"/>
+      <c r="N44" t="s">
         <v>178</v>
       </c>
-      <c r="J32" s="131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="108">
-        <v>1</v>
-      </c>
-      <c r="D33" s="114">
-        <v>1</v>
-      </c>
-      <c r="E33" s="114">
-        <v>1</v>
-      </c>
-      <c r="F33" s="114">
-        <v>1</v>
-      </c>
-      <c r="G33" s="110">
-        <v>1</v>
-      </c>
-      <c r="H33" s="131"/>
-      <c r="I33" t="s">
+      <c r="O44" s="131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="43">
+        <v>2</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="108">
+        <v>1</v>
+      </c>
+      <c r="I45" s="114">
+        <v>1</v>
+      </c>
+      <c r="J45" s="114">
+        <v>1</v>
+      </c>
+      <c r="K45" s="114">
+        <v>1</v>
+      </c>
+      <c r="L45" s="110">
+        <v>1</v>
+      </c>
+      <c r="M45" s="131"/>
+      <c r="N45" t="s">
         <v>179</v>
       </c>
-      <c r="J33" s="131"/>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="1"/>
-      <c r="C34" s="127">
-        <v>2</v>
-      </c>
-      <c r="D34" s="115">
-        <v>2</v>
-      </c>
-      <c r="E34" s="115">
-        <v>2</v>
-      </c>
-      <c r="F34" s="115">
-        <v>2</v>
-      </c>
-      <c r="G34" s="128">
-        <v>2</v>
-      </c>
-      <c r="H34" s="131"/>
-      <c r="I34" t="s">
+      <c r="O45" s="131"/>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="43">
+        <v>2</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="127">
+        <v>2</v>
+      </c>
+      <c r="I46" s="115">
+        <v>2</v>
+      </c>
+      <c r="J46" s="115">
+        <v>2</v>
+      </c>
+      <c r="K46" s="115">
+        <v>2</v>
+      </c>
+      <c r="L46" s="128">
+        <v>2</v>
+      </c>
+      <c r="M46" s="131"/>
+      <c r="N46" t="s">
         <v>180</v>
       </c>
-      <c r="J34" s="131"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="131"/>
-    </row>
-    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="1"/>
-      <c r="C36" s="96" t="s">
+      <c r="O46" s="131"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="43">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="N47" s="123"/>
+      <c r="O47" s="131"/>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="46">
+        <v>6</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="N48" s="123"/>
+      <c r="O48" s="131"/>
+    </row>
+    <row r="49" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G49" s="1"/>
+      <c r="N49" s="123"/>
+      <c r="O49" s="131"/>
+    </row>
+    <row r="50" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="41">
+        <v>0</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="96" t="s">
+      <c r="I50" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E36" s="96" t="s">
+      <c r="J50" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F36" s="96" t="s">
+      <c r="K50" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G36" s="96" t="s">
+      <c r="L50" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="J36" s="131"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+      <c r="O50" s="131"/>
+      <c r="T50" s="123"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="43">
+        <v>0</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C37" s="121">
+      <c r="H51" s="121">
         <v>0</v>
       </c>
-      <c r="D37" s="116">
+      <c r="I51" s="116">
         <v>0</v>
       </c>
-      <c r="E37" s="106">
+      <c r="J51" s="106">
         <v>0</v>
       </c>
-      <c r="F37" s="106">
+      <c r="K51" s="106">
         <v>0</v>
       </c>
-      <c r="G37" s="107">
+      <c r="L51" s="107">
         <v>0</v>
       </c>
-      <c r="I37" t="s">
+      <c r="N51" t="s">
         <v>178</v>
       </c>
-      <c r="J37" s="131">
+      <c r="O51" s="131">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="117">
-        <v>1</v>
-      </c>
-      <c r="D38" s="114">
-        <v>1</v>
-      </c>
-      <c r="E38" s="109">
-        <v>1</v>
-      </c>
-      <c r="F38" s="114">
-        <v>1</v>
-      </c>
-      <c r="G38" s="118">
-        <v>1</v>
-      </c>
-      <c r="I38" t="s">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="43">
+        <v>1</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="117">
+        <v>1</v>
+      </c>
+      <c r="I52" s="114">
+        <v>1</v>
+      </c>
+      <c r="J52" s="109">
+        <v>1</v>
+      </c>
+      <c r="K52" s="114">
+        <v>1</v>
+      </c>
+      <c r="L52" s="118">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
         <v>179</v>
       </c>
-      <c r="J38" s="131"/>
-      <c r="K38" s="123"/>
-      <c r="L38" s="123"/>
-      <c r="O38" s="123"/>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="111">
-        <v>2</v>
-      </c>
-      <c r="D39" s="112">
-        <v>2</v>
-      </c>
-      <c r="E39" s="112">
-        <v>2</v>
-      </c>
-      <c r="F39" s="115">
-        <v>2</v>
-      </c>
-      <c r="G39" s="120">
-        <v>2</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="O52" s="131"/>
+      <c r="P52" s="123"/>
+      <c r="Q52" s="123"/>
+    </row>
+    <row r="53" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="43">
+        <v>2</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="111">
+        <v>2</v>
+      </c>
+      <c r="I53" s="112">
+        <v>2</v>
+      </c>
+      <c r="J53" s="112">
+        <v>2</v>
+      </c>
+      <c r="K53" s="115">
+        <v>2</v>
+      </c>
+      <c r="L53" s="120">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
         <v>180</v>
       </c>
-      <c r="J39" s="131"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="1"/>
-      <c r="I40" s="123"/>
-      <c r="J40" s="131"/>
-    </row>
-    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="1"/>
-      <c r="C41" s="96" t="s">
+      <c r="O53" s="131"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="43">
+        <v>2</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="N54" s="123"/>
+      <c r="O54" s="131"/>
+    </row>
+    <row r="55" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="46">
+        <v>7</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="N55" s="123"/>
+      <c r="O55" s="131"/>
+    </row>
+    <row r="56" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="1"/>
+      <c r="N56" s="123"/>
+      <c r="O56" s="131"/>
+    </row>
+    <row r="57" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="41">
+        <v>2</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="96" t="s">
+      <c r="I57" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E41" s="96" t="s">
+      <c r="J57" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F41" s="96" t="s">
+      <c r="K57" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G41" s="96" t="s">
+      <c r="L57" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="J41" s="131"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+      <c r="O57" s="131"/>
+      <c r="T57" s="123"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="43">
+        <v>2</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C42" s="105">
+      <c r="H58" s="105">
         <v>0</v>
       </c>
-      <c r="D42" s="106">
+      <c r="I58" s="106">
         <v>0</v>
       </c>
-      <c r="E42" s="106">
+      <c r="J58" s="106">
         <v>0</v>
       </c>
-      <c r="F42" s="116">
+      <c r="K58" s="116">
         <v>0</v>
       </c>
-      <c r="G42" s="122">
+      <c r="L58" s="122">
         <v>0</v>
       </c>
-      <c r="I42" t="s">
+      <c r="N58" t="s">
         <v>178</v>
       </c>
-      <c r="J42" s="131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="C43" s="117">
-        <v>1</v>
-      </c>
-      <c r="D43" s="114">
-        <v>1</v>
-      </c>
-      <c r="E43" s="109">
-        <v>1</v>
-      </c>
-      <c r="F43" s="114">
-        <v>1</v>
-      </c>
-      <c r="G43" s="118">
-        <v>1</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="O58" s="131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="43">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="117">
+        <v>1</v>
+      </c>
+      <c r="I59" s="114">
+        <v>1</v>
+      </c>
+      <c r="J59" s="109">
+        <v>1</v>
+      </c>
+      <c r="K59" s="114">
+        <v>1</v>
+      </c>
+      <c r="L59" s="118">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
         <v>179</v>
       </c>
-      <c r="J43" s="131"/>
-      <c r="K43" s="123"/>
-      <c r="L43" s="123"/>
-      <c r="O43" s="123"/>
-    </row>
-    <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="1"/>
-      <c r="C44" s="119">
-        <v>2</v>
-      </c>
-      <c r="D44" s="115">
-        <v>2</v>
-      </c>
-      <c r="E44" s="112">
-        <v>2</v>
-      </c>
-      <c r="F44" s="112">
-        <v>2</v>
-      </c>
-      <c r="G44" s="113">
-        <v>2</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="O59" s="131"/>
+      <c r="P59" s="123"/>
+      <c r="Q59" s="123"/>
+    </row>
+    <row r="60" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="43">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="119">
+        <v>2</v>
+      </c>
+      <c r="I60" s="115">
+        <v>2</v>
+      </c>
+      <c r="J60" s="112">
+        <v>2</v>
+      </c>
+      <c r="K60" s="112">
+        <v>2</v>
+      </c>
+      <c r="L60" s="113">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
         <v>180</v>
       </c>
-      <c r="J44" s="131"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="I45" s="123"/>
-      <c r="J45" s="131"/>
-    </row>
-    <row r="46" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="1"/>
-      <c r="C46" s="96" t="s">
+      <c r="O60" s="131"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="43">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="N61" s="123"/>
+      <c r="O61" s="131"/>
+    </row>
+    <row r="62" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B62" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="46">
+        <v>8</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="N62" s="123"/>
+      <c r="O62" s="131"/>
+    </row>
+    <row r="63" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G63" s="1"/>
+      <c r="N63" s="123"/>
+      <c r="O63" s="131"/>
+    </row>
+    <row r="64" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="41">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D46" s="96" t="s">
+      <c r="I64" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E46" s="96" t="s">
+      <c r="J64" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F46" s="96" t="s">
+      <c r="K64" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G46" s="96" t="s">
+      <c r="L64" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="J46" s="131"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+      <c r="O64" s="131"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="43">
+        <v>2</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C47" s="105">
+      <c r="H65" s="105">
         <v>0</v>
       </c>
-      <c r="D47" s="106">
+      <c r="I65" s="106">
         <v>0</v>
       </c>
-      <c r="E47" s="106">
+      <c r="J65" s="106">
         <v>0</v>
       </c>
-      <c r="F47" s="116">
+      <c r="K65" s="116">
         <v>0</v>
       </c>
-      <c r="G47" s="107">
+      <c r="L65" s="107">
         <v>0</v>
       </c>
-      <c r="I47" t="s">
+      <c r="N65" t="s">
         <v>178</v>
       </c>
-      <c r="J47" s="131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-      <c r="C48" s="108">
-        <v>1</v>
-      </c>
-      <c r="D48" s="114">
-        <v>1</v>
-      </c>
-      <c r="E48" s="109">
-        <v>1</v>
-      </c>
-      <c r="F48" s="114">
-        <v>1</v>
-      </c>
-      <c r="G48" s="110">
-        <v>1</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="O65" s="131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="43">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="108">
+        <v>1</v>
+      </c>
+      <c r="I66" s="114">
+        <v>1</v>
+      </c>
+      <c r="J66" s="109">
+        <v>1</v>
+      </c>
+      <c r="K66" s="114">
+        <v>1</v>
+      </c>
+      <c r="L66" s="110">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
         <v>179</v>
       </c>
-      <c r="J48" s="131"/>
-    </row>
-    <row r="49" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="1"/>
-      <c r="C49" s="111">
-        <v>2</v>
-      </c>
-      <c r="D49" s="115">
-        <v>2</v>
-      </c>
-      <c r="E49" s="112">
-        <v>2</v>
-      </c>
-      <c r="F49" s="112">
-        <v>2</v>
-      </c>
-      <c r="G49" s="113">
-        <v>2</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="O66" s="131"/>
+    </row>
+    <row r="67" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="43">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="111">
+        <v>2</v>
+      </c>
+      <c r="I67" s="115">
+        <v>2</v>
+      </c>
+      <c r="J67" s="112">
+        <v>2</v>
+      </c>
+      <c r="K67" s="112">
+        <v>2</v>
+      </c>
+      <c r="L67" s="113">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
         <v>180</v>
       </c>
-      <c r="J49" s="131"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-      <c r="I50" s="123"/>
-      <c r="J50" s="131"/>
-    </row>
-    <row r="51" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="1"/>
-      <c r="C51" s="96" t="s">
+      <c r="O67" s="131"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="43">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="N68" s="123"/>
+      <c r="O68" s="131"/>
+    </row>
+    <row r="69" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B69" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="46">
+        <v>9</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="N69" s="123"/>
+      <c r="O69" s="131"/>
+    </row>
+    <row r="70" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G70" s="1"/>
+      <c r="N70" s="123"/>
+      <c r="O70" s="131"/>
+    </row>
+    <row r="71" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B71" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D71" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="41">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D51" s="96" t="s">
+      <c r="I71" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E51" s="96" t="s">
+      <c r="J71" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F51" s="96" t="s">
+      <c r="K71" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G51" s="96" t="s">
+      <c r="L71" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="J51" s="131"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+      <c r="O71" s="131"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="43">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C52" s="105">
+      <c r="H72" s="105">
         <v>0</v>
       </c>
-      <c r="D52" s="116">
+      <c r="I72" s="116">
         <v>0</v>
       </c>
-      <c r="E52" s="106">
+      <c r="J72" s="106">
         <v>0</v>
       </c>
-      <c r="F52" s="106">
+      <c r="K72" s="106">
         <v>0</v>
       </c>
-      <c r="G52" s="107">
+      <c r="L72" s="107">
         <v>0</v>
       </c>
-      <c r="I52" t="s">
+      <c r="N72" t="s">
         <v>178</v>
       </c>
-      <c r="J52" s="131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-      <c r="C53" s="108">
-        <v>1</v>
-      </c>
-      <c r="D53" s="114">
-        <v>1</v>
-      </c>
-      <c r="E53" s="109">
-        <v>1</v>
-      </c>
-      <c r="F53" s="114">
-        <v>1</v>
-      </c>
-      <c r="G53" s="110">
-        <v>1</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="O72" s="131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D73" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="43">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="108">
+        <v>1</v>
+      </c>
+      <c r="I73" s="114">
+        <v>1</v>
+      </c>
+      <c r="J73" s="109">
+        <v>1</v>
+      </c>
+      <c r="K73" s="114">
+        <v>1</v>
+      </c>
+      <c r="L73" s="110">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
         <v>179</v>
       </c>
-      <c r="J53" s="131"/>
-    </row>
-    <row r="54" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="1"/>
-      <c r="C54" s="111">
-        <v>2</v>
-      </c>
-      <c r="D54" s="112">
-        <v>2</v>
-      </c>
-      <c r="E54" s="112">
-        <v>2</v>
-      </c>
-      <c r="F54" s="115">
-        <v>2</v>
-      </c>
-      <c r="G54" s="113">
-        <v>2</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="O73" s="131"/>
+    </row>
+    <row r="74" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D74" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="43">
+        <v>2</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="111">
+        <v>2</v>
+      </c>
+      <c r="I74" s="112">
+        <v>2</v>
+      </c>
+      <c r="J74" s="112">
+        <v>2</v>
+      </c>
+      <c r="K74" s="115">
+        <v>2</v>
+      </c>
+      <c r="L74" s="113">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
         <v>180</v>
       </c>
-      <c r="J54" s="131"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
-      <c r="I55" s="123"/>
-      <c r="J55" s="131"/>
-    </row>
-    <row r="56" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="1"/>
-      <c r="C56" s="96" t="s">
+      <c r="O74" s="131"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D75" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="43">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="N75" s="123"/>
+      <c r="O75" s="131"/>
+    </row>
+    <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B76" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D76" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="46">
+        <v>10</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="N76" s="123"/>
+      <c r="O76" s="131"/>
+    </row>
+    <row r="77" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G77" s="1"/>
+      <c r="N77" s="123"/>
+      <c r="O77" s="131"/>
+    </row>
+    <row r="78" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B78" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D78" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" s="41">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D56" s="96" t="s">
+      <c r="I78" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E56" s="96" t="s">
+      <c r="J78" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F56" s="96" t="s">
+      <c r="K78" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G56" s="96" t="s">
+      <c r="L78" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="J56" s="131"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
+      <c r="O78" s="131"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B79" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D79" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" s="43">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C57" s="121">
+      <c r="H79" s="121">
         <v>0</v>
       </c>
-      <c r="D57" s="106">
+      <c r="I79" s="106">
         <v>0</v>
       </c>
-      <c r="E57" s="106">
+      <c r="J79" s="106">
         <v>0</v>
       </c>
-      <c r="F57" s="106">
+      <c r="K79" s="106">
         <v>0</v>
       </c>
-      <c r="G57" s="122">
+      <c r="L79" s="122">
         <v>0</v>
       </c>
-      <c r="I57" t="s">
+      <c r="N79" t="s">
         <v>178</v>
       </c>
-      <c r="J57" s="131">
+      <c r="O79" s="131">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
-      <c r="C58" s="117">
-        <v>1</v>
-      </c>
-      <c r="D58" s="109">
-        <v>1</v>
-      </c>
-      <c r="E58" s="109">
-        <v>1</v>
-      </c>
-      <c r="F58" s="109">
-        <v>1</v>
-      </c>
-      <c r="G58" s="118">
-        <v>1</v>
-      </c>
-      <c r="I58" t="s">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B80" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D80" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="43">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="117">
+        <v>1</v>
+      </c>
+      <c r="I80" s="109">
+        <v>1</v>
+      </c>
+      <c r="J80" s="109">
+        <v>1</v>
+      </c>
+      <c r="K80" s="109">
+        <v>1</v>
+      </c>
+      <c r="L80" s="118">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
         <v>179</v>
       </c>
-      <c r="J58" s="131"/>
-    </row>
-    <row r="59" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="1"/>
-      <c r="C59" s="111">
-        <v>2</v>
-      </c>
-      <c r="D59" s="112">
-        <v>2</v>
-      </c>
-      <c r="E59" s="112">
-        <v>2</v>
-      </c>
-      <c r="F59" s="112">
-        <v>2</v>
-      </c>
-      <c r="G59" s="113">
-        <v>2</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="O80" s="131"/>
+    </row>
+    <row r="81" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B81" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D81" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="43">
+        <v>1</v>
+      </c>
+      <c r="G81" s="1"/>
+      <c r="H81" s="111">
+        <v>2</v>
+      </c>
+      <c r="I81" s="112">
+        <v>2</v>
+      </c>
+      <c r="J81" s="112">
+        <v>2</v>
+      </c>
+      <c r="K81" s="112">
+        <v>2</v>
+      </c>
+      <c r="L81" s="113">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s">
         <v>180</v>
       </c>
-      <c r="J59" s="131"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
-      <c r="I60" s="123"/>
-      <c r="J60" s="131"/>
-    </row>
-    <row r="61" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="1"/>
-      <c r="C61" s="96" t="s">
+      <c r="O81" s="131"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B82" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D82" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="43">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1"/>
+      <c r="N82" s="123"/>
+      <c r="O82" s="131"/>
+    </row>
+    <row r="83" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B83" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D83" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" s="46">
+        <v>11</v>
+      </c>
+      <c r="G83" s="1"/>
+      <c r="N83" s="123"/>
+      <c r="O83" s="131"/>
+    </row>
+    <row r="84" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G84" s="1"/>
+      <c r="N84" s="123"/>
+      <c r="O84" s="131"/>
+    </row>
+    <row r="85" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B85" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D85" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" s="41">
+        <v>2</v>
+      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D61" s="96" t="s">
+      <c r="I85" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E61" s="96" t="s">
+      <c r="J85" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F61" s="96" t="s">
+      <c r="K85" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G61" s="96" t="s">
+      <c r="L85" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="J61" s="131"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
+      <c r="O85" s="131"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B86" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D86" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="43">
+        <v>1</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C62" s="105">
+      <c r="H86" s="105">
         <v>0</v>
       </c>
-      <c r="D62" s="106">
+      <c r="I86" s="106">
         <v>0</v>
       </c>
-      <c r="E62" s="106">
+      <c r="J86" s="106">
         <v>0</v>
       </c>
-      <c r="F62" s="106">
+      <c r="K86" s="106">
         <v>0</v>
       </c>
-      <c r="G62" s="107">
+      <c r="L86" s="107">
         <v>0</v>
       </c>
-      <c r="I62" t="s">
+      <c r="N86" t="s">
         <v>178</v>
       </c>
-      <c r="J62" s="131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="1"/>
-      <c r="C63" s="117">
-        <v>1</v>
-      </c>
-      <c r="D63" s="109">
-        <v>1</v>
-      </c>
-      <c r="E63" s="109">
-        <v>1</v>
-      </c>
-      <c r="F63" s="109">
-        <v>1</v>
-      </c>
-      <c r="G63" s="118">
-        <v>1</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="O86" s="131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B87" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D87" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" s="43">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1"/>
+      <c r="H87" s="117">
+        <v>1</v>
+      </c>
+      <c r="I87" s="109">
+        <v>1</v>
+      </c>
+      <c r="J87" s="109">
+        <v>1</v>
+      </c>
+      <c r="K87" s="109">
+        <v>1</v>
+      </c>
+      <c r="L87" s="118">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
         <v>179</v>
       </c>
-      <c r="J63" s="131"/>
-    </row>
-    <row r="64" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="1"/>
-      <c r="C64" s="119">
-        <v>2</v>
-      </c>
-      <c r="D64" s="112">
-        <v>2</v>
-      </c>
-      <c r="E64" s="112">
-        <v>2</v>
-      </c>
-      <c r="F64" s="112">
-        <v>2</v>
-      </c>
-      <c r="G64" s="120">
-        <v>2</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="O87" s="131"/>
+    </row>
+    <row r="88" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B88" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D88" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" s="43">
+        <v>1</v>
+      </c>
+      <c r="G88" s="1"/>
+      <c r="H88" s="119">
+        <v>2</v>
+      </c>
+      <c r="I88" s="112">
+        <v>2</v>
+      </c>
+      <c r="J88" s="112">
+        <v>2</v>
+      </c>
+      <c r="K88" s="112">
+        <v>2</v>
+      </c>
+      <c r="L88" s="120">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
         <v>180</v>
       </c>
-      <c r="J64" s="131"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="1"/>
-      <c r="I65" s="123"/>
-      <c r="J65" s="131"/>
-    </row>
-    <row r="66" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="1"/>
-      <c r="C66" s="96" t="s">
+      <c r="O88" s="131"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D89" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" s="43">
+        <v>2</v>
+      </c>
+      <c r="G89" s="1"/>
+      <c r="N89" s="123"/>
+      <c r="O89" s="131"/>
+    </row>
+    <row r="90" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B90" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D90" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" s="46">
+        <v>12</v>
+      </c>
+      <c r="G90" s="1"/>
+      <c r="N90" s="123"/>
+      <c r="O90" s="131"/>
+    </row>
+    <row r="91" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G91" s="1"/>
+      <c r="N91" s="123"/>
+      <c r="O91" s="131"/>
+    </row>
+    <row r="92" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B92" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D92" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" s="41">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1"/>
+      <c r="H92" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D66" s="96" t="s">
+      <c r="I92" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E66" s="96" t="s">
+      <c r="J92" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F66" s="96" t="s">
+      <c r="K92" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G66" s="96" t="s">
+      <c r="L92" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="J66" s="131"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
+      <c r="O92" s="131"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93" s="43">
+        <v>1</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C67" s="121">
+      <c r="H93" s="121">
         <v>0</v>
       </c>
-      <c r="D67" s="106">
+      <c r="I93" s="106">
         <v>0</v>
       </c>
-      <c r="E67" s="116">
+      <c r="J93" s="116">
         <v>0</v>
       </c>
-      <c r="F67" s="106">
+      <c r="K93" s="106">
         <v>0</v>
       </c>
-      <c r="G67" s="122">
+      <c r="L93" s="122">
         <v>0</v>
       </c>
-      <c r="I67" t="s">
+      <c r="N93" t="s">
         <v>178</v>
       </c>
-      <c r="J67" s="131">
+      <c r="O93" s="131">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="1"/>
-      <c r="C68" s="117">
-        <v>1</v>
-      </c>
-      <c r="D68" s="109">
-        <v>1</v>
-      </c>
-      <c r="E68" s="114">
-        <v>1</v>
-      </c>
-      <c r="F68" s="109">
-        <v>1</v>
-      </c>
-      <c r="G68" s="118">
-        <v>1</v>
-      </c>
-      <c r="I68" t="s">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D94" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" s="43">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1"/>
+      <c r="H94" s="117">
+        <v>1</v>
+      </c>
+      <c r="I94" s="109">
+        <v>1</v>
+      </c>
+      <c r="J94" s="114">
+        <v>1</v>
+      </c>
+      <c r="K94" s="109">
+        <v>1</v>
+      </c>
+      <c r="L94" s="118">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
         <v>179</v>
       </c>
-      <c r="J68" s="131"/>
-    </row>
-    <row r="69" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="1"/>
-      <c r="C69" s="111">
-        <v>2</v>
-      </c>
-      <c r="D69" s="112">
-        <v>2</v>
-      </c>
-      <c r="E69" s="112">
-        <v>2</v>
-      </c>
-      <c r="F69" s="112">
-        <v>2</v>
-      </c>
-      <c r="G69" s="113">
-        <v>2</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="O94" s="131"/>
+    </row>
+    <row r="95" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D95" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" s="43">
+        <v>1</v>
+      </c>
+      <c r="G95" s="1"/>
+      <c r="H95" s="111">
+        <v>2</v>
+      </c>
+      <c r="I95" s="112">
+        <v>2</v>
+      </c>
+      <c r="J95" s="112">
+        <v>2</v>
+      </c>
+      <c r="K95" s="112">
+        <v>2</v>
+      </c>
+      <c r="L95" s="113">
+        <v>2</v>
+      </c>
+      <c r="N95" t="s">
         <v>180</v>
       </c>
-      <c r="J69" s="131"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="1"/>
-      <c r="I70" s="123"/>
-      <c r="J70" s="131"/>
-    </row>
-    <row r="71" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="1"/>
-      <c r="C71" s="96" t="s">
+      <c r="O95" s="131"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D96" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E96" s="43">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1"/>
+      <c r="N96" s="123"/>
+      <c r="O96" s="131"/>
+    </row>
+    <row r="97" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B97" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D97" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97" s="46">
+        <v>13</v>
+      </c>
+      <c r="G97" s="1"/>
+      <c r="N97" s="123"/>
+      <c r="O97" s="131"/>
+    </row>
+    <row r="98" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G98" s="1"/>
+      <c r="N98" s="123"/>
+      <c r="O98" s="131"/>
+    </row>
+    <row r="99" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B99" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D99" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" s="41">
+        <v>2</v>
+      </c>
+      <c r="G99" s="1"/>
+      <c r="H99" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D71" s="96" t="s">
+      <c r="I99" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E71" s="96" t="s">
+      <c r="J99" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F71" s="96" t="s">
+      <c r="K99" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G71" s="96" t="s">
+      <c r="L99" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="J71" s="131"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
+      <c r="O99" s="131"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D100" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" s="43">
+        <v>1</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C72" s="105">
+      <c r="H100" s="105">
         <v>0</v>
       </c>
-      <c r="D72" s="106">
+      <c r="I100" s="106">
         <v>0</v>
       </c>
-      <c r="E72" s="106">
+      <c r="J100" s="106">
         <v>0</v>
       </c>
-      <c r="F72" s="106">
+      <c r="K100" s="106">
         <v>0</v>
       </c>
-      <c r="G72" s="107">
+      <c r="L100" s="107">
         <v>0</v>
       </c>
-      <c r="I72" t="s">
+      <c r="N100" t="s">
         <v>178</v>
       </c>
-      <c r="J72" s="131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="1"/>
-      <c r="C73" s="117">
-        <v>1</v>
-      </c>
-      <c r="D73" s="109">
-        <v>1</v>
-      </c>
-      <c r="E73" s="114">
-        <v>1</v>
-      </c>
-      <c r="F73" s="109">
-        <v>1</v>
-      </c>
-      <c r="G73" s="118">
-        <v>1</v>
-      </c>
-      <c r="I73" t="s">
+      <c r="O100" s="131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B101" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D101" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" s="43">
+        <v>2</v>
+      </c>
+      <c r="G101" s="1"/>
+      <c r="H101" s="117">
+        <v>1</v>
+      </c>
+      <c r="I101" s="109">
+        <v>1</v>
+      </c>
+      <c r="J101" s="114">
+        <v>1</v>
+      </c>
+      <c r="K101" s="109">
+        <v>1</v>
+      </c>
+      <c r="L101" s="118">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
         <v>179</v>
       </c>
-      <c r="J73" s="131"/>
-    </row>
-    <row r="74" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="1"/>
-      <c r="C74" s="119">
-        <v>2</v>
-      </c>
-      <c r="D74" s="112">
-        <v>2</v>
-      </c>
-      <c r="E74" s="115">
-        <v>2</v>
-      </c>
-      <c r="F74" s="112">
-        <v>2</v>
-      </c>
-      <c r="G74" s="120">
-        <v>2</v>
-      </c>
-      <c r="I74" t="s">
+      <c r="O101" s="131"/>
+    </row>
+    <row r="102" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B102" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D102" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" s="43">
+        <v>1</v>
+      </c>
+      <c r="G102" s="1"/>
+      <c r="H102" s="119">
+        <v>2</v>
+      </c>
+      <c r="I102" s="112">
+        <v>2</v>
+      </c>
+      <c r="J102" s="115">
+        <v>2</v>
+      </c>
+      <c r="K102" s="112">
+        <v>2</v>
+      </c>
+      <c r="L102" s="120">
+        <v>2</v>
+      </c>
+      <c r="N102" t="s">
         <v>180</v>
       </c>
-      <c r="J74" s="131"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="1"/>
-      <c r="I75" s="123"/>
-      <c r="J75" s="131"/>
-    </row>
-    <row r="76" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="1"/>
-      <c r="C76" s="96" t="s">
+      <c r="O102" s="131"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B103" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D103" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103" s="43">
+        <v>2</v>
+      </c>
+      <c r="G103" s="1"/>
+      <c r="N103" s="123"/>
+      <c r="O103" s="131"/>
+    </row>
+    <row r="104" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B104" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D104" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E104" s="46">
+        <v>14</v>
+      </c>
+      <c r="G104" s="1"/>
+      <c r="N104" s="123"/>
+      <c r="O104" s="131"/>
+    </row>
+    <row r="105" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G105" s="1"/>
+      <c r="N105" s="123"/>
+      <c r="O105" s="131"/>
+    </row>
+    <row r="106" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B106" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D106" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E106" s="41">
+        <v>1</v>
+      </c>
+      <c r="G106" s="1"/>
+      <c r="H106" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D76" s="96" t="s">
+      <c r="I106" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E76" s="96" t="s">
+      <c r="J106" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F76" s="96" t="s">
+      <c r="K106" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G76" s="96" t="s">
+      <c r="L106" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="J76" s="131"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
+      <c r="O106" s="131"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B107" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D107" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E107" s="43">
+        <v>1</v>
+      </c>
+      <c r="G107" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C77" s="105">
+      <c r="H107" s="105">
         <v>0</v>
       </c>
-      <c r="D77" s="106">
+      <c r="I107" s="106">
         <v>0</v>
       </c>
-      <c r="E77" s="116">
+      <c r="J107" s="116">
         <v>0</v>
       </c>
-      <c r="F77" s="106">
+      <c r="K107" s="106">
         <v>0</v>
       </c>
-      <c r="G77" s="107">
+      <c r="L107" s="107">
         <v>0</v>
       </c>
-      <c r="I77" t="s">
+      <c r="N107" t="s">
         <v>178</v>
       </c>
-      <c r="J77" s="131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="1"/>
-      <c r="C78" s="108">
-        <v>1</v>
-      </c>
-      <c r="D78" s="109">
-        <v>1</v>
-      </c>
-      <c r="E78" s="129">
-        <v>1</v>
-      </c>
-      <c r="F78" s="109">
-        <v>1</v>
-      </c>
-      <c r="G78" s="110">
-        <v>1</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="O107" s="131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B108" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D108" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E108" s="43">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1"/>
+      <c r="H108" s="108">
+        <v>1</v>
+      </c>
+      <c r="I108" s="109">
+        <v>1</v>
+      </c>
+      <c r="J108" s="129">
+        <v>1</v>
+      </c>
+      <c r="K108" s="109">
+        <v>1</v>
+      </c>
+      <c r="L108" s="110">
+        <v>1</v>
+      </c>
+      <c r="N108" t="s">
         <v>179</v>
       </c>
-      <c r="J78" s="131"/>
-    </row>
-    <row r="79" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="1"/>
-      <c r="C79" s="111">
-        <v>2</v>
-      </c>
-      <c r="D79" s="112">
-        <v>2</v>
-      </c>
-      <c r="E79" s="112">
-        <v>2</v>
-      </c>
-      <c r="F79" s="112">
-        <v>2</v>
-      </c>
-      <c r="G79" s="113">
-        <v>2</v>
-      </c>
-      <c r="I79" t="s">
+      <c r="O108" s="131"/>
+    </row>
+    <row r="109" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B109" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D109" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E109" s="43">
+        <v>1</v>
+      </c>
+      <c r="G109" s="1"/>
+      <c r="H109" s="111">
+        <v>2</v>
+      </c>
+      <c r="I109" s="112">
+        <v>2</v>
+      </c>
+      <c r="J109" s="112">
+        <v>2</v>
+      </c>
+      <c r="K109" s="112">
+        <v>2</v>
+      </c>
+      <c r="L109" s="113">
+        <v>2</v>
+      </c>
+      <c r="N109" t="s">
         <v>180</v>
       </c>
-      <c r="J79" s="131"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="1"/>
-      <c r="I80" s="123"/>
-      <c r="J80" s="131"/>
-    </row>
-    <row r="81" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="1"/>
-      <c r="C81" s="96" t="s">
+      <c r="O109" s="131"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B110" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D110" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E110" s="43">
+        <v>1</v>
+      </c>
+      <c r="G110" s="1"/>
+      <c r="N110" s="123"/>
+      <c r="O110" s="131"/>
+    </row>
+    <row r="111" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B111" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D111" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E111" s="46">
+        <v>15</v>
+      </c>
+      <c r="G111" s="1"/>
+      <c r="N111" s="123"/>
+      <c r="O111" s="131"/>
+    </row>
+    <row r="112" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G112" s="1"/>
+      <c r="N112" s="123"/>
+      <c r="O112" s="131"/>
+    </row>
+    <row r="113" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B113" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D113" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113" s="41">
+        <v>1</v>
+      </c>
+      <c r="G113" s="1"/>
+      <c r="H113" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D81" s="96" t="s">
+      <c r="I113" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E81" s="96" t="s">
+      <c r="J113" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F81" s="96" t="s">
+      <c r="K113" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G81" s="96" t="s">
+      <c r="L113" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="J81" s="131"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
+      <c r="O113" s="131"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B114" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D114" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E114" s="43">
+        <v>1</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C82" s="105">
+      <c r="H114" s="105">
         <v>0</v>
       </c>
-      <c r="D82" s="106">
+      <c r="I114" s="106">
         <v>0</v>
       </c>
-      <c r="E82" s="106">
+      <c r="J114" s="106">
         <v>0</v>
       </c>
-      <c r="F82" s="106">
+      <c r="K114" s="106">
         <v>0</v>
       </c>
-      <c r="G82" s="107">
+      <c r="L114" s="107">
         <v>0</v>
       </c>
-      <c r="I82" t="s">
+      <c r="N114" t="s">
         <v>178</v>
       </c>
-      <c r="J82" s="131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
-      <c r="C83" s="108">
-        <v>1</v>
-      </c>
-      <c r="D83" s="109">
-        <v>1</v>
-      </c>
-      <c r="E83" s="114">
-        <v>1</v>
-      </c>
-      <c r="F83" s="109">
-        <v>1</v>
-      </c>
-      <c r="G83" s="110">
-        <v>1</v>
-      </c>
-      <c r="I83" t="s">
+      <c r="O114" s="131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B115" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D115" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115" s="43">
+        <v>2</v>
+      </c>
+      <c r="G115" s="1"/>
+      <c r="H115" s="108">
+        <v>1</v>
+      </c>
+      <c r="I115" s="109">
+        <v>1</v>
+      </c>
+      <c r="J115" s="114">
+        <v>1</v>
+      </c>
+      <c r="K115" s="109">
+        <v>1</v>
+      </c>
+      <c r="L115" s="110">
+        <v>1</v>
+      </c>
+      <c r="N115" t="s">
         <v>179</v>
       </c>
-      <c r="J83" s="131"/>
-    </row>
-    <row r="84" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="1"/>
-      <c r="C84" s="111">
-        <v>2</v>
-      </c>
-      <c r="D84" s="112">
-        <v>2</v>
-      </c>
-      <c r="E84" s="115">
-        <v>2</v>
-      </c>
-      <c r="F84" s="112">
-        <v>2</v>
-      </c>
-      <c r="G84" s="113">
-        <v>2</v>
-      </c>
-      <c r="I84" t="s">
+      <c r="O115" s="131"/>
+    </row>
+    <row r="116" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B116" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D116" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116" s="43">
+        <v>1</v>
+      </c>
+      <c r="G116" s="1"/>
+      <c r="H116" s="111">
+        <v>2</v>
+      </c>
+      <c r="I116" s="112">
+        <v>2</v>
+      </c>
+      <c r="J116" s="115">
+        <v>2</v>
+      </c>
+      <c r="K116" s="112">
+        <v>2</v>
+      </c>
+      <c r="L116" s="113">
+        <v>2</v>
+      </c>
+      <c r="N116" t="s">
         <v>180</v>
       </c>
-      <c r="J84" s="131"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
-      <c r="I85" s="123"/>
-      <c r="J85" s="131"/>
-    </row>
-    <row r="86" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="1"/>
-      <c r="C86" s="96" t="s">
+      <c r="O116" s="131"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B117" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D117" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E117" s="43">
+        <v>1</v>
+      </c>
+      <c r="G117" s="1"/>
+      <c r="N117" s="123"/>
+      <c r="O117" s="131"/>
+    </row>
+    <row r="118" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B118" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D118" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E118" s="46">
+        <v>16</v>
+      </c>
+      <c r="G118" s="1"/>
+      <c r="N118" s="123"/>
+      <c r="O118" s="131"/>
+    </row>
+    <row r="119" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G119" s="1"/>
+      <c r="N119" s="123"/>
+      <c r="O119" s="131"/>
+    </row>
+    <row r="120" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B120" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D120" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E120" s="41">
+        <v>0</v>
+      </c>
+      <c r="G120" s="1"/>
+      <c r="H120" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D86" s="96" t="s">
+      <c r="I120" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E86" s="96" t="s">
+      <c r="J120" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F86" s="96" t="s">
+      <c r="K120" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G86" s="96" t="s">
+      <c r="L120" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="J86" s="131"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
+      <c r="O120" s="131"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B121" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C121" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D121" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121" s="43">
+        <v>0</v>
+      </c>
+      <c r="G121" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C87" s="121">
+      <c r="H121" s="121">
         <v>0</v>
       </c>
-      <c r="D87" s="116">
+      <c r="I121" s="116">
         <v>0</v>
       </c>
-      <c r="E87" s="106">
+      <c r="J121" s="106">
         <v>0</v>
       </c>
-      <c r="F87" s="116">
+      <c r="K121" s="116">
         <v>0</v>
       </c>
-      <c r="G87" s="122">
+      <c r="L121" s="122">
         <v>0</v>
       </c>
-      <c r="I87" t="s">
+      <c r="N121" t="s">
         <v>178</v>
       </c>
-      <c r="J87" s="131">
+      <c r="O121" s="131">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
-      <c r="C88" s="117">
-        <v>1</v>
-      </c>
-      <c r="D88" s="114">
-        <v>1</v>
-      </c>
-      <c r="E88" s="114">
-        <v>1</v>
-      </c>
-      <c r="F88" s="114">
-        <v>1</v>
-      </c>
-      <c r="G88" s="118">
-        <v>1</v>
-      </c>
-      <c r="I88" t="s">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B122" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D122" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122" s="43">
+        <v>2</v>
+      </c>
+      <c r="G122" s="1"/>
+      <c r="H122" s="117">
+        <v>1</v>
+      </c>
+      <c r="I122" s="114">
+        <v>1</v>
+      </c>
+      <c r="J122" s="114">
+        <v>1</v>
+      </c>
+      <c r="K122" s="114">
+        <v>1</v>
+      </c>
+      <c r="L122" s="118">
+        <v>1</v>
+      </c>
+      <c r="N122" t="s">
         <v>179</v>
       </c>
-      <c r="J88" s="131"/>
-    </row>
-    <row r="89" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="1"/>
-      <c r="C89" s="111">
-        <v>2</v>
-      </c>
-      <c r="D89" s="112">
-        <v>2</v>
-      </c>
-      <c r="E89" s="115">
-        <v>2</v>
-      </c>
-      <c r="F89" s="112">
-        <v>2</v>
-      </c>
-      <c r="G89" s="113">
-        <v>2</v>
-      </c>
-      <c r="I89" t="s">
+      <c r="O122" s="131"/>
+    </row>
+    <row r="123" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B123" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D123" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E123" s="43">
+        <v>0</v>
+      </c>
+      <c r="G123" s="1"/>
+      <c r="H123" s="111">
+        <v>2</v>
+      </c>
+      <c r="I123" s="112">
+        <v>2</v>
+      </c>
+      <c r="J123" s="115">
+        <v>2</v>
+      </c>
+      <c r="K123" s="112">
+        <v>2</v>
+      </c>
+      <c r="L123" s="113">
+        <v>2</v>
+      </c>
+      <c r="N123" t="s">
         <v>180</v>
       </c>
-      <c r="J89" s="131"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
-      <c r="I90" s="123"/>
-      <c r="J90" s="131"/>
-    </row>
-    <row r="91" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="1"/>
-      <c r="C91" s="96" t="s">
+      <c r="O123" s="131"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A124" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B124" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D124" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E124" s="43">
+        <v>0</v>
+      </c>
+      <c r="G124" s="1"/>
+      <c r="N124" s="123"/>
+      <c r="O124" s="131"/>
+    </row>
+    <row r="125" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B125" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D125" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E125" s="46">
+        <v>17</v>
+      </c>
+      <c r="G125" s="1"/>
+      <c r="N125" s="123"/>
+      <c r="O125" s="131"/>
+    </row>
+    <row r="126" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G126" s="1"/>
+      <c r="N126" s="123"/>
+      <c r="O126" s="131"/>
+    </row>
+    <row r="127" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B127" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D127" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E127" s="41">
+        <v>2</v>
+      </c>
+      <c r="G127" s="1"/>
+      <c r="H127" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D91" s="96" t="s">
+      <c r="I127" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E91" s="96" t="s">
+      <c r="J127" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F91" s="96" t="s">
+      <c r="K127" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G91" s="96" t="s">
+      <c r="L127" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="J91" s="131"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
+      <c r="O127" s="131"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B128" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D128" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E128" s="43">
+        <v>2</v>
+      </c>
+      <c r="G128" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C92" s="105">
+      <c r="H128" s="105">
         <v>0</v>
       </c>
-      <c r="D92" s="106">
+      <c r="I128" s="106">
         <v>0</v>
       </c>
-      <c r="E92" s="116">
+      <c r="J128" s="116">
         <v>0</v>
       </c>
-      <c r="F92" s="106">
+      <c r="K128" s="106">
         <v>0</v>
       </c>
-      <c r="G92" s="107">
+      <c r="L128" s="107">
         <v>0</v>
       </c>
-      <c r="I92" t="s">
+      <c r="N128" t="s">
         <v>178</v>
       </c>
-      <c r="J92" s="131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
-      <c r="C93" s="117">
-        <v>1</v>
-      </c>
-      <c r="D93" s="114">
-        <v>1</v>
-      </c>
-      <c r="E93" s="114">
-        <v>1</v>
-      </c>
-      <c r="F93" s="114">
-        <v>1</v>
-      </c>
-      <c r="G93" s="118">
-        <v>1</v>
-      </c>
-      <c r="I93" t="s">
+      <c r="O128" s="131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A129" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B129" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D129" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E129" s="43">
+        <v>0</v>
+      </c>
+      <c r="G129" s="1"/>
+      <c r="H129" s="117">
+        <v>1</v>
+      </c>
+      <c r="I129" s="114">
+        <v>1</v>
+      </c>
+      <c r="J129" s="114">
+        <v>1</v>
+      </c>
+      <c r="K129" s="114">
+        <v>1</v>
+      </c>
+      <c r="L129" s="118">
+        <v>1</v>
+      </c>
+      <c r="N129" t="s">
         <v>179</v>
       </c>
-      <c r="J93" s="131"/>
-    </row>
-    <row r="94" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="1"/>
-      <c r="C94" s="119">
-        <v>2</v>
-      </c>
-      <c r="D94" s="115">
-        <v>2</v>
-      </c>
-      <c r="E94" s="112">
-        <v>2</v>
-      </c>
-      <c r="F94" s="115">
-        <v>2</v>
-      </c>
-      <c r="G94" s="120">
-        <v>2</v>
-      </c>
-      <c r="I94" t="s">
+      <c r="O129" s="131"/>
+    </row>
+    <row r="130" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B130" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D130" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E130" s="43">
+        <v>2</v>
+      </c>
+      <c r="G130" s="1"/>
+      <c r="H130" s="119">
+        <v>2</v>
+      </c>
+      <c r="I130" s="115">
+        <v>2</v>
+      </c>
+      <c r="J130" s="112">
+        <v>2</v>
+      </c>
+      <c r="K130" s="115">
+        <v>2</v>
+      </c>
+      <c r="L130" s="120">
+        <v>2</v>
+      </c>
+      <c r="N130" t="s">
         <v>180</v>
       </c>
-      <c r="J94" s="131"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
-      <c r="I95" s="123"/>
-      <c r="J95" s="131"/>
-    </row>
-    <row r="96" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="1"/>
-      <c r="C96" s="96" t="s">
+      <c r="O130" s="131"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A131" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B131" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D131" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E131" s="43">
+        <v>2</v>
+      </c>
+      <c r="G131" s="1"/>
+      <c r="N131" s="123"/>
+      <c r="O131" s="131"/>
+    </row>
+    <row r="132" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B132" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D132" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132" s="46">
+        <v>18</v>
+      </c>
+      <c r="G132" s="1"/>
+      <c r="N132" s="123"/>
+      <c r="O132" s="131"/>
+    </row>
+    <row r="133" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G133" s="1"/>
+      <c r="N133" s="123"/>
+      <c r="O133" s="131"/>
+    </row>
+    <row r="134" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B134" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D134" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E134" s="41">
+        <v>0</v>
+      </c>
+      <c r="G134" s="1"/>
+      <c r="H134" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D96" s="96" t="s">
+      <c r="I134" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E96" s="96" t="s">
+      <c r="J134" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F96" s="96" t="s">
+      <c r="K134" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G96" s="96" t="s">
+      <c r="L134" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="J96" s="131"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
+      <c r="O134" s="131"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A135" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B135" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C135" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D135" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E135" s="43">
+        <v>2</v>
+      </c>
+      <c r="G135" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C97" s="121">
+      <c r="H135" s="121">
         <v>0</v>
       </c>
-      <c r="D97" s="106">
+      <c r="I135" s="106">
         <v>0</v>
       </c>
-      <c r="E97" s="106">
+      <c r="J135" s="106">
         <v>0</v>
       </c>
-      <c r="F97" s="106">
+      <c r="K135" s="106">
         <v>0</v>
       </c>
-      <c r="G97" s="122">
+      <c r="L135" s="122">
         <v>0</v>
       </c>
-      <c r="I97" t="s">
+      <c r="N135" t="s">
         <v>178</v>
       </c>
-      <c r="J97" s="131">
+      <c r="O135" s="131">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-      <c r="C98" s="117">
-        <v>1</v>
-      </c>
-      <c r="D98" s="114">
-        <v>1</v>
-      </c>
-      <c r="E98" s="114">
-        <v>1</v>
-      </c>
-      <c r="F98" s="114">
-        <v>1</v>
-      </c>
-      <c r="G98" s="118">
-        <v>1</v>
-      </c>
-      <c r="I98" t="s">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A136" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B136" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C136" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D136" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E136" s="43">
+        <v>2</v>
+      </c>
+      <c r="G136" s="1"/>
+      <c r="H136" s="117">
+        <v>1</v>
+      </c>
+      <c r="I136" s="114">
+        <v>1</v>
+      </c>
+      <c r="J136" s="114">
+        <v>1</v>
+      </c>
+      <c r="K136" s="114">
+        <v>1</v>
+      </c>
+      <c r="L136" s="118">
+        <v>1</v>
+      </c>
+      <c r="N136" t="s">
         <v>179</v>
       </c>
-      <c r="J98" s="131"/>
-    </row>
-    <row r="99" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="1"/>
-      <c r="C99" s="111">
-        <v>2</v>
-      </c>
-      <c r="D99" s="115">
-        <v>2</v>
-      </c>
-      <c r="E99" s="115">
-        <v>2</v>
-      </c>
-      <c r="F99" s="115">
-        <v>2</v>
-      </c>
-      <c r="G99" s="113">
-        <v>2</v>
-      </c>
-      <c r="I99" t="s">
+      <c r="O136" s="131"/>
+    </row>
+    <row r="137" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B137" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C137" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D137" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E137" s="43">
+        <v>2</v>
+      </c>
+      <c r="G137" s="1"/>
+      <c r="H137" s="111">
+        <v>2</v>
+      </c>
+      <c r="I137" s="115">
+        <v>2</v>
+      </c>
+      <c r="J137" s="115">
+        <v>2</v>
+      </c>
+      <c r="K137" s="115">
+        <v>2</v>
+      </c>
+      <c r="L137" s="113">
+        <v>2</v>
+      </c>
+      <c r="N137" t="s">
         <v>180</v>
       </c>
-      <c r="J99" s="131"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-      <c r="I100" s="123"/>
-      <c r="J100" s="131"/>
-    </row>
-    <row r="101" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="1"/>
-      <c r="C101" s="96" t="s">
+      <c r="O137" s="131"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A138" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B138" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C138" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D138" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E138" s="43">
+        <v>0</v>
+      </c>
+      <c r="G138" s="1"/>
+      <c r="N138" s="123"/>
+      <c r="O138" s="131"/>
+    </row>
+    <row r="139" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B139" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C139" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D139" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E139" s="46">
+        <v>19</v>
+      </c>
+      <c r="G139" s="1"/>
+      <c r="N139" s="123"/>
+      <c r="O139" s="131"/>
+    </row>
+    <row r="140" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G140" s="1"/>
+      <c r="N140" s="123"/>
+      <c r="O140" s="131"/>
+    </row>
+    <row r="141" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B141" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C141" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D141" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E141" s="41">
+        <v>2</v>
+      </c>
+      <c r="G141" s="1"/>
+      <c r="H141" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D101" s="96" t="s">
+      <c r="I141" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E101" s="96" t="s">
+      <c r="J141" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F101" s="96" t="s">
+      <c r="K141" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G101" s="96" t="s">
+      <c r="L141" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="J101" s="131"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B102" s="1" t="s">
+      <c r="O141" s="131"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A142" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B142" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C142" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D142" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E142" s="43">
+        <v>0</v>
+      </c>
+      <c r="G142" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C102" s="105">
+      <c r="H142" s="105">
         <v>0</v>
       </c>
-      <c r="D102" s="116">
+      <c r="I142" s="116">
         <v>0</v>
       </c>
-      <c r="E102" s="116">
+      <c r="J142" s="116">
         <v>0</v>
       </c>
-      <c r="F102" s="116">
+      <c r="K142" s="116">
         <v>0</v>
       </c>
-      <c r="G102" s="107">
+      <c r="L142" s="107">
         <v>0</v>
       </c>
-      <c r="I102" t="s">
+      <c r="N142" t="s">
         <v>178</v>
       </c>
-      <c r="J102" s="131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-      <c r="C103" s="117">
-        <v>1</v>
-      </c>
-      <c r="D103" s="114">
-        <v>1</v>
-      </c>
-      <c r="E103" s="114">
-        <v>1</v>
-      </c>
-      <c r="F103" s="114">
-        <v>1</v>
-      </c>
-      <c r="G103" s="118">
-        <v>1</v>
-      </c>
-      <c r="I103" t="s">
+      <c r="O142" s="131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A143" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B143" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C143" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D143" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E143" s="43">
+        <v>0</v>
+      </c>
+      <c r="G143" s="1"/>
+      <c r="H143" s="117">
+        <v>1</v>
+      </c>
+      <c r="I143" s="114">
+        <v>1</v>
+      </c>
+      <c r="J143" s="114">
+        <v>1</v>
+      </c>
+      <c r="K143" s="114">
+        <v>1</v>
+      </c>
+      <c r="L143" s="118">
+        <v>1</v>
+      </c>
+      <c r="N143" t="s">
         <v>179</v>
       </c>
-      <c r="J103" s="131"/>
-    </row>
-    <row r="104" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="1"/>
-      <c r="C104" s="119">
-        <v>2</v>
-      </c>
-      <c r="D104" s="112">
-        <v>2</v>
-      </c>
-      <c r="E104" s="112">
-        <v>2</v>
-      </c>
-      <c r="F104" s="112">
-        <v>2</v>
-      </c>
-      <c r="G104" s="120">
-        <v>2</v>
-      </c>
-      <c r="I104" t="s">
+      <c r="O143" s="131"/>
+    </row>
+    <row r="144" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B144" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C144" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D144" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E144" s="43">
+        <v>0</v>
+      </c>
+      <c r="G144" s="1"/>
+      <c r="H144" s="119">
+        <v>2</v>
+      </c>
+      <c r="I144" s="112">
+        <v>2</v>
+      </c>
+      <c r="J144" s="112">
+        <v>2</v>
+      </c>
+      <c r="K144" s="112">
+        <v>2</v>
+      </c>
+      <c r="L144" s="120">
+        <v>2</v>
+      </c>
+      <c r="N144" t="s">
         <v>180</v>
       </c>
-      <c r="J104" s="131"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-      <c r="I105" s="123"/>
-      <c r="J105" s="131"/>
-    </row>
-    <row r="106" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="1"/>
-      <c r="C106" s="96" t="s">
+      <c r="O144" s="131"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A145" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B145" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D145" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E145" s="43">
+        <v>2</v>
+      </c>
+      <c r="G145" s="1"/>
+      <c r="N145" s="123"/>
+      <c r="O145" s="131"/>
+    </row>
+    <row r="146" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B146" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C146" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D146" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E146" s="46">
+        <v>20</v>
+      </c>
+      <c r="G146" s="1"/>
+      <c r="N146" s="123"/>
+      <c r="O146" s="131"/>
+    </row>
+    <row r="147" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G147" s="1"/>
+      <c r="N147" s="123"/>
+      <c r="O147" s="131"/>
+    </row>
+    <row r="148" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B148" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C148" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D148" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E148" s="41">
+        <v>1</v>
+      </c>
+      <c r="G148" s="1"/>
+      <c r="H148" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D106" s="96" t="s">
+      <c r="I148" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E106" s="96" t="s">
+      <c r="J148" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F106" s="96" t="s">
+      <c r="K148" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G106" s="96" t="s">
+      <c r="L148" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="J106" s="131"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B107" s="1" t="s">
+      <c r="O148" s="131"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A149" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B149" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C149" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D149" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E149" s="43">
+        <v>2</v>
+      </c>
+      <c r="G149" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C107" s="105">
+      <c r="H149" s="105">
         <v>0</v>
       </c>
-      <c r="D107" s="106">
+      <c r="I149" s="106">
         <v>0</v>
       </c>
-      <c r="E107" s="116">
+      <c r="J149" s="116">
         <v>0</v>
       </c>
-      <c r="F107" s="106">
+      <c r="K149" s="106">
         <v>0</v>
       </c>
-      <c r="G107" s="107">
+      <c r="L149" s="107">
         <v>0</v>
       </c>
-      <c r="I107" t="s">
+      <c r="N149" t="s">
         <v>178</v>
       </c>
-      <c r="J107" s="131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B108" s="1"/>
-      <c r="C108" s="108">
-        <v>1</v>
-      </c>
-      <c r="D108" s="114">
-        <v>1</v>
-      </c>
-      <c r="E108" s="114">
-        <v>1</v>
-      </c>
-      <c r="F108" s="114">
-        <v>1</v>
-      </c>
-      <c r="G108" s="110">
-        <v>1</v>
-      </c>
-      <c r="I108" t="s">
+      <c r="O149" s="131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A150" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B150" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C150" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D150" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E150" s="43">
+        <v>0</v>
+      </c>
+      <c r="G150" s="1"/>
+      <c r="H150" s="108">
+        <v>1</v>
+      </c>
+      <c r="I150" s="114">
+        <v>1</v>
+      </c>
+      <c r="J150" s="114">
+        <v>1</v>
+      </c>
+      <c r="K150" s="114">
+        <v>1</v>
+      </c>
+      <c r="L150" s="110">
+        <v>1</v>
+      </c>
+      <c r="N150" t="s">
         <v>179</v>
       </c>
-      <c r="J108" s="131"/>
-    </row>
-    <row r="109" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="1"/>
-      <c r="C109" s="111">
-        <v>2</v>
-      </c>
-      <c r="D109" s="115">
-        <v>2</v>
-      </c>
-      <c r="E109" s="112">
-        <v>2</v>
-      </c>
-      <c r="F109" s="115">
-        <v>2</v>
-      </c>
-      <c r="G109" s="113">
-        <v>2</v>
-      </c>
-      <c r="I109" t="s">
+      <c r="O150" s="131"/>
+    </row>
+    <row r="151" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B151" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C151" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D151" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E151" s="43">
+        <v>2</v>
+      </c>
+      <c r="G151" s="1"/>
+      <c r="H151" s="111">
+        <v>2</v>
+      </c>
+      <c r="I151" s="115">
+        <v>2</v>
+      </c>
+      <c r="J151" s="112">
+        <v>2</v>
+      </c>
+      <c r="K151" s="115">
+        <v>2</v>
+      </c>
+      <c r="L151" s="113">
+        <v>2</v>
+      </c>
+      <c r="N151" t="s">
         <v>180</v>
       </c>
-      <c r="J109" s="131"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B110" s="1"/>
-      <c r="I110" s="123"/>
-      <c r="J110" s="131"/>
-    </row>
-    <row r="111" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="1"/>
-      <c r="C111" s="96" t="s">
+      <c r="O151" s="131"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A152" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B152" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C152" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D152" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E152" s="43">
+        <v>1</v>
+      </c>
+      <c r="G152" s="1"/>
+      <c r="N152" s="123"/>
+      <c r="O152" s="131"/>
+    </row>
+    <row r="153" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B153" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C153" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D153" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E153" s="46">
+        <v>21</v>
+      </c>
+      <c r="G153" s="1"/>
+      <c r="N153" s="123"/>
+      <c r="O153" s="131"/>
+    </row>
+    <row r="154" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G154" s="1"/>
+      <c r="N154" s="123"/>
+      <c r="O154" s="131"/>
+    </row>
+    <row r="155" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B155" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C155" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D155" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E155" s="41">
+        <v>1</v>
+      </c>
+      <c r="G155" s="1"/>
+      <c r="H155" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D111" s="96" t="s">
+      <c r="I155" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E111" s="96" t="s">
+      <c r="J155" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F111" s="96" t="s">
+      <c r="K155" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G111" s="96" t="s">
+      <c r="L155" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="J111" s="131"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B112" s="1" t="s">
+      <c r="O155" s="131"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A156" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B156" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C156" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D156" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E156" s="43">
+        <v>0</v>
+      </c>
+      <c r="G156" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C112" s="105">
+      <c r="H156" s="105">
         <v>0</v>
       </c>
-      <c r="D112" s="116">
+      <c r="I156" s="116">
         <v>0</v>
       </c>
-      <c r="E112" s="106">
+      <c r="J156" s="106">
         <v>0</v>
       </c>
-      <c r="F112" s="116">
+      <c r="K156" s="116">
         <v>0</v>
       </c>
-      <c r="G112" s="107">
+      <c r="L156" s="107">
         <v>0</v>
       </c>
-      <c r="I112" t="s">
+      <c r="N156" t="s">
         <v>178</v>
       </c>
-      <c r="J112" s="131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="1"/>
-      <c r="C113" s="108">
-        <v>1</v>
-      </c>
-      <c r="D113" s="114">
-        <v>1</v>
-      </c>
-      <c r="E113" s="114">
-        <v>1</v>
-      </c>
-      <c r="F113" s="114">
-        <v>1</v>
-      </c>
-      <c r="G113" s="110">
-        <v>1</v>
-      </c>
-      <c r="I113" t="s">
+      <c r="O156" s="131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A157" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B157" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C157" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D157" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E157" s="43">
+        <v>2</v>
+      </c>
+      <c r="G157" s="1"/>
+      <c r="H157" s="108">
+        <v>1</v>
+      </c>
+      <c r="I157" s="114">
+        <v>1</v>
+      </c>
+      <c r="J157" s="114">
+        <v>1</v>
+      </c>
+      <c r="K157" s="114">
+        <v>1</v>
+      </c>
+      <c r="L157" s="110">
+        <v>1</v>
+      </c>
+      <c r="N157" t="s">
         <v>179</v>
       </c>
-      <c r="J113" s="131"/>
-    </row>
-    <row r="114" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="1"/>
-      <c r="C114" s="111">
-        <v>2</v>
-      </c>
-      <c r="D114" s="112">
-        <v>2</v>
-      </c>
-      <c r="E114" s="115">
-        <v>2</v>
-      </c>
-      <c r="F114" s="112">
-        <v>2</v>
-      </c>
-      <c r="G114" s="113">
-        <v>2</v>
-      </c>
-      <c r="I114" t="s">
+      <c r="O157" s="131"/>
+    </row>
+    <row r="158" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B158" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C158" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D158" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E158" s="43">
+        <v>0</v>
+      </c>
+      <c r="G158" s="1"/>
+      <c r="H158" s="111">
+        <v>2</v>
+      </c>
+      <c r="I158" s="112">
+        <v>2</v>
+      </c>
+      <c r="J158" s="115">
+        <v>2</v>
+      </c>
+      <c r="K158" s="112">
+        <v>2</v>
+      </c>
+      <c r="L158" s="113">
+        <v>2</v>
+      </c>
+      <c r="N158" t="s">
         <v>180</v>
       </c>
-      <c r="J114" s="131"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="1"/>
-      <c r="I115" s="123"/>
-      <c r="J115" s="131"/>
-    </row>
-    <row r="116" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="1"/>
-      <c r="C116" s="96" t="s">
+      <c r="O158" s="131"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A159" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B159" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C159" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D159" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E159" s="43">
+        <v>1</v>
+      </c>
+      <c r="G159" s="1"/>
+      <c r="N159" s="123"/>
+      <c r="O159" s="131"/>
+    </row>
+    <row r="160" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B160" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C160" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D160" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E160" s="46">
+        <v>22</v>
+      </c>
+      <c r="G160" s="1"/>
+      <c r="N160" s="123"/>
+      <c r="O160" s="131"/>
+    </row>
+    <row r="161" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G161" s="1"/>
+      <c r="N161" s="123"/>
+      <c r="O161" s="131"/>
+    </row>
+    <row r="162" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B162" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C162" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D162" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E162" s="41">
+        <v>0</v>
+      </c>
+      <c r="G162" s="1"/>
+      <c r="H162" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D116" s="96" t="s">
+      <c r="I162" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E116" s="96" t="s">
+      <c r="J162" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F116" s="96" t="s">
+      <c r="K162" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G116" s="96" t="s">
+      <c r="L162" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="J116" s="131"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="1" t="s">
+      <c r="O162" s="131"/>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A163" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B163" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C163" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D163" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E163" s="43">
+        <v>2</v>
+      </c>
+      <c r="G163" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C117" s="121">
+      <c r="H163" s="121">
         <v>0</v>
       </c>
-      <c r="D117" s="106">
+      <c r="I163" s="106">
         <v>0</v>
       </c>
-      <c r="E117" s="116">
+      <c r="J163" s="116">
         <v>0</v>
       </c>
-      <c r="F117" s="106">
+      <c r="K163" s="106">
         <v>0</v>
       </c>
-      <c r="G117" s="122">
+      <c r="L163" s="122">
         <v>0</v>
       </c>
-      <c r="I117" t="s">
+      <c r="N163" t="s">
         <v>178</v>
       </c>
-      <c r="J117" s="131">
+      <c r="O163" s="131">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="1"/>
-      <c r="C118" s="117">
-        <v>1</v>
-      </c>
-      <c r="D118" s="114">
-        <v>1</v>
-      </c>
-      <c r="E118" s="114">
-        <v>1</v>
-      </c>
-      <c r="F118" s="114">
-        <v>1</v>
-      </c>
-      <c r="G118" s="118">
-        <v>1</v>
-      </c>
-      <c r="I118" t="s">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A164" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B164" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C164" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D164" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E164" s="43">
+        <v>0</v>
+      </c>
+      <c r="G164" s="1"/>
+      <c r="H164" s="117">
+        <v>1</v>
+      </c>
+      <c r="I164" s="114">
+        <v>1</v>
+      </c>
+      <c r="J164" s="114">
+        <v>1</v>
+      </c>
+      <c r="K164" s="114">
+        <v>1</v>
+      </c>
+      <c r="L164" s="118">
+        <v>1</v>
+      </c>
+      <c r="N164" t="s">
         <v>179</v>
       </c>
-      <c r="J118" s="131"/>
-    </row>
-    <row r="119" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="1"/>
-      <c r="C119" s="111">
-        <v>2</v>
-      </c>
-      <c r="D119" s="115">
-        <v>2</v>
-      </c>
-      <c r="E119" s="112">
-        <v>2</v>
-      </c>
-      <c r="F119" s="115">
-        <v>2</v>
-      </c>
-      <c r="G119" s="113">
-        <v>2</v>
-      </c>
-      <c r="I119" t="s">
+      <c r="O164" s="131"/>
+    </row>
+    <row r="165" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B165" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C165" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D165" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E165" s="43">
+        <v>2</v>
+      </c>
+      <c r="G165" s="1"/>
+      <c r="H165" s="111">
+        <v>2</v>
+      </c>
+      <c r="I165" s="115">
+        <v>2</v>
+      </c>
+      <c r="J165" s="112">
+        <v>2</v>
+      </c>
+      <c r="K165" s="115">
+        <v>2</v>
+      </c>
+      <c r="L165" s="113">
+        <v>2</v>
+      </c>
+      <c r="N165" t="s">
         <v>180</v>
       </c>
-      <c r="J119" s="131"/>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="1"/>
-      <c r="I120" s="123"/>
-      <c r="J120" s="131"/>
-    </row>
-    <row r="121" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="1"/>
-      <c r="C121" s="96" t="s">
+      <c r="O165" s="131"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A166" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B166" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C166" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D166" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E166" s="43">
+        <v>0</v>
+      </c>
+      <c r="G166" s="1"/>
+      <c r="N166" s="123"/>
+      <c r="O166" s="131"/>
+    </row>
+    <row r="167" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B167" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C167" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D167" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E167" s="46">
+        <v>23</v>
+      </c>
+      <c r="G167" s="1"/>
+      <c r="N167" s="123"/>
+      <c r="O167" s="131"/>
+    </row>
+    <row r="168" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G168" s="1"/>
+      <c r="N168" s="123"/>
+      <c r="O168" s="131"/>
+    </row>
+    <row r="169" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B169" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C169" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D169" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E169" s="41">
+        <v>2</v>
+      </c>
+      <c r="G169" s="1"/>
+      <c r="H169" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D121" s="96" t="s">
+      <c r="I169" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E121" s="96" t="s">
+      <c r="J169" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="F121" s="96" t="s">
+      <c r="K169" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G121" s="96" t="s">
+      <c r="L169" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="J121" s="131"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B122" s="1" t="s">
+      <c r="O169" s="131"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A170" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B170" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C170" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D170" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E170" s="43">
+        <v>0</v>
+      </c>
+      <c r="G170" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C122" s="105">
+      <c r="H170" s="105">
         <v>0</v>
       </c>
-      <c r="D122" s="116">
+      <c r="I170" s="116">
         <v>0</v>
       </c>
-      <c r="E122" s="106">
+      <c r="J170" s="106">
         <v>0</v>
       </c>
-      <c r="F122" s="116">
+      <c r="K170" s="116">
         <v>0</v>
       </c>
-      <c r="G122" s="107">
+      <c r="L170" s="107">
         <v>0</v>
       </c>
-      <c r="I122" t="s">
+      <c r="N170" t="s">
         <v>178</v>
       </c>
-      <c r="J122" s="131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C123" s="117">
-        <v>1</v>
-      </c>
-      <c r="D123" s="114">
-        <v>1</v>
-      </c>
-      <c r="E123" s="114">
-        <v>1</v>
-      </c>
-      <c r="F123" s="114">
-        <v>1</v>
-      </c>
-      <c r="G123" s="118">
-        <v>1</v>
-      </c>
-      <c r="I123" t="s">
+      <c r="O170" s="131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A171" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B171" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C171" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D171" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E171" s="43">
+        <v>2</v>
+      </c>
+      <c r="H171" s="117">
+        <v>1</v>
+      </c>
+      <c r="I171" s="114">
+        <v>1</v>
+      </c>
+      <c r="J171" s="114">
+        <v>1</v>
+      </c>
+      <c r="K171" s="114">
+        <v>1</v>
+      </c>
+      <c r="L171" s="118">
+        <v>1</v>
+      </c>
+      <c r="N171" t="s">
         <v>179</v>
       </c>
-      <c r="J123" s="131"/>
-    </row>
-    <row r="124" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C124" s="119">
-        <v>2</v>
-      </c>
-      <c r="D124" s="112">
-        <v>2</v>
-      </c>
-      <c r="E124" s="115">
-        <v>2</v>
-      </c>
-      <c r="F124" s="112">
-        <v>2</v>
-      </c>
-      <c r="G124" s="120">
-        <v>2</v>
-      </c>
-      <c r="I124" t="s">
+      <c r="O171" s="131"/>
+    </row>
+    <row r="172" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B172" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C172" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D172" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E172" s="43">
+        <v>0</v>
+      </c>
+      <c r="H172" s="119">
+        <v>2</v>
+      </c>
+      <c r="I172" s="112">
+        <v>2</v>
+      </c>
+      <c r="J172" s="115">
+        <v>2</v>
+      </c>
+      <c r="K172" s="112">
+        <v>2</v>
+      </c>
+      <c r="L172" s="120">
+        <v>2</v>
+      </c>
+      <c r="N172" t="s">
         <v>180</v>
       </c>
-      <c r="J124" s="131"/>
+      <c r="O172" s="131"/>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A173" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B173" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C173" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D173" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E173" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B174" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C174" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D174" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E174" s="46">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L4:N4"/>
+  <mergeCells count="2">
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7703,7 +9998,7 @@
   <dimension ref="A1:AO68"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8161,48 +10456,48 @@
       <c r="G9" s="151">
         <v>0.01</v>
       </c>
-      <c r="H9" s="176" t="s">
+      <c r="H9" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="176"/>
-      <c r="J9" s="176"/>
-      <c r="K9" s="176"/>
-      <c r="L9" s="176"/>
-      <c r="M9" s="176"/>
-      <c r="N9" s="176"/>
-      <c r="O9" s="176"/>
-      <c r="P9" s="176"/>
-      <c r="Q9" s="176"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="180"/>
+      <c r="M9" s="180"/>
+      <c r="N9" s="180"/>
+      <c r="O9" s="180"/>
+      <c r="P9" s="180"/>
+      <c r="Q9" s="180"/>
       <c r="S9" s="151">
         <v>0.01</v>
       </c>
-      <c r="T9" s="168" t="s">
+      <c r="T9" s="171" t="s">
         <v>75</v>
       </c>
-      <c r="U9" s="168"/>
-      <c r="V9" s="168"/>
-      <c r="W9" s="168"/>
-      <c r="X9" s="168"/>
-      <c r="Y9" s="168"/>
-      <c r="Z9" s="168"/>
-      <c r="AA9" s="168"/>
-      <c r="AB9" s="168"/>
-      <c r="AC9" s="168"/>
+      <c r="U9" s="171"/>
+      <c r="V9" s="171"/>
+      <c r="W9" s="171"/>
+      <c r="X9" s="171"/>
+      <c r="Y9" s="171"/>
+      <c r="Z9" s="171"/>
+      <c r="AA9" s="171"/>
+      <c r="AB9" s="171"/>
+      <c r="AC9" s="171"/>
       <c r="AE9" s="151">
         <v>0.01</v>
       </c>
-      <c r="AF9" s="168" t="s">
+      <c r="AF9" s="171" t="s">
         <v>76</v>
       </c>
-      <c r="AG9" s="168"/>
-      <c r="AH9" s="168"/>
-      <c r="AI9" s="168"/>
-      <c r="AJ9" s="168"/>
-      <c r="AK9" s="168"/>
-      <c r="AL9" s="168"/>
-      <c r="AM9" s="168"/>
-      <c r="AN9" s="168"/>
-      <c r="AO9" s="168"/>
+      <c r="AG9" s="171"/>
+      <c r="AH9" s="171"/>
+      <c r="AI9" s="171"/>
+      <c r="AJ9" s="171"/>
+      <c r="AK9" s="171"/>
+      <c r="AL9" s="171"/>
+      <c r="AM9" s="171"/>
+      <c r="AN9" s="171"/>
+      <c r="AO9" s="171"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="101" t="s">
@@ -18409,34 +20704,34 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="174">
-        <v>1</v>
-      </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="H1" s="174">
-        <v>2</v>
-      </c>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="N1" s="174">
+      <c r="B1" s="177">
+        <v>1</v>
+      </c>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="H1" s="177">
+        <v>2</v>
+      </c>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="N1" s="177">
         <v>3</v>
       </c>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="T1" s="174">
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="T1" s="177">
         <v>4</v>
       </c>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="39"/>
@@ -18505,34 +20800,34 @@
       <c r="X4" s="46"/>
     </row>
     <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="174">
+      <c r="B6" s="177">
         <v>5</v>
       </c>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="H6" s="174">
+      <c r="C6" s="177"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="H6" s="177">
         <v>6</v>
       </c>
-      <c r="I6" s="174"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="174"/>
-      <c r="L6" s="174"/>
-      <c r="N6" s="174">
+      <c r="I6" s="177"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="177"/>
+      <c r="L6" s="177"/>
+      <c r="N6" s="177">
         <v>7</v>
       </c>
-      <c r="O6" s="174"/>
-      <c r="P6" s="174"/>
-      <c r="Q6" s="174"/>
-      <c r="R6" s="174"/>
-      <c r="T6" s="174">
+      <c r="O6" s="177"/>
+      <c r="P6" s="177"/>
+      <c r="Q6" s="177"/>
+      <c r="R6" s="177"/>
+      <c r="T6" s="177">
         <v>8</v>
       </c>
-      <c r="U6" s="174"/>
-      <c r="V6" s="174"/>
-      <c r="W6" s="174"/>
-      <c r="X6" s="174"/>
+      <c r="U6" s="177"/>
+      <c r="V6" s="177"/>
+      <c r="W6" s="177"/>
+      <c r="X6" s="177"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="39"/>
@@ -18601,34 +20896,34 @@
       <c r="X9" s="59"/>
     </row>
     <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="174">
+      <c r="B11" s="177">
         <v>9</v>
       </c>
-      <c r="C11" s="174"/>
-      <c r="D11" s="174"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="174"/>
-      <c r="H11" s="174">
+      <c r="C11" s="177"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="H11" s="177">
         <v>10</v>
       </c>
-      <c r="I11" s="174"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="174"/>
-      <c r="L11" s="174"/>
-      <c r="N11" s="174">
+      <c r="I11" s="177"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="177"/>
+      <c r="L11" s="177"/>
+      <c r="N11" s="177">
         <v>11</v>
       </c>
-      <c r="O11" s="174"/>
-      <c r="P11" s="174"/>
-      <c r="Q11" s="174"/>
-      <c r="R11" s="174"/>
-      <c r="T11" s="174">
+      <c r="O11" s="177"/>
+      <c r="P11" s="177"/>
+      <c r="Q11" s="177"/>
+      <c r="R11" s="177"/>
+      <c r="T11" s="177">
         <v>12</v>
       </c>
-      <c r="U11" s="174"/>
-      <c r="V11" s="174"/>
-      <c r="W11" s="174"/>
-      <c r="X11" s="174"/>
+      <c r="U11" s="177"/>
+      <c r="V11" s="177"/>
+      <c r="W11" s="177"/>
+      <c r="X11" s="177"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="39"/>
@@ -18697,34 +20992,34 @@
       <c r="X14" s="46"/>
     </row>
     <row r="16" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="174">
+      <c r="B16" s="177">
         <v>13</v>
       </c>
-      <c r="C16" s="174"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="H16" s="174">
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="H16" s="177">
         <v>14</v>
       </c>
-      <c r="I16" s="174"/>
-      <c r="J16" s="174"/>
-      <c r="K16" s="174"/>
-      <c r="L16" s="174"/>
-      <c r="N16" s="174">
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="N16" s="177">
         <v>15</v>
       </c>
-      <c r="O16" s="174"/>
-      <c r="P16" s="174"/>
-      <c r="Q16" s="174"/>
-      <c r="R16" s="174"/>
-      <c r="T16" s="174">
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="177"/>
+      <c r="T16" s="177">
         <v>16</v>
       </c>
-      <c r="U16" s="174"/>
-      <c r="V16" s="174"/>
-      <c r="W16" s="174"/>
-      <c r="X16" s="174"/>
+      <c r="U16" s="177"/>
+      <c r="V16" s="177"/>
+      <c r="W16" s="177"/>
+      <c r="X16" s="177"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="39"/>
@@ -18793,34 +21088,34 @@
       <c r="X19" s="46"/>
     </row>
     <row r="21" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="174">
+      <c r="B21" s="177">
         <v>17</v>
       </c>
-      <c r="C21" s="174"/>
-      <c r="D21" s="174"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="174"/>
-      <c r="H21" s="174">
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="H21" s="177">
         <v>18</v>
       </c>
-      <c r="I21" s="174"/>
-      <c r="J21" s="174"/>
-      <c r="K21" s="174"/>
-      <c r="L21" s="174"/>
-      <c r="N21" s="174">
+      <c r="I21" s="177"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="N21" s="177">
         <v>19</v>
       </c>
-      <c r="O21" s="174"/>
-      <c r="P21" s="174"/>
-      <c r="Q21" s="174"/>
-      <c r="R21" s="174"/>
-      <c r="T21" s="174">
+      <c r="O21" s="177"/>
+      <c r="P21" s="177"/>
+      <c r="Q21" s="177"/>
+      <c r="R21" s="177"/>
+      <c r="T21" s="177">
         <v>20</v>
       </c>
-      <c r="U21" s="174"/>
-      <c r="V21" s="174"/>
-      <c r="W21" s="174"/>
-      <c r="X21" s="174"/>
+      <c r="U21" s="177"/>
+      <c r="V21" s="177"/>
+      <c r="W21" s="177"/>
+      <c r="X21" s="177"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="39"/>
@@ -18889,34 +21184,34 @@
       <c r="X24" s="46"/>
     </row>
     <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="174">
-        <v>21</v>
-      </c>
-      <c r="C26" s="174"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
-      <c r="H26" s="174">
+      <c r="B26" s="177">
+        <v>21</v>
+      </c>
+      <c r="C26" s="177"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="H26" s="177">
         <v>22</v>
       </c>
-      <c r="I26" s="174"/>
-      <c r="J26" s="174"/>
-      <c r="K26" s="174"/>
-      <c r="L26" s="174"/>
-      <c r="N26" s="174">
+      <c r="I26" s="177"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="177"/>
+      <c r="L26" s="177"/>
+      <c r="N26" s="177">
         <v>23</v>
       </c>
-      <c r="O26" s="174"/>
-      <c r="P26" s="174"/>
-      <c r="Q26" s="174"/>
-      <c r="R26" s="174"/>
-      <c r="T26" s="174">
+      <c r="O26" s="177"/>
+      <c r="P26" s="177"/>
+      <c r="Q26" s="177"/>
+      <c r="R26" s="177"/>
+      <c r="T26" s="177">
         <v>24</v>
       </c>
-      <c r="U26" s="174"/>
-      <c r="V26" s="174"/>
-      <c r="W26" s="174"/>
-      <c r="X26" s="174"/>
+      <c r="U26" s="177"/>
+      <c r="V26" s="177"/>
+      <c r="W26" s="177"/>
+      <c r="X26" s="177"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="39"/>
@@ -18985,13 +21280,13 @@
       <c r="X29" s="46"/>
     </row>
     <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="174">
+      <c r="B31" s="177">
         <v>25</v>
       </c>
-      <c r="C31" s="174"/>
-      <c r="D31" s="174"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="174"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="177"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="39"/>
@@ -19016,22 +21311,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="T26:X26"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="B21:F21"/>
@@ -19041,6 +21320,22 @@
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="H16:L16"/>
     <mergeCell ref="N16:R16"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="T6:X6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19064,40 +21359,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="181" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="179"/>
-      <c r="F1" s="177" t="s">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="183"/>
+      <c r="F1" s="181" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="178"/>
-      <c r="H1" s="179"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="183"/>
       <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
-      <c r="F2" s="157" t="s">
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="162"/>
+      <c r="F2" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="158"/>
-      <c r="H2" s="159"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="162"/>
       <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
       <c r="F3" s="13" t="s">
         <v>60</v>
       </c>
@@ -19249,10 +21544,10 @@
       <c r="B12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="161"/>
+      <c r="D12" s="164"/>
       <c r="F12" s="13" t="s">
         <v>67</v>
       </c>
@@ -19271,11 +21566,11 @@
       <c r="H13" s="66"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="157" t="s">
+      <c r="A14" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="158"/>
-      <c r="C14" s="158"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="161"/>
       <c r="D14" s="66"/>
       <c r="F14" s="13" t="s">
         <v>68</v>
@@ -19284,11 +21579,11 @@
       <c r="H14" s="66"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="157" t="s">
+      <c r="A15" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="158"/>
-      <c r="C15" s="158"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
       <c r="D15" s="66"/>
       <c r="F15" s="13" t="s">
         <v>69</v>

--- a/Conceptual/Game rules + pay amounts.xlsx
+++ b/Conceptual/Game rules + pay amounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy_\OneDrive\Documenten\GitHub\slotmachine-practice\Conceptual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833F8310-94FE-48D8-9BCA-D768A4C4792D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0738C253-917A-49F9-9806-9C243CE92086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31260" yWindow="-375" windowWidth="21600" windowHeight="11385" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28020" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="244">
   <si>
     <t>Symbols</t>
   </si>
@@ -1337,7 +1337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1692,6 +1692,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1749,16 +1771,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1770,27 +1786,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2392,7 +2398,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2433,12 +2439,12 @@
       <c r="H1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="175" t="s">
+      <c r="K1" s="183" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="177"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="185"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="163" t="s">
@@ -2503,11 +2509,11 @@
         <f>$H$19*Tabel1[[#This Row],[Pay 5X]]</f>
         <v>2</v>
       </c>
-      <c r="K3" s="181" t="s">
+      <c r="K3" s="189" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="171"/>
-      <c r="M3" s="171"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="179"/>
       <c r="N3" s="66"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2571,12 +2577,12 @@
         <f>$H$19*Tabel1[[#This Row],[Pay 5X]]</f>
         <v>1.5</v>
       </c>
-      <c r="K5" s="182" t="s">
+      <c r="K5" s="190" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="183"/>
-      <c r="M5" s="183"/>
-      <c r="N5" s="184"/>
+      <c r="L5" s="191"/>
+      <c r="M5" s="191"/>
+      <c r="N5" s="192"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="163" t="s">
@@ -2756,12 +2762,12 @@
         <f>$H$19*Tabel1[[#This Row],[Pay 5X]]</f>
         <v>0.35</v>
       </c>
-      <c r="K10" s="178" t="s">
+      <c r="K10" s="186" t="s">
         <v>92</v>
       </c>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="180"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="187"/>
+      <c r="N10" s="188"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2816,23 +2822,23 @@
       <c r="N13" s="66"/>
     </row>
     <row r="14" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="K14" s="175" t="s">
+      <c r="K14" s="183" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="176"/>
-      <c r="M14" s="176"/>
-      <c r="N14" s="177"/>
+      <c r="L14" s="184"/>
+      <c r="M14" s="184"/>
+      <c r="N14" s="185"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="168" t="s">
+      <c r="K15" s="176" t="s">
         <v>96</v>
       </c>
-      <c r="L15" s="169"/>
-      <c r="M15" s="169"/>
-      <c r="N15" s="170"/>
+      <c r="L15" s="177"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="178"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -2872,10 +2878,10 @@
       <c r="G18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="173" t="s">
+      <c r="H18" s="181" t="s">
         <v>102</v>
       </c>
-      <c r="I18" s="173"/>
+      <c r="I18" s="181"/>
       <c r="K18" s="42">
         <v>6</v>
       </c>
@@ -2911,11 +2917,11 @@
         <f>A16*A28*B19</f>
         <v>125</v>
       </c>
-      <c r="H19" s="174">
+      <c r="H19" s="182">
         <f>A16*A19*B24</f>
         <v>0.25</v>
       </c>
-      <c r="I19" s="174"/>
+      <c r="I19" s="182"/>
       <c r="J19" s="85"/>
       <c r="K19" s="42">
         <v>9</v>
@@ -3049,10 +3055,10 @@
       <c r="L23" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="M23" s="171" t="s">
+      <c r="M23" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="N23" s="172"/>
+      <c r="N23" s="180"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="97">
@@ -3526,8 +3532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90B50E7-CCC4-4662-92E0-5FAF72E473B1}">
   <dimension ref="B1:T105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3538,13 +3544,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G1" s="188" t="s">
+      <c r="G1" s="201" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
     </row>
     <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G2" s="123">
@@ -3579,7 +3585,7 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="197" t="s">
+      <c r="E3" s="202" t="s">
         <v>211</v>
       </c>
       <c r="F3" s="123">
@@ -3626,23 +3632,23 @@
       </c>
     </row>
     <row r="4" spans="2:20" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="197"/>
+      <c r="E4" s="202"/>
       <c r="F4" s="123">
         <v>75</v>
       </c>
-      <c r="G4" s="194" t="s">
+      <c r="G4" s="168" t="s">
         <v>208</v>
       </c>
-      <c r="H4" s="195" t="s">
+      <c r="H4" s="169" t="s">
         <v>221</v>
       </c>
-      <c r="I4" s="195" t="s">
+      <c r="I4" s="169" t="s">
         <v>222</v>
       </c>
-      <c r="J4" s="195" t="s">
+      <c r="J4" s="169" t="s">
         <v>223</v>
       </c>
-      <c r="K4" s="196" t="s">
+      <c r="K4" s="170" t="s">
         <v>224</v>
       </c>
       <c r="L4" s="123">
@@ -3651,19 +3657,19 @@
       <c r="N4" s="123">
         <v>75</v>
       </c>
-      <c r="O4" s="194">
-        <v>1</v>
-      </c>
-      <c r="P4" s="195">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="195">
+      <c r="O4" s="168">
+        <v>1</v>
+      </c>
+      <c r="P4" s="169">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="169">
         <v>3</v>
       </c>
-      <c r="R4" s="195">
+      <c r="R4" s="169">
         <v>4</v>
       </c>
-      <c r="S4" s="196">
+      <c r="S4" s="170">
         <v>5</v>
       </c>
       <c r="T4" s="123">
@@ -3671,7 +3677,7 @@
       </c>
     </row>
     <row r="5" spans="2:20" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="197"/>
+      <c r="E5" s="202"/>
       <c r="F5" s="123">
         <v>125</v>
       </c>
@@ -3985,7 +3991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="119" t="s">
         <v>207</v>
@@ -4000,11 +4006,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="198"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="198" t="s">
+    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="172"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="164" t="s">
         <v>156</v>
       </c>
       <c r="C19" s="121" t="s">
@@ -4016,15 +4022,15 @@
       <c r="G19" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="H19" s="199" t="s">
+      <c r="H19" s="173" t="s">
         <v>215</v>
       </c>
-      <c r="I19" s="200" t="s">
+      <c r="I19" s="174" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="198"/>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="172"/>
       <c r="C20" s="117"/>
       <c r="D20" s="109" t="s">
         <v>221</v>
@@ -4034,15 +4040,15 @@
         <v>223</v>
       </c>
       <c r="G20" s="118"/>
-      <c r="H20" s="199" t="s">
+      <c r="H20" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="I20" s="200" t="s">
+      <c r="I20" s="174" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="198"/>
+    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="172"/>
       <c r="C21" s="111"/>
       <c r="D21" s="112"/>
       <c r="E21" s="115" t="s">
@@ -4050,16 +4056,28 @@
       </c>
       <c r="F21" s="112"/>
       <c r="G21" s="113"/>
-      <c r="H21" s="199"/>
-      <c r="I21" s="200"/>
-    </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="198"/>
-      <c r="H22" s="199"/>
-      <c r="I22" s="200"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="198" t="s">
+      <c r="H21" s="173"/>
+      <c r="I21" s="174"/>
+      <c r="K21" s="203" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="203" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="172"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="174"/>
+      <c r="K22" s="171">
+        <v>0</v>
+      </c>
+      <c r="L22" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="164" t="s">
         <v>157</v>
       </c>
       <c r="C23" s="105"/>
@@ -4069,15 +4087,21 @@
       </c>
       <c r="F23" s="106"/>
       <c r="G23" s="107"/>
-      <c r="H23" s="199" t="s">
+      <c r="H23" s="173" t="s">
         <v>215</v>
       </c>
-      <c r="I23" s="200" t="s">
+      <c r="I23" s="174" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="198"/>
+      <c r="K23" s="171">
+        <v>1</v>
+      </c>
+      <c r="L23" s="171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="172"/>
       <c r="C24" s="117"/>
       <c r="D24" s="109" t="s">
         <v>221</v>
@@ -4087,15 +4111,21 @@
         <v>223</v>
       </c>
       <c r="G24" s="118"/>
-      <c r="H24" s="199" t="s">
+      <c r="H24" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="I24" s="200" t="s">
+      <c r="I24" s="174" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="198"/>
+      <c r="K24" s="171">
+        <v>2</v>
+      </c>
+      <c r="L24" s="171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="172"/>
       <c r="C25" s="119" t="s">
         <v>210</v>
       </c>
@@ -4105,16 +4135,24 @@
       <c r="G25" s="120" t="s">
         <v>228</v>
       </c>
-      <c r="H25" s="199"/>
-      <c r="I25" s="200"/>
-    </row>
-    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="198"/>
-      <c r="H26" s="199"/>
-      <c r="I26" s="200"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="198" t="s">
+      <c r="H25" s="173"/>
+      <c r="I25" s="174"/>
+      <c r="K25" s="171">
+        <v>3</v>
+      </c>
+      <c r="L25" s="171"/>
+    </row>
+    <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="172"/>
+      <c r="H26" s="173"/>
+      <c r="I26" s="174"/>
+      <c r="K26" s="171">
+        <v>4</v>
+      </c>
+      <c r="L26" s="171"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="164" t="s">
         <v>158</v>
       </c>
       <c r="C27" s="105"/>
@@ -4128,15 +4166,19 @@
         <v>219</v>
       </c>
       <c r="G27" s="107"/>
-      <c r="H27" s="199" t="s">
+      <c r="H27" s="173" t="s">
         <v>215</v>
       </c>
-      <c r="I27" s="201" t="s">
+      <c r="I27" s="175" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="198"/>
+      <c r="K27" s="171">
+        <v>5</v>
+      </c>
+      <c r="L27" s="171"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="172"/>
       <c r="C28" s="108" t="s">
         <v>208</v>
       </c>
@@ -4146,30 +4188,34 @@
       <c r="G28" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="199" t="s">
+      <c r="H28" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="I28" s="200" t="s">
+      <c r="I28" s="174" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="198"/>
+      <c r="K28" s="171">
+        <v>6</v>
+      </c>
+      <c r="L28" s="171"/>
+    </row>
+    <row r="29" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="172"/>
       <c r="C29" s="111"/>
       <c r="D29" s="112"/>
       <c r="E29" s="112"/>
       <c r="F29" s="112"/>
       <c r="G29" s="113"/>
-      <c r="H29" s="199"/>
-      <c r="I29" s="200"/>
-    </row>
-    <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="198"/>
-      <c r="H30" s="199"/>
-      <c r="I30" s="200"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="198" t="s">
+      <c r="H29" s="173"/>
+      <c r="I29" s="174"/>
+    </row>
+    <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="172"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="174"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="164" t="s">
         <v>159</v>
       </c>
       <c r="C31" s="124"/>
@@ -4177,15 +4223,15 @@
       <c r="E31" s="125"/>
       <c r="F31" s="125"/>
       <c r="G31" s="126"/>
-      <c r="H31" s="199" t="s">
+      <c r="H31" s="173" t="s">
         <v>215</v>
       </c>
-      <c r="I31" s="201" t="s">
+      <c r="I31" s="175" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="198"/>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="172"/>
       <c r="C32" s="108" t="s">
         <v>208</v>
       </c>
@@ -4195,15 +4241,15 @@
       <c r="G32" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="H32" s="199" t="s">
+      <c r="H32" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="I32" s="200" t="s">
+      <c r="I32" s="174" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="198"/>
+      <c r="B33" s="172"/>
       <c r="C33" s="127"/>
       <c r="D33" s="115" t="s">
         <v>225</v>
@@ -4215,16 +4261,16 @@
         <v>227</v>
       </c>
       <c r="G33" s="128"/>
-      <c r="H33" s="199"/>
-      <c r="I33" s="200"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="174"/>
     </row>
     <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="198"/>
-      <c r="H34" s="199"/>
-      <c r="I34" s="200"/>
+      <c r="B34" s="172"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="174"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="198" t="s">
+      <c r="B35" s="164" t="s">
         <v>160</v>
       </c>
       <c r="C35" s="121" t="s">
@@ -4236,15 +4282,15 @@
       <c r="E35" s="106"/>
       <c r="F35" s="106"/>
       <c r="G35" s="107"/>
-      <c r="H35" s="199" t="s">
+      <c r="H35" s="173" t="s">
         <v>215</v>
       </c>
-      <c r="I35" s="200" t="s">
+      <c r="I35" s="174" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="198"/>
+      <c r="B36" s="172"/>
       <c r="C36" s="117"/>
       <c r="D36" s="114"/>
       <c r="E36" s="109" t="s">
@@ -4252,15 +4298,15 @@
       </c>
       <c r="F36" s="114"/>
       <c r="G36" s="118"/>
-      <c r="H36" s="199" t="s">
+      <c r="H36" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="I36" s="200" t="s">
+      <c r="I36" s="174" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="198"/>
+      <c r="B37" s="172"/>
       <c r="C37" s="111"/>
       <c r="D37" s="112"/>
       <c r="E37" s="112"/>
@@ -4270,16 +4316,16 @@
       <c r="G37" s="120" t="s">
         <v>228</v>
       </c>
-      <c r="H37" s="199"/>
-      <c r="I37" s="200"/>
+      <c r="H37" s="173"/>
+      <c r="I37" s="174"/>
     </row>
     <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="198"/>
-      <c r="H38" s="199"/>
-      <c r="I38" s="200"/>
+      <c r="B38" s="172"/>
+      <c r="H38" s="173"/>
+      <c r="I38" s="174"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="198" t="s">
+      <c r="B39" s="164" t="s">
         <v>161</v>
       </c>
       <c r="C39" s="105"/>
@@ -4291,15 +4337,15 @@
       <c r="G39" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="H39" s="199" t="s">
+      <c r="H39" s="173" t="s">
         <v>215</v>
       </c>
-      <c r="I39" s="200" t="s">
+      <c r="I39" s="174" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="198"/>
+      <c r="B40" s="172"/>
       <c r="C40" s="117"/>
       <c r="D40" s="114"/>
       <c r="E40" s="109" t="s">
@@ -4307,15 +4353,15 @@
       </c>
       <c r="F40" s="114"/>
       <c r="G40" s="118"/>
-      <c r="H40" s="199" t="s">
+      <c r="H40" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="I40" s="200" t="s">
+      <c r="I40" s="174" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="198"/>
+      <c r="B41" s="172"/>
       <c r="C41" s="119" t="s">
         <v>210</v>
       </c>
@@ -4325,16 +4371,16 @@
       <c r="E41" s="112"/>
       <c r="F41" s="112"/>
       <c r="G41" s="113"/>
-      <c r="H41" s="199"/>
-      <c r="I41" s="200"/>
+      <c r="H41" s="173"/>
+      <c r="I41" s="174"/>
     </row>
     <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="198"/>
-      <c r="H42" s="199"/>
-      <c r="I42" s="200"/>
+      <c r="B42" s="172"/>
+      <c r="H42" s="173"/>
+      <c r="I42" s="174"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="198" t="s">
+      <c r="B43" s="164" t="s">
         <v>162</v>
       </c>
       <c r="C43" s="105"/>
@@ -4344,10 +4390,10 @@
         <v>219</v>
       </c>
       <c r="G43" s="107"/>
-      <c r="H43" s="199" t="s">
+      <c r="H43" s="173" t="s">
         <v>215</v>
       </c>
-      <c r="I43" s="201" t="s">
+      <c r="I43" s="175" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4364,10 +4410,10 @@
       <c r="G44" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="H44" s="199" t="s">
+      <c r="H44" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="I44" s="200" t="s">
+      <c r="I44" s="174" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4380,16 +4426,16 @@
       <c r="E45" s="112"/>
       <c r="F45" s="112"/>
       <c r="G45" s="113"/>
-      <c r="H45" s="199"/>
-      <c r="I45" s="200"/>
+      <c r="H45" s="173"/>
+      <c r="I45" s="174"/>
     </row>
     <row r="46" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
-      <c r="H46" s="199"/>
-      <c r="I46" s="200"/>
+      <c r="H46" s="173"/>
+      <c r="I46" s="174"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="164" t="s">
         <v>163</v>
       </c>
       <c r="C47" s="105"/>
@@ -4399,10 +4445,10 @@
       <c r="E47" s="106"/>
       <c r="F47" s="106"/>
       <c r="G47" s="107"/>
-      <c r="H47" s="199" t="s">
+      <c r="H47" s="173" t="s">
         <v>215</v>
       </c>
-      <c r="I47" s="201" t="s">
+      <c r="I47" s="175" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4419,10 +4465,10 @@
       <c r="G48" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="H48" s="199" t="s">
+      <c r="H48" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="I48" s="200" t="s">
+      <c r="I48" s="174" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4435,16 +4481,16 @@
         <v>227</v>
       </c>
       <c r="G49" s="113"/>
-      <c r="H49" s="199"/>
-      <c r="I49" s="200"/>
+      <c r="H49" s="173"/>
+      <c r="I49" s="174"/>
     </row>
     <row r="50" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
-      <c r="H50" s="199"/>
-      <c r="I50" s="200"/>
+      <c r="H50" s="173"/>
+      <c r="I50" s="174"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="164" t="s">
         <v>164</v>
       </c>
       <c r="C51" s="121" t="s">
@@ -4456,10 +4502,10 @@
       <c r="G51" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="H51" s="199" t="s">
+      <c r="H51" s="173" t="s">
         <v>215</v>
       </c>
-      <c r="I51" s="200" t="s">
+      <c r="I51" s="174" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4476,10 +4522,10 @@
         <v>223</v>
       </c>
       <c r="G52" s="118"/>
-      <c r="H52" s="199" t="s">
+      <c r="H52" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="I52" s="200" t="s">
+      <c r="I52" s="174" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4490,16 +4536,16 @@
       <c r="E53" s="112"/>
       <c r="F53" s="112"/>
       <c r="G53" s="113"/>
-      <c r="H53" s="199"/>
-      <c r="I53" s="200"/>
+      <c r="H53" s="173"/>
+      <c r="I53" s="174"/>
     </row>
     <row r="54" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
-      <c r="H54" s="199"/>
-      <c r="I54" s="200"/>
+      <c r="H54" s="173"/>
+      <c r="I54" s="174"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="164" t="s">
         <v>165</v>
       </c>
       <c r="C55" s="105"/>
@@ -4507,10 +4553,10 @@
       <c r="E55" s="106"/>
       <c r="F55" s="106"/>
       <c r="G55" s="107"/>
-      <c r="H55" s="199" t="s">
+      <c r="H55" s="173" t="s">
         <v>215</v>
       </c>
-      <c r="I55" s="200" t="s">
+      <c r="I55" s="174" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4527,10 +4573,10 @@
         <v>223</v>
       </c>
       <c r="G56" s="118"/>
-      <c r="H56" s="199" t="s">
+      <c r="H56" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="I56" s="200" t="s">
+      <c r="I56" s="174" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4545,16 +4591,16 @@
       <c r="G57" s="120" t="s">
         <v>228</v>
       </c>
-      <c r="H57" s="199"/>
-      <c r="I57" s="200"/>
+      <c r="H57" s="173"/>
+      <c r="I57" s="174"/>
     </row>
     <row r="58" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
-      <c r="H58" s="199"/>
-      <c r="I58" s="200"/>
+      <c r="H58" s="173"/>
+      <c r="I58" s="174"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="164" t="s">
         <v>166</v>
       </c>
       <c r="C59" s="121" t="s">
@@ -4568,10 +4614,10 @@
       <c r="G59" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="H59" s="199" t="s">
+      <c r="H59" s="173" t="s">
         <v>215</v>
       </c>
-      <c r="I59" s="200" t="s">
+      <c r="I59" s="174" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4586,10 +4632,10 @@
         <v>223</v>
       </c>
       <c r="G60" s="118"/>
-      <c r="H60" s="199" t="s">
+      <c r="H60" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="I60" s="200" t="s">
+      <c r="I60" s="174" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4600,16 +4646,16 @@
       <c r="E61" s="112"/>
       <c r="F61" s="112"/>
       <c r="G61" s="113"/>
-      <c r="H61" s="199"/>
-      <c r="I61" s="200"/>
+      <c r="H61" s="173"/>
+      <c r="I61" s="174"/>
     </row>
     <row r="62" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
-      <c r="H62" s="199"/>
-      <c r="I62" s="200"/>
+      <c r="H62" s="173"/>
+      <c r="I62" s="174"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="164" t="s">
         <v>167</v>
       </c>
       <c r="C63" s="105"/>
@@ -4617,10 +4663,10 @@
       <c r="E63" s="106"/>
       <c r="F63" s="106"/>
       <c r="G63" s="107"/>
-      <c r="H63" s="199" t="s">
+      <c r="H63" s="173" t="s">
         <v>215</v>
       </c>
-      <c r="I63" s="200" t="s">
+      <c r="I63" s="174" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4635,10 +4681,10 @@
         <v>223</v>
       </c>
       <c r="G64" s="118"/>
-      <c r="H64" s="199" t="s">
+      <c r="H64" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="I64" s="200" t="s">
+      <c r="I64" s="174" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4655,16 +4701,16 @@
       <c r="G65" s="120" t="s">
         <v>228</v>
       </c>
-      <c r="H65" s="199"/>
-      <c r="I65" s="200"/>
+      <c r="H65" s="173"/>
+      <c r="I65" s="174"/>
     </row>
     <row r="66" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
-      <c r="H66" s="199"/>
-      <c r="I66" s="200"/>
+      <c r="H66" s="173"/>
+      <c r="I66" s="174"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="164" t="s">
         <v>168</v>
       </c>
       <c r="C67" s="105"/>
@@ -4674,10 +4720,10 @@
       </c>
       <c r="F67" s="106"/>
       <c r="G67" s="107"/>
-      <c r="H67" s="199" t="s">
+      <c r="H67" s="173" t="s">
         <v>215</v>
       </c>
-      <c r="I67" s="201" t="s">
+      <c r="I67" s="175" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4696,10 +4742,10 @@
       <c r="G68" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="H68" s="199" t="s">
+      <c r="H68" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="I68" s="200" t="s">
+      <c r="I68" s="174" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4710,16 +4756,16 @@
       <c r="E69" s="112"/>
       <c r="F69" s="112"/>
       <c r="G69" s="113"/>
-      <c r="H69" s="199"/>
-      <c r="I69" s="200"/>
+      <c r="H69" s="173"/>
+      <c r="I69" s="174"/>
     </row>
     <row r="70" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
-      <c r="H70" s="199"/>
-      <c r="I70" s="200"/>
+      <c r="H70" s="173"/>
+      <c r="I70" s="174"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="164" t="s">
         <v>169</v>
       </c>
       <c r="C71" s="105"/>
@@ -4727,10 +4773,10 @@
       <c r="E71" s="106"/>
       <c r="F71" s="106"/>
       <c r="G71" s="107"/>
-      <c r="H71" s="199" t="s">
+      <c r="H71" s="173" t="s">
         <v>215</v>
       </c>
-      <c r="I71" s="201" t="s">
+      <c r="I71" s="175" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4749,10 +4795,10 @@
       <c r="G72" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="H72" s="199" t="s">
+      <c r="H72" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="I72" s="200" t="s">
+      <c r="I72" s="174" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4765,16 +4811,16 @@
       </c>
       <c r="F73" s="112"/>
       <c r="G73" s="113"/>
-      <c r="H73" s="199"/>
-      <c r="I73" s="200"/>
+      <c r="H73" s="173"/>
+      <c r="I73" s="174"/>
     </row>
     <row r="74" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
-      <c r="H74" s="199"/>
-      <c r="I74" s="200"/>
+      <c r="H74" s="173"/>
+      <c r="I74" s="174"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="164" t="s">
         <v>170</v>
       </c>
       <c r="C75" s="121" t="s">
@@ -4790,10 +4836,10 @@
       <c r="G75" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="H75" s="199" t="s">
+      <c r="H75" s="173" t="s">
         <v>215</v>
       </c>
-      <c r="I75" s="200" t="s">
+      <c r="I75" s="174" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4804,10 +4850,10 @@
       <c r="E76" s="114"/>
       <c r="F76" s="114"/>
       <c r="G76" s="118"/>
-      <c r="H76" s="199" t="s">
+      <c r="H76" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="I76" s="200" t="s">
+      <c r="I76" s="174" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4820,16 +4866,16 @@
       </c>
       <c r="F77" s="112"/>
       <c r="G77" s="113"/>
-      <c r="H77" s="199"/>
-      <c r="I77" s="200"/>
+      <c r="H77" s="173"/>
+      <c r="I77" s="174"/>
     </row>
     <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
-      <c r="H78" s="199"/>
-      <c r="I78" s="200"/>
+      <c r="H78" s="173"/>
+      <c r="I78" s="174"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="164" t="s">
         <v>171</v>
       </c>
       <c r="C79" s="105"/>
@@ -4839,10 +4885,10 @@
       </c>
       <c r="F79" s="106"/>
       <c r="G79" s="107"/>
-      <c r="H79" s="199" t="s">
+      <c r="H79" s="173" t="s">
         <v>215</v>
       </c>
-      <c r="I79" s="200" t="s">
+      <c r="I79" s="174" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4853,10 +4899,10 @@
       <c r="E80" s="114"/>
       <c r="F80" s="114"/>
       <c r="G80" s="118"/>
-      <c r="H80" s="199" t="s">
+      <c r="H80" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="I80" s="200" t="s">
+      <c r="I80" s="174" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4875,16 +4921,16 @@
       <c r="G81" s="120" t="s">
         <v>228</v>
       </c>
-      <c r="H81" s="199"/>
-      <c r="I81" s="200"/>
+      <c r="H81" s="173"/>
+      <c r="I81" s="174"/>
     </row>
     <row r="82" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
-      <c r="H82" s="199"/>
-      <c r="I82" s="200"/>
+      <c r="H82" s="173"/>
+      <c r="I82" s="174"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="164" t="s">
         <v>172</v>
       </c>
       <c r="C83" s="121" t="s">
@@ -4896,10 +4942,10 @@
       <c r="G83" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="H83" s="199" t="s">
+      <c r="H83" s="173" t="s">
         <v>215</v>
       </c>
-      <c r="I83" s="200" t="s">
+      <c r="I83" s="174" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4910,10 +4956,10 @@
       <c r="E84" s="114"/>
       <c r="F84" s="114"/>
       <c r="G84" s="118"/>
-      <c r="H84" s="199" t="s">
+      <c r="H84" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="I84" s="200" t="s">
+      <c r="I84" s="174" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4930,16 +4976,16 @@
         <v>227</v>
       </c>
       <c r="G85" s="113"/>
-      <c r="H85" s="199"/>
-      <c r="I85" s="200"/>
+      <c r="H85" s="173"/>
+      <c r="I85" s="174"/>
     </row>
     <row r="86" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
-      <c r="H86" s="199"/>
-      <c r="I86" s="200"/>
+      <c r="H86" s="173"/>
+      <c r="I86" s="174"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="164" t="s">
         <v>173</v>
       </c>
       <c r="C87" s="105"/>
@@ -4953,10 +4999,10 @@
         <v>219</v>
       </c>
       <c r="G87" s="107"/>
-      <c r="H87" s="199" t="s">
+      <c r="H87" s="173" t="s">
         <v>215</v>
       </c>
-      <c r="I87" s="200" t="s">
+      <c r="I87" s="174" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4967,10 +5013,10 @@
       <c r="E88" s="114"/>
       <c r="F88" s="114"/>
       <c r="G88" s="118"/>
-      <c r="H88" s="199" t="s">
+      <c r="H88" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="I88" s="200" t="s">
+      <c r="I88" s="174" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4985,16 +5031,16 @@
       <c r="G89" s="120" t="s">
         <v>228</v>
       </c>
-      <c r="H89" s="199"/>
-      <c r="I89" s="200"/>
+      <c r="H89" s="173"/>
+      <c r="I89" s="174"/>
     </row>
     <row r="90" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
-      <c r="H90" s="199"/>
-      <c r="I90" s="200"/>
+      <c r="H90" s="173"/>
+      <c r="I90" s="174"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="164" t="s">
         <v>174</v>
       </c>
       <c r="C91" s="105"/>
@@ -5004,10 +5050,10 @@
       </c>
       <c r="F91" s="106"/>
       <c r="G91" s="107"/>
-      <c r="H91" s="199" t="s">
+      <c r="H91" s="173" t="s">
         <v>215</v>
       </c>
-      <c r="I91" s="201" t="s">
+      <c r="I91" s="175" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5022,10 +5068,10 @@
       <c r="G92" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="H92" s="199" t="s">
+      <c r="H92" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="I92" s="200" t="s">
+      <c r="I92" s="174" t="s">
         <v>213</v>
       </c>
     </row>
@@ -5040,16 +5086,16 @@
         <v>227</v>
       </c>
       <c r="G93" s="113"/>
-      <c r="H93" s="199"/>
-      <c r="I93" s="200"/>
+      <c r="H93" s="173"/>
+      <c r="I93" s="174"/>
     </row>
     <row r="94" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
-      <c r="H94" s="199"/>
-      <c r="I94" s="200"/>
+      <c r="H94" s="173"/>
+      <c r="I94" s="174"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="164" t="s">
         <v>175</v>
       </c>
       <c r="C95" s="105"/>
@@ -5061,10 +5107,10 @@
         <v>219</v>
       </c>
       <c r="G95" s="107"/>
-      <c r="H95" s="199" t="s">
+      <c r="H95" s="173" t="s">
         <v>215</v>
       </c>
-      <c r="I95" s="201" t="s">
+      <c r="I95" s="175" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5079,10 +5125,10 @@
       <c r="G96" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="H96" s="199" t="s">
+      <c r="H96" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="I96" s="200" t="s">
+      <c r="I96" s="174" t="s">
         <v>213</v>
       </c>
     </row>
@@ -5095,16 +5141,16 @@
       </c>
       <c r="F97" s="112"/>
       <c r="G97" s="113"/>
-      <c r="H97" s="199"/>
-      <c r="I97" s="200"/>
+      <c r="H97" s="173"/>
+      <c r="I97" s="174"/>
     </row>
     <row r="98" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
-      <c r="H98" s="199"/>
-      <c r="I98" s="200"/>
+      <c r="H98" s="173"/>
+      <c r="I98" s="174"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="164" t="s">
         <v>176</v>
       </c>
       <c r="C99" s="121" t="s">
@@ -5118,10 +5164,10 @@
       <c r="G99" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="H99" s="199" t="s">
+      <c r="H99" s="173" t="s">
         <v>215</v>
       </c>
-      <c r="I99" s="200" t="s">
+      <c r="I99" s="174" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5132,10 +5178,10 @@
       <c r="E100" s="114"/>
       <c r="F100" s="114"/>
       <c r="G100" s="118"/>
-      <c r="H100" s="199" t="s">
+      <c r="H100" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="I100" s="200" t="s">
+      <c r="I100" s="174" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5150,16 +5196,16 @@
         <v>227</v>
       </c>
       <c r="G101" s="113"/>
-      <c r="H101" s="199"/>
-      <c r="I101" s="200"/>
+      <c r="H101" s="173"/>
+      <c r="I101" s="174"/>
     </row>
     <row r="102" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
-      <c r="H102" s="199"/>
-      <c r="I102" s="200"/>
+      <c r="H102" s="173"/>
+      <c r="I102" s="174"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="164" t="s">
         <v>177</v>
       </c>
       <c r="C103" s="105"/>
@@ -5171,10 +5217,10 @@
         <v>219</v>
       </c>
       <c r="G103" s="107"/>
-      <c r="H103" s="199" t="s">
+      <c r="H103" s="173" t="s">
         <v>215</v>
       </c>
-      <c r="I103" s="200" t="s">
+      <c r="I103" s="174" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5184,10 +5230,10 @@
       <c r="E104" s="114"/>
       <c r="F104" s="114"/>
       <c r="G104" s="118"/>
-      <c r="H104" s="199" t="s">
+      <c r="H104" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="I104" s="200" t="s">
+      <c r="I104" s="174" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5203,8 +5249,8 @@
       <c r="G105" s="120" t="s">
         <v>228</v>
       </c>
-      <c r="H105" s="199"/>
-      <c r="I105" s="200"/>
+      <c r="H105" s="173"/>
+      <c r="I105" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5231,34 +5277,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="185">
-        <v>1</v>
-      </c>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="H1" s="185">
-        <v>2</v>
-      </c>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="N1" s="185">
+      <c r="B1" s="193">
+        <v>1</v>
+      </c>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="H1" s="193">
+        <v>2</v>
+      </c>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="N1" s="193">
         <v>3</v>
       </c>
-      <c r="O1" s="185"/>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="185"/>
-      <c r="T1" s="185">
+      <c r="O1" s="193"/>
+      <c r="P1" s="193"/>
+      <c r="Q1" s="193"/>
+      <c r="R1" s="193"/>
+      <c r="T1" s="193">
         <v>4</v>
       </c>
-      <c r="U1" s="185"/>
-      <c r="V1" s="185"/>
-      <c r="W1" s="185"/>
-      <c r="X1" s="185"/>
+      <c r="U1" s="193"/>
+      <c r="V1" s="193"/>
+      <c r="W1" s="193"/>
+      <c r="X1" s="193"/>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="121" t="s">
@@ -5481,37 +5527,37 @@
       <c r="X5" s="123"/>
     </row>
     <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="186">
+      <c r="B6" s="194">
         <v>5</v>
       </c>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
       <c r="G6" s="123"/>
-      <c r="H6" s="186">
+      <c r="H6" s="194">
         <v>6</v>
       </c>
-      <c r="I6" s="186"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="186"/>
-      <c r="L6" s="186"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
+      <c r="L6" s="194"/>
       <c r="M6" s="123"/>
-      <c r="N6" s="186">
+      <c r="N6" s="194">
         <v>7</v>
       </c>
-      <c r="O6" s="186"/>
-      <c r="P6" s="186"/>
-      <c r="Q6" s="186"/>
-      <c r="R6" s="186"/>
+      <c r="O6" s="194"/>
+      <c r="P6" s="194"/>
+      <c r="Q6" s="194"/>
+      <c r="R6" s="194"/>
       <c r="S6" s="123"/>
-      <c r="T6" s="186">
+      <c r="T6" s="194">
         <v>8</v>
       </c>
-      <c r="U6" s="186"/>
-      <c r="V6" s="186"/>
-      <c r="W6" s="186"/>
-      <c r="X6" s="186"/>
+      <c r="U6" s="194"/>
+      <c r="V6" s="194"/>
+      <c r="W6" s="194"/>
+      <c r="X6" s="194"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="105" t="s">
@@ -5734,37 +5780,37 @@
       <c r="X10" s="123"/>
     </row>
     <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="186">
+      <c r="B11" s="194">
         <v>9</v>
       </c>
-      <c r="C11" s="186"/>
-      <c r="D11" s="186"/>
-      <c r="E11" s="186"/>
-      <c r="F11" s="186"/>
+      <c r="C11" s="194"/>
+      <c r="D11" s="194"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="194"/>
       <c r="G11" s="123"/>
-      <c r="H11" s="186">
+      <c r="H11" s="194">
         <v>10</v>
       </c>
-      <c r="I11" s="186"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="186"/>
-      <c r="L11" s="186"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="194"/>
+      <c r="L11" s="194"/>
       <c r="M11" s="123"/>
-      <c r="N11" s="186">
+      <c r="N11" s="194">
         <v>11</v>
       </c>
-      <c r="O11" s="186"/>
-      <c r="P11" s="186"/>
-      <c r="Q11" s="186"/>
-      <c r="R11" s="186"/>
+      <c r="O11" s="194"/>
+      <c r="P11" s="194"/>
+      <c r="Q11" s="194"/>
+      <c r="R11" s="194"/>
       <c r="S11" s="123"/>
-      <c r="T11" s="186">
+      <c r="T11" s="194">
         <v>12</v>
       </c>
-      <c r="U11" s="186"/>
-      <c r="V11" s="186"/>
-      <c r="W11" s="186"/>
-      <c r="X11" s="186"/>
+      <c r="U11" s="194"/>
+      <c r="V11" s="194"/>
+      <c r="W11" s="194"/>
+      <c r="X11" s="194"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="105" t="s">
@@ -5987,37 +6033,37 @@
       <c r="X15" s="123"/>
     </row>
     <row r="16" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="186">
+      <c r="B16" s="194">
         <v>13</v>
       </c>
-      <c r="C16" s="186"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="194"/>
       <c r="G16" s="123"/>
-      <c r="H16" s="186">
+      <c r="H16" s="194">
         <v>14</v>
       </c>
-      <c r="I16" s="186"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="186"/>
-      <c r="L16" s="186"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
       <c r="M16" s="123"/>
-      <c r="N16" s="186">
+      <c r="N16" s="194">
         <v>15</v>
       </c>
-      <c r="O16" s="186"/>
-      <c r="P16" s="186"/>
-      <c r="Q16" s="186"/>
-      <c r="R16" s="186"/>
+      <c r="O16" s="194"/>
+      <c r="P16" s="194"/>
+      <c r="Q16" s="194"/>
+      <c r="R16" s="194"/>
       <c r="S16" s="123"/>
-      <c r="T16" s="186">
+      <c r="T16" s="194">
         <v>16</v>
       </c>
-      <c r="U16" s="186"/>
-      <c r="V16" s="186"/>
-      <c r="W16" s="186"/>
-      <c r="X16" s="186"/>
+      <c r="U16" s="194"/>
+      <c r="V16" s="194"/>
+      <c r="W16" s="194"/>
+      <c r="X16" s="194"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="105" t="s">
@@ -6215,34 +6261,34 @@
       </c>
     </row>
     <row r="21" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="185">
+      <c r="B21" s="193">
         <v>17</v>
       </c>
-      <c r="C21" s="185"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="185"/>
-      <c r="H21" s="185">
+      <c r="C21" s="193"/>
+      <c r="D21" s="193"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="193"/>
+      <c r="H21" s="193">
         <v>18</v>
       </c>
-      <c r="I21" s="185"/>
-      <c r="J21" s="185"/>
-      <c r="K21" s="185"/>
-      <c r="L21" s="185"/>
-      <c r="N21" s="185">
+      <c r="I21" s="193"/>
+      <c r="J21" s="193"/>
+      <c r="K21" s="193"/>
+      <c r="L21" s="193"/>
+      <c r="N21" s="193">
         <v>19</v>
       </c>
-      <c r="O21" s="185"/>
-      <c r="P21" s="185"/>
-      <c r="Q21" s="185"/>
-      <c r="R21" s="185"/>
-      <c r="T21" s="185">
+      <c r="O21" s="193"/>
+      <c r="P21" s="193"/>
+      <c r="Q21" s="193"/>
+      <c r="R21" s="193"/>
+      <c r="T21" s="193">
         <v>20</v>
       </c>
-      <c r="U21" s="185"/>
-      <c r="V21" s="185"/>
-      <c r="W21" s="185"/>
-      <c r="X21" s="185"/>
+      <c r="U21" s="193"/>
+      <c r="V21" s="193"/>
+      <c r="W21" s="193"/>
+      <c r="X21" s="193"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="105" t="s">
@@ -6431,34 +6477,34 @@
       </c>
     </row>
     <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="185">
-        <v>21</v>
-      </c>
-      <c r="C26" s="185"/>
-      <c r="D26" s="185"/>
-      <c r="E26" s="185"/>
-      <c r="F26" s="185"/>
-      <c r="H26" s="185">
+      <c r="B26" s="193">
+        <v>21</v>
+      </c>
+      <c r="C26" s="193"/>
+      <c r="D26" s="193"/>
+      <c r="E26" s="193"/>
+      <c r="F26" s="193"/>
+      <c r="H26" s="193">
         <v>22</v>
       </c>
-      <c r="I26" s="185"/>
-      <c r="J26" s="185"/>
-      <c r="K26" s="185"/>
-      <c r="L26" s="185"/>
-      <c r="N26" s="185">
+      <c r="I26" s="193"/>
+      <c r="J26" s="193"/>
+      <c r="K26" s="193"/>
+      <c r="L26" s="193"/>
+      <c r="N26" s="193">
         <v>23</v>
       </c>
-      <c r="O26" s="185"/>
-      <c r="P26" s="185"/>
-      <c r="Q26" s="185"/>
-      <c r="R26" s="185"/>
-      <c r="T26" s="185">
+      <c r="O26" s="193"/>
+      <c r="P26" s="193"/>
+      <c r="Q26" s="193"/>
+      <c r="R26" s="193"/>
+      <c r="T26" s="193">
         <v>24</v>
       </c>
-      <c r="U26" s="185"/>
-      <c r="V26" s="185"/>
-      <c r="W26" s="185"/>
-      <c r="X26" s="185"/>
+      <c r="U26" s="193"/>
+      <c r="V26" s="193"/>
+      <c r="W26" s="193"/>
+      <c r="X26" s="193"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="105" t="s">
@@ -6647,13 +6693,13 @@
       </c>
     </row>
     <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="185">
+      <c r="B31" s="193">
         <v>25</v>
       </c>
-      <c r="C31" s="185"/>
-      <c r="D31" s="185"/>
-      <c r="E31" s="185"/>
-      <c r="F31" s="185"/>
+      <c r="C31" s="193"/>
+      <c r="D31" s="193"/>
+      <c r="E31" s="193"/>
+      <c r="F31" s="193"/>
       <c r="H31" s="154"/>
       <c r="I31" s="154"/>
       <c r="J31" s="154"/>
@@ -6740,22 +6786,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="T16:X16"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="H21:L21"/>
@@ -6765,6 +6795,22 @@
     <mergeCell ref="H26:L26"/>
     <mergeCell ref="N26:R26"/>
     <mergeCell ref="T26:X26"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="T6:X6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7389,48 +7435,48 @@
       <c r="G9" s="151">
         <v>0.01</v>
       </c>
-      <c r="H9" s="189" t="s">
+      <c r="H9" s="196" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="189"/>
-      <c r="J9" s="189"/>
-      <c r="K9" s="189"/>
-      <c r="L9" s="189"/>
-      <c r="M9" s="189"/>
-      <c r="N9" s="189"/>
-      <c r="O9" s="189"/>
-      <c r="P9" s="189"/>
-      <c r="Q9" s="189"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="196"/>
+      <c r="L9" s="196"/>
+      <c r="M9" s="196"/>
+      <c r="N9" s="196"/>
+      <c r="O9" s="196"/>
+      <c r="P9" s="196"/>
+      <c r="Q9" s="196"/>
       <c r="S9" s="151">
         <v>0.01</v>
       </c>
-      <c r="T9" s="179" t="s">
+      <c r="T9" s="187" t="s">
         <v>75</v>
       </c>
-      <c r="U9" s="179"/>
-      <c r="V9" s="179"/>
-      <c r="W9" s="179"/>
-      <c r="X9" s="179"/>
-      <c r="Y9" s="179"/>
-      <c r="Z9" s="179"/>
-      <c r="AA9" s="179"/>
-      <c r="AB9" s="179"/>
-      <c r="AC9" s="179"/>
+      <c r="U9" s="187"/>
+      <c r="V9" s="187"/>
+      <c r="W9" s="187"/>
+      <c r="X9" s="187"/>
+      <c r="Y9" s="187"/>
+      <c r="Z9" s="187"/>
+      <c r="AA9" s="187"/>
+      <c r="AB9" s="187"/>
+      <c r="AC9" s="187"/>
       <c r="AE9" s="151">
         <v>0.01</v>
       </c>
-      <c r="AF9" s="179" t="s">
+      <c r="AF9" s="187" t="s">
         <v>76</v>
       </c>
-      <c r="AG9" s="179"/>
-      <c r="AH9" s="179"/>
-      <c r="AI9" s="179"/>
-      <c r="AJ9" s="179"/>
-      <c r="AK9" s="179"/>
-      <c r="AL9" s="179"/>
-      <c r="AM9" s="179"/>
-      <c r="AN9" s="179"/>
-      <c r="AO9" s="179"/>
+      <c r="AG9" s="187"/>
+      <c r="AH9" s="187"/>
+      <c r="AI9" s="187"/>
+      <c r="AJ9" s="187"/>
+      <c r="AK9" s="187"/>
+      <c r="AL9" s="187"/>
+      <c r="AM9" s="187"/>
+      <c r="AN9" s="187"/>
+      <c r="AO9" s="187"/>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="101" t="s">
@@ -8720,44 +8766,44 @@
       <c r="G19" s="153">
         <v>0.03</v>
       </c>
-      <c r="H19" s="190"/>
-      <c r="I19" s="190"/>
-      <c r="J19" s="190"/>
-      <c r="K19" s="190"/>
-      <c r="L19" s="190"/>
-      <c r="M19" s="190"/>
-      <c r="N19" s="190"/>
-      <c r="O19" s="190"/>
-      <c r="P19" s="190"/>
-      <c r="Q19" s="190"/>
+      <c r="H19" s="195"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="195"/>
+      <c r="K19" s="195"/>
+      <c r="L19" s="195"/>
+      <c r="M19" s="195"/>
+      <c r="N19" s="195"/>
+      <c r="O19" s="195"/>
+      <c r="P19" s="195"/>
+      <c r="Q19" s="195"/>
       <c r="R19" s="152"/>
       <c r="S19" s="153">
         <v>0.03</v>
       </c>
-      <c r="T19" s="190"/>
-      <c r="U19" s="190"/>
-      <c r="V19" s="190"/>
-      <c r="W19" s="190"/>
-      <c r="X19" s="190"/>
-      <c r="Y19" s="190"/>
-      <c r="Z19" s="190"/>
-      <c r="AA19" s="190"/>
-      <c r="AB19" s="190"/>
-      <c r="AC19" s="190"/>
+      <c r="T19" s="195"/>
+      <c r="U19" s="195"/>
+      <c r="V19" s="195"/>
+      <c r="W19" s="195"/>
+      <c r="X19" s="195"/>
+      <c r="Y19" s="195"/>
+      <c r="Z19" s="195"/>
+      <c r="AA19" s="195"/>
+      <c r="AB19" s="195"/>
+      <c r="AC19" s="195"/>
       <c r="AD19" s="152"/>
       <c r="AE19" s="151">
         <v>0.03</v>
       </c>
-      <c r="AF19" s="190"/>
-      <c r="AG19" s="190"/>
-      <c r="AH19" s="190"/>
-      <c r="AI19" s="190"/>
-      <c r="AJ19" s="190"/>
-      <c r="AK19" s="190"/>
-      <c r="AL19" s="190"/>
-      <c r="AM19" s="190"/>
-      <c r="AN19" s="190"/>
-      <c r="AO19" s="190"/>
+      <c r="AF19" s="195"/>
+      <c r="AG19" s="195"/>
+      <c r="AH19" s="195"/>
+      <c r="AI19" s="195"/>
+      <c r="AJ19" s="195"/>
+      <c r="AK19" s="195"/>
+      <c r="AL19" s="195"/>
+      <c r="AM19" s="195"/>
+      <c r="AN19" s="195"/>
+      <c r="AO19" s="195"/>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="97">
@@ -11212,44 +11258,44 @@
       <c r="G39" s="153">
         <v>0.1</v>
       </c>
-      <c r="H39" s="190"/>
-      <c r="I39" s="190"/>
-      <c r="J39" s="190"/>
-      <c r="K39" s="190"/>
-      <c r="L39" s="190"/>
-      <c r="M39" s="190"/>
-      <c r="N39" s="190"/>
-      <c r="O39" s="190"/>
-      <c r="P39" s="190"/>
-      <c r="Q39" s="190"/>
+      <c r="H39" s="195"/>
+      <c r="I39" s="195"/>
+      <c r="J39" s="195"/>
+      <c r="K39" s="195"/>
+      <c r="L39" s="195"/>
+      <c r="M39" s="195"/>
+      <c r="N39" s="195"/>
+      <c r="O39" s="195"/>
+      <c r="P39" s="195"/>
+      <c r="Q39" s="195"/>
       <c r="R39" s="152"/>
       <c r="S39" s="153">
         <v>0.1</v>
       </c>
-      <c r="T39" s="190"/>
-      <c r="U39" s="190"/>
-      <c r="V39" s="190"/>
-      <c r="W39" s="190"/>
-      <c r="X39" s="190"/>
-      <c r="Y39" s="190"/>
-      <c r="Z39" s="190"/>
-      <c r="AA39" s="190"/>
-      <c r="AB39" s="190"/>
-      <c r="AC39" s="190"/>
+      <c r="T39" s="195"/>
+      <c r="U39" s="195"/>
+      <c r="V39" s="195"/>
+      <c r="W39" s="195"/>
+      <c r="X39" s="195"/>
+      <c r="Y39" s="195"/>
+      <c r="Z39" s="195"/>
+      <c r="AA39" s="195"/>
+      <c r="AB39" s="195"/>
+      <c r="AC39" s="195"/>
       <c r="AD39" s="152"/>
       <c r="AE39" s="151">
         <v>0.1</v>
       </c>
-      <c r="AF39" s="190"/>
-      <c r="AG39" s="190"/>
-      <c r="AH39" s="190"/>
-      <c r="AI39" s="190"/>
-      <c r="AJ39" s="190"/>
-      <c r="AK39" s="190"/>
-      <c r="AL39" s="190"/>
-      <c r="AM39" s="190"/>
-      <c r="AN39" s="190"/>
-      <c r="AO39" s="190"/>
+      <c r="AF39" s="195"/>
+      <c r="AG39" s="195"/>
+      <c r="AH39" s="195"/>
+      <c r="AI39" s="195"/>
+      <c r="AJ39" s="195"/>
+      <c r="AK39" s="195"/>
+      <c r="AL39" s="195"/>
+      <c r="AM39" s="195"/>
+      <c r="AN39" s="195"/>
+      <c r="AO39" s="195"/>
     </row>
     <row r="40" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G40" s="158">
@@ -13692,44 +13738,44 @@
       <c r="G59" s="153">
         <v>0.5</v>
       </c>
-      <c r="H59" s="190"/>
-      <c r="I59" s="190"/>
-      <c r="J59" s="190"/>
-      <c r="K59" s="190"/>
-      <c r="L59" s="190"/>
-      <c r="M59" s="190"/>
-      <c r="N59" s="190"/>
-      <c r="O59" s="190"/>
-      <c r="P59" s="190"/>
-      <c r="Q59" s="190"/>
+      <c r="H59" s="195"/>
+      <c r="I59" s="195"/>
+      <c r="J59" s="195"/>
+      <c r="K59" s="195"/>
+      <c r="L59" s="195"/>
+      <c r="M59" s="195"/>
+      <c r="N59" s="195"/>
+      <c r="O59" s="195"/>
+      <c r="P59" s="195"/>
+      <c r="Q59" s="195"/>
       <c r="R59" s="152"/>
       <c r="S59" s="153">
         <v>0.5</v>
       </c>
-      <c r="T59" s="190"/>
-      <c r="U59" s="190"/>
-      <c r="V59" s="190"/>
-      <c r="W59" s="190"/>
-      <c r="X59" s="190"/>
-      <c r="Y59" s="190"/>
-      <c r="Z59" s="190"/>
-      <c r="AA59" s="190"/>
-      <c r="AB59" s="190"/>
-      <c r="AC59" s="190"/>
+      <c r="T59" s="195"/>
+      <c r="U59" s="195"/>
+      <c r="V59" s="195"/>
+      <c r="W59" s="195"/>
+      <c r="X59" s="195"/>
+      <c r="Y59" s="195"/>
+      <c r="Z59" s="195"/>
+      <c r="AA59" s="195"/>
+      <c r="AB59" s="195"/>
+      <c r="AC59" s="195"/>
       <c r="AD59" s="152"/>
       <c r="AE59" s="151">
         <v>0.5</v>
       </c>
-      <c r="AF59" s="190"/>
-      <c r="AG59" s="190"/>
-      <c r="AH59" s="190"/>
-      <c r="AI59" s="190"/>
-      <c r="AJ59" s="190"/>
-      <c r="AK59" s="190"/>
-      <c r="AL59" s="190"/>
-      <c r="AM59" s="190"/>
-      <c r="AN59" s="190"/>
-      <c r="AO59" s="190"/>
+      <c r="AF59" s="195"/>
+      <c r="AG59" s="195"/>
+      <c r="AH59" s="195"/>
+      <c r="AI59" s="195"/>
+      <c r="AJ59" s="195"/>
+      <c r="AK59" s="195"/>
+      <c r="AL59" s="195"/>
+      <c r="AM59" s="195"/>
+      <c r="AN59" s="195"/>
+      <c r="AO59" s="195"/>
     </row>
     <row r="60" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G60" s="158">
@@ -14930,6 +14976,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H9:Q9"/>
+    <mergeCell ref="T9:AC9"/>
+    <mergeCell ref="AF9:AO9"/>
+    <mergeCell ref="AF19:AO19"/>
+    <mergeCell ref="AF39:AO39"/>
     <mergeCell ref="AF59:AO59"/>
     <mergeCell ref="T19:AC19"/>
     <mergeCell ref="T39:AC39"/>
@@ -14937,11 +14988,6 @@
     <mergeCell ref="H19:Q19"/>
     <mergeCell ref="H39:Q39"/>
     <mergeCell ref="H59:Q59"/>
-    <mergeCell ref="H9:Q9"/>
-    <mergeCell ref="T9:AC9"/>
-    <mergeCell ref="AF9:AO9"/>
-    <mergeCell ref="AF19:AO19"/>
-    <mergeCell ref="AF39:AO39"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="AF20:AO28 AF60:AO68 AF40:AO48">
@@ -18156,34 +18202,34 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="185">
-        <v>1</v>
-      </c>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="H1" s="185">
-        <v>2</v>
-      </c>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="N1" s="185">
+      <c r="B1" s="193">
+        <v>1</v>
+      </c>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="H1" s="193">
+        <v>2</v>
+      </c>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="N1" s="193">
         <v>3</v>
       </c>
-      <c r="O1" s="185"/>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="185"/>
-      <c r="T1" s="185">
+      <c r="O1" s="193"/>
+      <c r="P1" s="193"/>
+      <c r="Q1" s="193"/>
+      <c r="R1" s="193"/>
+      <c r="T1" s="193">
         <v>4</v>
       </c>
-      <c r="U1" s="185"/>
-      <c r="V1" s="185"/>
-      <c r="W1" s="185"/>
-      <c r="X1" s="185"/>
+      <c r="U1" s="193"/>
+      <c r="V1" s="193"/>
+      <c r="W1" s="193"/>
+      <c r="X1" s="193"/>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="39"/>
@@ -18252,34 +18298,34 @@
       <c r="X4" s="46"/>
     </row>
     <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="185">
+      <c r="B6" s="193">
         <v>5</v>
       </c>
-      <c r="C6" s="185"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185"/>
-      <c r="H6" s="185">
+      <c r="C6" s="193"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="H6" s="193">
         <v>6</v>
       </c>
-      <c r="I6" s="185"/>
-      <c r="J6" s="185"/>
-      <c r="K6" s="185"/>
-      <c r="L6" s="185"/>
-      <c r="N6" s="185">
+      <c r="I6" s="193"/>
+      <c r="J6" s="193"/>
+      <c r="K6" s="193"/>
+      <c r="L6" s="193"/>
+      <c r="N6" s="193">
         <v>7</v>
       </c>
-      <c r="O6" s="185"/>
-      <c r="P6" s="185"/>
-      <c r="Q6" s="185"/>
-      <c r="R6" s="185"/>
-      <c r="T6" s="185">
+      <c r="O6" s="193"/>
+      <c r="P6" s="193"/>
+      <c r="Q6" s="193"/>
+      <c r="R6" s="193"/>
+      <c r="T6" s="193">
         <v>8</v>
       </c>
-      <c r="U6" s="185"/>
-      <c r="V6" s="185"/>
-      <c r="W6" s="185"/>
-      <c r="X6" s="185"/>
+      <c r="U6" s="193"/>
+      <c r="V6" s="193"/>
+      <c r="W6" s="193"/>
+      <c r="X6" s="193"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="39"/>
@@ -18348,34 +18394,34 @@
       <c r="X9" s="59"/>
     </row>
     <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="185">
+      <c r="B11" s="193">
         <v>9</v>
       </c>
-      <c r="C11" s="185"/>
-      <c r="D11" s="185"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="185"/>
-      <c r="H11" s="185">
+      <c r="C11" s="193"/>
+      <c r="D11" s="193"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="193"/>
+      <c r="H11" s="193">
         <v>10</v>
       </c>
-      <c r="I11" s="185"/>
-      <c r="J11" s="185"/>
-      <c r="K11" s="185"/>
-      <c r="L11" s="185"/>
-      <c r="N11" s="185">
+      <c r="I11" s="193"/>
+      <c r="J11" s="193"/>
+      <c r="K11" s="193"/>
+      <c r="L11" s="193"/>
+      <c r="N11" s="193">
         <v>11</v>
       </c>
-      <c r="O11" s="185"/>
-      <c r="P11" s="185"/>
-      <c r="Q11" s="185"/>
-      <c r="R11" s="185"/>
-      <c r="T11" s="185">
+      <c r="O11" s="193"/>
+      <c r="P11" s="193"/>
+      <c r="Q11" s="193"/>
+      <c r="R11" s="193"/>
+      <c r="T11" s="193">
         <v>12</v>
       </c>
-      <c r="U11" s="185"/>
-      <c r="V11" s="185"/>
-      <c r="W11" s="185"/>
-      <c r="X11" s="185"/>
+      <c r="U11" s="193"/>
+      <c r="V11" s="193"/>
+      <c r="W11" s="193"/>
+      <c r="X11" s="193"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="39"/>
@@ -18444,34 +18490,34 @@
       <c r="X14" s="46"/>
     </row>
     <row r="16" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="185">
+      <c r="B16" s="193">
         <v>13</v>
       </c>
-      <c r="C16" s="185"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="H16" s="185">
+      <c r="C16" s="193"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="H16" s="193">
         <v>14</v>
       </c>
-      <c r="I16" s="185"/>
-      <c r="J16" s="185"/>
-      <c r="K16" s="185"/>
-      <c r="L16" s="185"/>
-      <c r="N16" s="185">
+      <c r="I16" s="193"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="193"/>
+      <c r="L16" s="193"/>
+      <c r="N16" s="193">
         <v>15</v>
       </c>
-      <c r="O16" s="185"/>
-      <c r="P16" s="185"/>
-      <c r="Q16" s="185"/>
-      <c r="R16" s="185"/>
-      <c r="T16" s="185">
+      <c r="O16" s="193"/>
+      <c r="P16" s="193"/>
+      <c r="Q16" s="193"/>
+      <c r="R16" s="193"/>
+      <c r="T16" s="193">
         <v>16</v>
       </c>
-      <c r="U16" s="185"/>
-      <c r="V16" s="185"/>
-      <c r="W16" s="185"/>
-      <c r="X16" s="185"/>
+      <c r="U16" s="193"/>
+      <c r="V16" s="193"/>
+      <c r="W16" s="193"/>
+      <c r="X16" s="193"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="39"/>
@@ -18540,34 +18586,34 @@
       <c r="X19" s="46"/>
     </row>
     <row r="21" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="185">
+      <c r="B21" s="193">
         <v>17</v>
       </c>
-      <c r="C21" s="185"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="185"/>
-      <c r="H21" s="185">
+      <c r="C21" s="193"/>
+      <c r="D21" s="193"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="193"/>
+      <c r="H21" s="193">
         <v>18</v>
       </c>
-      <c r="I21" s="185"/>
-      <c r="J21" s="185"/>
-      <c r="K21" s="185"/>
-      <c r="L21" s="185"/>
-      <c r="N21" s="185">
+      <c r="I21" s="193"/>
+      <c r="J21" s="193"/>
+      <c r="K21" s="193"/>
+      <c r="L21" s="193"/>
+      <c r="N21" s="193">
         <v>19</v>
       </c>
-      <c r="O21" s="185"/>
-      <c r="P21" s="185"/>
-      <c r="Q21" s="185"/>
-      <c r="R21" s="185"/>
-      <c r="T21" s="185">
+      <c r="O21" s="193"/>
+      <c r="P21" s="193"/>
+      <c r="Q21" s="193"/>
+      <c r="R21" s="193"/>
+      <c r="T21" s="193">
         <v>20</v>
       </c>
-      <c r="U21" s="185"/>
-      <c r="V21" s="185"/>
-      <c r="W21" s="185"/>
-      <c r="X21" s="185"/>
+      <c r="U21" s="193"/>
+      <c r="V21" s="193"/>
+      <c r="W21" s="193"/>
+      <c r="X21" s="193"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="39"/>
@@ -18636,34 +18682,34 @@
       <c r="X24" s="46"/>
     </row>
     <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="185">
-        <v>21</v>
-      </c>
-      <c r="C26" s="185"/>
-      <c r="D26" s="185"/>
-      <c r="E26" s="185"/>
-      <c r="F26" s="185"/>
-      <c r="H26" s="185">
+      <c r="B26" s="193">
+        <v>21</v>
+      </c>
+      <c r="C26" s="193"/>
+      <c r="D26" s="193"/>
+      <c r="E26" s="193"/>
+      <c r="F26" s="193"/>
+      <c r="H26" s="193">
         <v>22</v>
       </c>
-      <c r="I26" s="185"/>
-      <c r="J26" s="185"/>
-      <c r="K26" s="185"/>
-      <c r="L26" s="185"/>
-      <c r="N26" s="185">
+      <c r="I26" s="193"/>
+      <c r="J26" s="193"/>
+      <c r="K26" s="193"/>
+      <c r="L26" s="193"/>
+      <c r="N26" s="193">
         <v>23</v>
       </c>
-      <c r="O26" s="185"/>
-      <c r="P26" s="185"/>
-      <c r="Q26" s="185"/>
-      <c r="R26" s="185"/>
-      <c r="T26" s="185">
+      <c r="O26" s="193"/>
+      <c r="P26" s="193"/>
+      <c r="Q26" s="193"/>
+      <c r="R26" s="193"/>
+      <c r="T26" s="193">
         <v>24</v>
       </c>
-      <c r="U26" s="185"/>
-      <c r="V26" s="185"/>
-      <c r="W26" s="185"/>
-      <c r="X26" s="185"/>
+      <c r="U26" s="193"/>
+      <c r="V26" s="193"/>
+      <c r="W26" s="193"/>
+      <c r="X26" s="193"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="39"/>
@@ -18732,13 +18778,13 @@
       <c r="X29" s="46"/>
     </row>
     <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="185">
+      <c r="B31" s="193">
         <v>25</v>
       </c>
-      <c r="C31" s="185"/>
-      <c r="D31" s="185"/>
-      <c r="E31" s="185"/>
-      <c r="F31" s="185"/>
+      <c r="C31" s="193"/>
+      <c r="D31" s="193"/>
+      <c r="E31" s="193"/>
+      <c r="F31" s="193"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="39"/>
@@ -18763,22 +18809,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="T26:X26"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="B21:F21"/>
@@ -18788,6 +18818,22 @@
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="H16:L16"/>
     <mergeCell ref="N16:R16"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="T6:X6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18811,40 +18857,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="197" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="193"/>
-      <c r="F1" s="191" t="s">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
+      <c r="F1" s="197" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="192"/>
-      <c r="H1" s="193"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="199"/>
       <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="170"/>
-      <c r="F2" s="168" t="s">
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="178"/>
+      <c r="F2" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="169"/>
-      <c r="H2" s="170"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="178"/>
       <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="178"/>
       <c r="F3" s="13" t="s">
         <v>60</v>
       </c>
@@ -18996,10 +19042,10 @@
       <c r="B12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="171" t="s">
+      <c r="C12" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="172"/>
+      <c r="D12" s="180"/>
       <c r="F12" s="13" t="s">
         <v>67</v>
       </c>
@@ -19018,11 +19064,11 @@
       <c r="H13" s="66"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="168" t="s">
+      <c r="A14" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="169"/>
-      <c r="C14" s="169"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="177"/>
       <c r="D14" s="66"/>
       <c r="F14" s="13" t="s">
         <v>68</v>
@@ -19031,11 +19077,11 @@
       <c r="H14" s="66"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="177"/>
       <c r="D15" s="66"/>
       <c r="F15" s="13" t="s">
         <v>69</v>
@@ -19097,8 +19143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF38956-FDBF-4967-97AF-72744B5458AB}">
   <dimension ref="A1:AC174"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:L172"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H191" sqref="H191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19230,11 +19276,11 @@
       <c r="P4" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="187" t="s">
+      <c r="Q4" s="200" t="s">
         <v>185</v>
       </c>
-      <c r="R4" s="187"/>
-      <c r="S4" s="187"/>
+      <c r="R4" s="200"/>
+      <c r="S4" s="200"/>
     </row>
     <row r="5" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E5" s="5"/>
@@ -19495,13 +19541,13 @@
       <c r="Q19" s="123"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="188" t="s">
+      <c r="A20" s="201" t="s">
         <v>200</v>
       </c>
-      <c r="B20" s="188"/>
-      <c r="C20" s="188"/>
-      <c r="D20" s="188"/>
-      <c r="E20" s="188"/>
+      <c r="B20" s="201"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="201"/>
       <c r="G20" s="1"/>
       <c r="M20" s="123"/>
       <c r="N20" s="123"/>

--- a/Conceptual/Game rules + pay amounts.xlsx
+++ b/Conceptual/Game rules + pay amounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy_\OneDrive\Documenten\GitHub\slotmachine-practice\Conceptual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0738C253-917A-49F9-9806-9C243CE92086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A229B4-176F-4BB3-B381-F8C757C0823C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28020" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28020" windowHeight="16440" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1337,7 +1337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1714,6 +1714,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1771,10 +1774,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1795,7 +1798,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2056,14 +2080,14 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2079,7 +2103,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel1" displayName="Tabel1" ref="A1:H13" totalsRowShown="0" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel1" displayName="Tabel1" ref="A1:H13" totalsRowShown="0" headerRowDxfId="36">
   <autoFilter ref="A1:H13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H13">
     <sortCondition ref="B1:B13"/>
@@ -2439,12 +2463,12 @@
       <c r="H1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="183" t="s">
+      <c r="K1" s="184" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="186"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="163" t="s">
@@ -2509,11 +2533,11 @@
         <f>$H$19*Tabel1[[#This Row],[Pay 5X]]</f>
         <v>2</v>
       </c>
-      <c r="K3" s="189" t="s">
+      <c r="K3" s="190" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="179"/>
-      <c r="M3" s="179"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
       <c r="N3" s="66"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2577,12 +2601,12 @@
         <f>$H$19*Tabel1[[#This Row],[Pay 5X]]</f>
         <v>1.5</v>
       </c>
-      <c r="K5" s="190" t="s">
+      <c r="K5" s="191" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="191"/>
-      <c r="M5" s="191"/>
-      <c r="N5" s="192"/>
+      <c r="L5" s="192"/>
+      <c r="M5" s="192"/>
+      <c r="N5" s="193"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="163" t="s">
@@ -2762,12 +2786,12 @@
         <f>$H$19*Tabel1[[#This Row],[Pay 5X]]</f>
         <v>0.35</v>
       </c>
-      <c r="K10" s="186" t="s">
+      <c r="K10" s="187" t="s">
         <v>92</v>
       </c>
-      <c r="L10" s="187"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="188"/>
+      <c r="L10" s="188"/>
+      <c r="M10" s="188"/>
+      <c r="N10" s="189"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2822,23 +2846,23 @@
       <c r="N13" s="66"/>
     </row>
     <row r="14" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="K14" s="183" t="s">
+      <c r="K14" s="184" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="184"/>
-      <c r="M14" s="184"/>
-      <c r="N14" s="185"/>
+      <c r="L14" s="185"/>
+      <c r="M14" s="185"/>
+      <c r="N14" s="186"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="176" t="s">
+      <c r="K15" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="L15" s="177"/>
-      <c r="M15" s="177"/>
-      <c r="N15" s="178"/>
+      <c r="L15" s="178"/>
+      <c r="M15" s="178"/>
+      <c r="N15" s="179"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -2878,10 +2902,10 @@
       <c r="G18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="181" t="s">
+      <c r="H18" s="182" t="s">
         <v>102</v>
       </c>
-      <c r="I18" s="181"/>
+      <c r="I18" s="182"/>
       <c r="K18" s="42">
         <v>6</v>
       </c>
@@ -2917,11 +2941,11 @@
         <f>A16*A28*B19</f>
         <v>125</v>
       </c>
-      <c r="H19" s="182">
+      <c r="H19" s="183">
         <f>A16*A19*B24</f>
         <v>0.25</v>
       </c>
-      <c r="I19" s="182"/>
+      <c r="I19" s="183"/>
       <c r="J19" s="85"/>
       <c r="K19" s="42">
         <v>9</v>
@@ -3055,10 +3079,10 @@
       <c r="L23" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="M23" s="179" t="s">
+      <c r="M23" s="180" t="s">
         <v>56</v>
       </c>
-      <c r="N23" s="180"/>
+      <c r="N23" s="181"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="97">
@@ -3516,7 +3540,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="F2:H10">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
       <formula>$H$19</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3532,8 +3556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90B50E7-CCC4-4662-92E0-5FAF72E473B1}">
   <dimension ref="B1:T105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3544,13 +3568,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G1" s="201" t="s">
+      <c r="G1" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
     </row>
     <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G2" s="123">
@@ -3568,24 +3592,16 @@
       <c r="K2" s="123">
         <v>270</v>
       </c>
-      <c r="O2" s="123">
-        <v>30</v>
-      </c>
-      <c r="P2" s="123">
-        <v>90</v>
-      </c>
-      <c r="Q2" s="123">
-        <v>150</v>
-      </c>
-      <c r="R2" s="123">
-        <v>210</v>
-      </c>
-      <c r="S2" s="123">
-        <v>270</v>
-      </c>
+      <c r="O2" s="210">
+        <v>1</v>
+      </c>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="210"/>
     </row>
     <row r="3" spans="2:20" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="202" t="s">
+      <c r="E3" s="203" t="s">
         <v>211</v>
       </c>
       <c r="F3" s="123">
@@ -3609,30 +3625,27 @@
       <c r="L3" s="131">
         <v>300</v>
       </c>
-      <c r="N3" s="123">
-        <v>25</v>
-      </c>
-      <c r="O3" s="105">
-        <v>1</v>
-      </c>
-      <c r="P3" s="106">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="106">
-        <v>3</v>
-      </c>
-      <c r="R3" s="106">
-        <v>4</v>
-      </c>
-      <c r="S3" s="107">
-        <v>5</v>
-      </c>
-      <c r="T3" s="131">
-        <v>300</v>
-      </c>
+      <c r="N3" s="205">
+        <v>1</v>
+      </c>
+      <c r="O3" s="206">
+        <f>N3/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P3" s="209">
+        <f>O3/9</f>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="Q3" s="211">
+        <f>1.3*25</f>
+        <v>32.5</v>
+      </c>
+      <c r="R3" s="106"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="131"/>
     </row>
     <row r="4" spans="2:20" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="202"/>
+      <c r="E4" s="203"/>
       <c r="F4" s="123">
         <v>75</v>
       </c>
@@ -3654,30 +3667,24 @@
       <c r="L4" s="123">
         <v>300</v>
       </c>
-      <c r="N4" s="123">
-        <v>75</v>
-      </c>
-      <c r="O4" s="168">
-        <v>1</v>
+      <c r="N4" s="204"/>
+      <c r="O4" s="207">
+        <f>O3*2</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P4" s="169">
-        <v>2</v>
+        <f>P3*880</f>
+        <v>32.592592592592588</v>
       </c>
       <c r="Q4" s="169">
-        <v>3</v>
-      </c>
-      <c r="R4" s="169">
-        <v>4</v>
-      </c>
-      <c r="S4" s="170">
         <v>5</v>
       </c>
-      <c r="T4" s="123">
-        <v>300</v>
-      </c>
+      <c r="R4" s="169"/>
+      <c r="S4" s="170"/>
+      <c r="T4" s="123"/>
     </row>
     <row r="5" spans="2:20" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="202"/>
+      <c r="E5" s="203"/>
       <c r="F5" s="123">
         <v>125</v>
       </c>
@@ -3699,27 +3706,16 @@
       <c r="L5" s="123">
         <v>300</v>
       </c>
-      <c r="N5" s="123">
-        <v>125</v>
-      </c>
-      <c r="O5" s="111">
-        <v>1</v>
-      </c>
-      <c r="P5" s="112">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="112">
-        <v>3</v>
-      </c>
-      <c r="R5" s="112">
-        <v>4</v>
-      </c>
-      <c r="S5" s="113">
-        <v>5</v>
-      </c>
-      <c r="T5" s="123">
-        <v>300</v>
-      </c>
+      <c r="N5" s="204"/>
+      <c r="O5" s="208">
+        <f>O3*3</f>
+        <v>1</v>
+      </c>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="123"/>
     </row>
     <row r="6" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -3978,7 +3974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="117"/>
       <c r="D16" s="114"/>
@@ -3991,7 +3987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="119" t="s">
         <v>207</v>
@@ -4005,11 +4001,21 @@
       <c r="K17">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O17" s="124"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="126"/>
+    </row>
+    <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="172"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O18" s="117"/>
+      <c r="P18" s="114"/>
+      <c r="Q18" s="114"/>
+      <c r="R18" s="114"/>
+      <c r="S18" s="118"/>
+    </row>
+    <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="164" t="s">
         <v>156</v>
       </c>
@@ -4028,8 +4034,13 @@
       <c r="I19" s="174" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O19" s="127"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="130"/>
+      <c r="R19" s="130"/>
+      <c r="S19" s="128"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="172"/>
       <c r="C20" s="117"/>
       <c r="D20" s="109" t="s">
@@ -4047,7 +4058,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="172"/>
       <c r="C21" s="111"/>
       <c r="D21" s="112"/>
@@ -4058,14 +4069,14 @@
       <c r="G21" s="113"/>
       <c r="H21" s="173"/>
       <c r="I21" s="174"/>
-      <c r="K21" s="203" t="s">
+      <c r="K21" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="203" t="s">
+      <c r="L21" s="176" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="172"/>
       <c r="H22" s="173"/>
       <c r="I22" s="174"/>
@@ -4076,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="164" t="s">
         <v>157</v>
       </c>
@@ -4100,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="172"/>
       <c r="C24" s="117"/>
       <c r="D24" s="109" t="s">
@@ -4124,7 +4135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="172"/>
       <c r="C25" s="119" t="s">
         <v>210</v>
@@ -4142,7 +4153,7 @@
       </c>
       <c r="L25" s="171"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="172"/>
       <c r="H26" s="173"/>
       <c r="I26" s="174"/>
@@ -4151,7 +4162,7 @@
       </c>
       <c r="L26" s="171"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="164" t="s">
         <v>158</v>
       </c>
@@ -4177,7 +4188,7 @@
       </c>
       <c r="L27" s="171"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="172"/>
       <c r="C28" s="108" t="s">
         <v>208</v>
@@ -4199,7 +4210,7 @@
       </c>
       <c r="L28" s="171"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="172"/>
       <c r="C29" s="111"/>
       <c r="D29" s="112"/>
@@ -4209,12 +4220,12 @@
       <c r="H29" s="173"/>
       <c r="I29" s="174"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="172"/>
       <c r="H30" s="173"/>
       <c r="I30" s="174"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="164" t="s">
         <v>159</v>
       </c>
@@ -4230,7 +4241,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="172"/>
       <c r="C32" s="108" t="s">
         <v>208</v>
@@ -5253,9 +5264,11 @@
       <c r="I105" s="174"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="G1:K1"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="O2:S2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5277,34 +5290,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="193">
-        <v>1</v>
-      </c>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="H1" s="193">
-        <v>2</v>
-      </c>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="N1" s="193">
+      <c r="B1" s="194">
+        <v>1</v>
+      </c>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="H1" s="194">
+        <v>2</v>
+      </c>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="N1" s="194">
         <v>3</v>
       </c>
-      <c r="O1" s="193"/>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="193"/>
-      <c r="R1" s="193"/>
-      <c r="T1" s="193">
+      <c r="O1" s="194"/>
+      <c r="P1" s="194"/>
+      <c r="Q1" s="194"/>
+      <c r="R1" s="194"/>
+      <c r="T1" s="194">
         <v>4</v>
       </c>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
-      <c r="X1" s="193"/>
+      <c r="U1" s="194"/>
+      <c r="V1" s="194"/>
+      <c r="W1" s="194"/>
+      <c r="X1" s="194"/>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="121" t="s">
@@ -5527,37 +5540,37 @@
       <c r="X5" s="123"/>
     </row>
     <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="194">
+      <c r="B6" s="195">
         <v>5</v>
       </c>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
       <c r="G6" s="123"/>
-      <c r="H6" s="194">
+      <c r="H6" s="195">
         <v>6</v>
       </c>
-      <c r="I6" s="194"/>
-      <c r="J6" s="194"/>
-      <c r="K6" s="194"/>
-      <c r="L6" s="194"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="195"/>
+      <c r="K6" s="195"/>
+      <c r="L6" s="195"/>
       <c r="M6" s="123"/>
-      <c r="N6" s="194">
+      <c r="N6" s="195">
         <v>7</v>
       </c>
-      <c r="O6" s="194"/>
-      <c r="P6" s="194"/>
-      <c r="Q6" s="194"/>
-      <c r="R6" s="194"/>
+      <c r="O6" s="195"/>
+      <c r="P6" s="195"/>
+      <c r="Q6" s="195"/>
+      <c r="R6" s="195"/>
       <c r="S6" s="123"/>
-      <c r="T6" s="194">
+      <c r="T6" s="195">
         <v>8</v>
       </c>
-      <c r="U6" s="194"/>
-      <c r="V6" s="194"/>
-      <c r="W6" s="194"/>
-      <c r="X6" s="194"/>
+      <c r="U6" s="195"/>
+      <c r="V6" s="195"/>
+      <c r="W6" s="195"/>
+      <c r="X6" s="195"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="105" t="s">
@@ -5780,37 +5793,37 @@
       <c r="X10" s="123"/>
     </row>
     <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="194">
+      <c r="B11" s="195">
         <v>9</v>
       </c>
-      <c r="C11" s="194"/>
-      <c r="D11" s="194"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="194"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="195"/>
+      <c r="E11" s="195"/>
+      <c r="F11" s="195"/>
       <c r="G11" s="123"/>
-      <c r="H11" s="194">
+      <c r="H11" s="195">
         <v>10</v>
       </c>
-      <c r="I11" s="194"/>
-      <c r="J11" s="194"/>
-      <c r="K11" s="194"/>
-      <c r="L11" s="194"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="195"/>
+      <c r="L11" s="195"/>
       <c r="M11" s="123"/>
-      <c r="N11" s="194">
+      <c r="N11" s="195">
         <v>11</v>
       </c>
-      <c r="O11" s="194"/>
-      <c r="P11" s="194"/>
-      <c r="Q11" s="194"/>
-      <c r="R11" s="194"/>
+      <c r="O11" s="195"/>
+      <c r="P11" s="195"/>
+      <c r="Q11" s="195"/>
+      <c r="R11" s="195"/>
       <c r="S11" s="123"/>
-      <c r="T11" s="194">
+      <c r="T11" s="195">
         <v>12</v>
       </c>
-      <c r="U11" s="194"/>
-      <c r="V11" s="194"/>
-      <c r="W11" s="194"/>
-      <c r="X11" s="194"/>
+      <c r="U11" s="195"/>
+      <c r="V11" s="195"/>
+      <c r="W11" s="195"/>
+      <c r="X11" s="195"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="105" t="s">
@@ -6033,37 +6046,37 @@
       <c r="X15" s="123"/>
     </row>
     <row r="16" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="194">
+      <c r="B16" s="195">
         <v>13</v>
       </c>
-      <c r="C16" s="194"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="194"/>
+      <c r="C16" s="195"/>
+      <c r="D16" s="195"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="195"/>
       <c r="G16" s="123"/>
-      <c r="H16" s="194">
+      <c r="H16" s="195">
         <v>14</v>
       </c>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="194"/>
-      <c r="L16" s="194"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="195"/>
+      <c r="K16" s="195"/>
+      <c r="L16" s="195"/>
       <c r="M16" s="123"/>
-      <c r="N16" s="194">
+      <c r="N16" s="195">
         <v>15</v>
       </c>
-      <c r="O16" s="194"/>
-      <c r="P16" s="194"/>
-      <c r="Q16" s="194"/>
-      <c r="R16" s="194"/>
+      <c r="O16" s="195"/>
+      <c r="P16" s="195"/>
+      <c r="Q16" s="195"/>
+      <c r="R16" s="195"/>
       <c r="S16" s="123"/>
-      <c r="T16" s="194">
+      <c r="T16" s="195">
         <v>16</v>
       </c>
-      <c r="U16" s="194"/>
-      <c r="V16" s="194"/>
-      <c r="W16" s="194"/>
-      <c r="X16" s="194"/>
+      <c r="U16" s="195"/>
+      <c r="V16" s="195"/>
+      <c r="W16" s="195"/>
+      <c r="X16" s="195"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="105" t="s">
@@ -6261,34 +6274,34 @@
       </c>
     </row>
     <row r="21" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="193">
+      <c r="B21" s="194">
         <v>17</v>
       </c>
-      <c r="C21" s="193"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="H21" s="193">
+      <c r="C21" s="194"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="194"/>
+      <c r="H21" s="194">
         <v>18</v>
       </c>
-      <c r="I21" s="193"/>
-      <c r="J21" s="193"/>
-      <c r="K21" s="193"/>
-      <c r="L21" s="193"/>
-      <c r="N21" s="193">
+      <c r="I21" s="194"/>
+      <c r="J21" s="194"/>
+      <c r="K21" s="194"/>
+      <c r="L21" s="194"/>
+      <c r="N21" s="194">
         <v>19</v>
       </c>
-      <c r="O21" s="193"/>
-      <c r="P21" s="193"/>
-      <c r="Q21" s="193"/>
-      <c r="R21" s="193"/>
-      <c r="T21" s="193">
+      <c r="O21" s="194"/>
+      <c r="P21" s="194"/>
+      <c r="Q21" s="194"/>
+      <c r="R21" s="194"/>
+      <c r="T21" s="194">
         <v>20</v>
       </c>
-      <c r="U21" s="193"/>
-      <c r="V21" s="193"/>
-      <c r="W21" s="193"/>
-      <c r="X21" s="193"/>
+      <c r="U21" s="194"/>
+      <c r="V21" s="194"/>
+      <c r="W21" s="194"/>
+      <c r="X21" s="194"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="105" t="s">
@@ -6477,34 +6490,34 @@
       </c>
     </row>
     <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="193">
-        <v>21</v>
-      </c>
-      <c r="C26" s="193"/>
-      <c r="D26" s="193"/>
-      <c r="E26" s="193"/>
-      <c r="F26" s="193"/>
-      <c r="H26" s="193">
+      <c r="B26" s="194">
+        <v>21</v>
+      </c>
+      <c r="C26" s="194"/>
+      <c r="D26" s="194"/>
+      <c r="E26" s="194"/>
+      <c r="F26" s="194"/>
+      <c r="H26" s="194">
         <v>22</v>
       </c>
-      <c r="I26" s="193"/>
-      <c r="J26" s="193"/>
-      <c r="K26" s="193"/>
-      <c r="L26" s="193"/>
-      <c r="N26" s="193">
+      <c r="I26" s="194"/>
+      <c r="J26" s="194"/>
+      <c r="K26" s="194"/>
+      <c r="L26" s="194"/>
+      <c r="N26" s="194">
         <v>23</v>
       </c>
-      <c r="O26" s="193"/>
-      <c r="P26" s="193"/>
-      <c r="Q26" s="193"/>
-      <c r="R26" s="193"/>
-      <c r="T26" s="193">
+      <c r="O26" s="194"/>
+      <c r="P26" s="194"/>
+      <c r="Q26" s="194"/>
+      <c r="R26" s="194"/>
+      <c r="T26" s="194">
         <v>24</v>
       </c>
-      <c r="U26" s="193"/>
-      <c r="V26" s="193"/>
-      <c r="W26" s="193"/>
-      <c r="X26" s="193"/>
+      <c r="U26" s="194"/>
+      <c r="V26" s="194"/>
+      <c r="W26" s="194"/>
+      <c r="X26" s="194"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="105" t="s">
@@ -6693,13 +6706,13 @@
       </c>
     </row>
     <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="193">
+      <c r="B31" s="194">
         <v>25</v>
       </c>
-      <c r="C31" s="193"/>
-      <c r="D31" s="193"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
+      <c r="C31" s="194"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="194"/>
       <c r="H31" s="154"/>
       <c r="I31" s="154"/>
       <c r="J31" s="154"/>
@@ -6786,6 +6799,22 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="T16:X16"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="H21:L21"/>
@@ -6795,22 +6824,6 @@
     <mergeCell ref="H26:L26"/>
     <mergeCell ref="N26:R26"/>
     <mergeCell ref="T26:X26"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="T6:X6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7450,33 +7463,33 @@
       <c r="S9" s="151">
         <v>0.01</v>
       </c>
-      <c r="T9" s="187" t="s">
+      <c r="T9" s="188" t="s">
         <v>75</v>
       </c>
-      <c r="U9" s="187"/>
-      <c r="V9" s="187"/>
-      <c r="W9" s="187"/>
-      <c r="X9" s="187"/>
-      <c r="Y9" s="187"/>
-      <c r="Z9" s="187"/>
-      <c r="AA9" s="187"/>
-      <c r="AB9" s="187"/>
-      <c r="AC9" s="187"/>
+      <c r="U9" s="188"/>
+      <c r="V9" s="188"/>
+      <c r="W9" s="188"/>
+      <c r="X9" s="188"/>
+      <c r="Y9" s="188"/>
+      <c r="Z9" s="188"/>
+      <c r="AA9" s="188"/>
+      <c r="AB9" s="188"/>
+      <c r="AC9" s="188"/>
       <c r="AE9" s="151">
         <v>0.01</v>
       </c>
-      <c r="AF9" s="187" t="s">
+      <c r="AF9" s="188" t="s">
         <v>76</v>
       </c>
-      <c r="AG9" s="187"/>
-      <c r="AH9" s="187"/>
-      <c r="AI9" s="187"/>
-      <c r="AJ9" s="187"/>
-      <c r="AK9" s="187"/>
-      <c r="AL9" s="187"/>
-      <c r="AM9" s="187"/>
-      <c r="AN9" s="187"/>
-      <c r="AO9" s="187"/>
+      <c r="AG9" s="188"/>
+      <c r="AH9" s="188"/>
+      <c r="AI9" s="188"/>
+      <c r="AJ9" s="188"/>
+      <c r="AK9" s="188"/>
+      <c r="AL9" s="188"/>
+      <c r="AM9" s="188"/>
+      <c r="AN9" s="188"/>
+      <c r="AO9" s="188"/>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="101" t="s">
@@ -8766,44 +8779,44 @@
       <c r="G19" s="153">
         <v>0.03</v>
       </c>
-      <c r="H19" s="195"/>
-      <c r="I19" s="195"/>
-      <c r="J19" s="195"/>
-      <c r="K19" s="195"/>
-      <c r="L19" s="195"/>
-      <c r="M19" s="195"/>
-      <c r="N19" s="195"/>
-      <c r="O19" s="195"/>
-      <c r="P19" s="195"/>
-      <c r="Q19" s="195"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="197"/>
+      <c r="J19" s="197"/>
+      <c r="K19" s="197"/>
+      <c r="L19" s="197"/>
+      <c r="M19" s="197"/>
+      <c r="N19" s="197"/>
+      <c r="O19" s="197"/>
+      <c r="P19" s="197"/>
+      <c r="Q19" s="197"/>
       <c r="R19" s="152"/>
       <c r="S19" s="153">
         <v>0.03</v>
       </c>
-      <c r="T19" s="195"/>
-      <c r="U19" s="195"/>
-      <c r="V19" s="195"/>
-      <c r="W19" s="195"/>
-      <c r="X19" s="195"/>
-      <c r="Y19" s="195"/>
-      <c r="Z19" s="195"/>
-      <c r="AA19" s="195"/>
-      <c r="AB19" s="195"/>
-      <c r="AC19" s="195"/>
+      <c r="T19" s="197"/>
+      <c r="U19" s="197"/>
+      <c r="V19" s="197"/>
+      <c r="W19" s="197"/>
+      <c r="X19" s="197"/>
+      <c r="Y19" s="197"/>
+      <c r="Z19" s="197"/>
+      <c r="AA19" s="197"/>
+      <c r="AB19" s="197"/>
+      <c r="AC19" s="197"/>
       <c r="AD19" s="152"/>
       <c r="AE19" s="151">
         <v>0.03</v>
       </c>
-      <c r="AF19" s="195"/>
-      <c r="AG19" s="195"/>
-      <c r="AH19" s="195"/>
-      <c r="AI19" s="195"/>
-      <c r="AJ19" s="195"/>
-      <c r="AK19" s="195"/>
-      <c r="AL19" s="195"/>
-      <c r="AM19" s="195"/>
-      <c r="AN19" s="195"/>
-      <c r="AO19" s="195"/>
+      <c r="AF19" s="197"/>
+      <c r="AG19" s="197"/>
+      <c r="AH19" s="197"/>
+      <c r="AI19" s="197"/>
+      <c r="AJ19" s="197"/>
+      <c r="AK19" s="197"/>
+      <c r="AL19" s="197"/>
+      <c r="AM19" s="197"/>
+      <c r="AN19" s="197"/>
+      <c r="AO19" s="197"/>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="97">
@@ -11258,44 +11271,44 @@
       <c r="G39" s="153">
         <v>0.1</v>
       </c>
-      <c r="H39" s="195"/>
-      <c r="I39" s="195"/>
-      <c r="J39" s="195"/>
-      <c r="K39" s="195"/>
-      <c r="L39" s="195"/>
-      <c r="M39" s="195"/>
-      <c r="N39" s="195"/>
-      <c r="O39" s="195"/>
-      <c r="P39" s="195"/>
-      <c r="Q39" s="195"/>
+      <c r="H39" s="197"/>
+      <c r="I39" s="197"/>
+      <c r="J39" s="197"/>
+      <c r="K39" s="197"/>
+      <c r="L39" s="197"/>
+      <c r="M39" s="197"/>
+      <c r="N39" s="197"/>
+      <c r="O39" s="197"/>
+      <c r="P39" s="197"/>
+      <c r="Q39" s="197"/>
       <c r="R39" s="152"/>
       <c r="S39" s="153">
         <v>0.1</v>
       </c>
-      <c r="T39" s="195"/>
-      <c r="U39" s="195"/>
-      <c r="V39" s="195"/>
-      <c r="W39" s="195"/>
-      <c r="X39" s="195"/>
-      <c r="Y39" s="195"/>
-      <c r="Z39" s="195"/>
-      <c r="AA39" s="195"/>
-      <c r="AB39" s="195"/>
-      <c r="AC39" s="195"/>
+      <c r="T39" s="197"/>
+      <c r="U39" s="197"/>
+      <c r="V39" s="197"/>
+      <c r="W39" s="197"/>
+      <c r="X39" s="197"/>
+      <c r="Y39" s="197"/>
+      <c r="Z39" s="197"/>
+      <c r="AA39" s="197"/>
+      <c r="AB39" s="197"/>
+      <c r="AC39" s="197"/>
       <c r="AD39" s="152"/>
       <c r="AE39" s="151">
         <v>0.1</v>
       </c>
-      <c r="AF39" s="195"/>
-      <c r="AG39" s="195"/>
-      <c r="AH39" s="195"/>
-      <c r="AI39" s="195"/>
-      <c r="AJ39" s="195"/>
-      <c r="AK39" s="195"/>
-      <c r="AL39" s="195"/>
-      <c r="AM39" s="195"/>
-      <c r="AN39" s="195"/>
-      <c r="AO39" s="195"/>
+      <c r="AF39" s="197"/>
+      <c r="AG39" s="197"/>
+      <c r="AH39" s="197"/>
+      <c r="AI39" s="197"/>
+      <c r="AJ39" s="197"/>
+      <c r="AK39" s="197"/>
+      <c r="AL39" s="197"/>
+      <c r="AM39" s="197"/>
+      <c r="AN39" s="197"/>
+      <c r="AO39" s="197"/>
     </row>
     <row r="40" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G40" s="158">
@@ -13738,44 +13751,44 @@
       <c r="G59" s="153">
         <v>0.5</v>
       </c>
-      <c r="H59" s="195"/>
-      <c r="I59" s="195"/>
-      <c r="J59" s="195"/>
-      <c r="K59" s="195"/>
-      <c r="L59" s="195"/>
-      <c r="M59" s="195"/>
-      <c r="N59" s="195"/>
-      <c r="O59" s="195"/>
-      <c r="P59" s="195"/>
-      <c r="Q59" s="195"/>
+      <c r="H59" s="197"/>
+      <c r="I59" s="197"/>
+      <c r="J59" s="197"/>
+      <c r="K59" s="197"/>
+      <c r="L59" s="197"/>
+      <c r="M59" s="197"/>
+      <c r="N59" s="197"/>
+      <c r="O59" s="197"/>
+      <c r="P59" s="197"/>
+      <c r="Q59" s="197"/>
       <c r="R59" s="152"/>
       <c r="S59" s="153">
         <v>0.5</v>
       </c>
-      <c r="T59" s="195"/>
-      <c r="U59" s="195"/>
-      <c r="V59" s="195"/>
-      <c r="W59" s="195"/>
-      <c r="X59" s="195"/>
-      <c r="Y59" s="195"/>
-      <c r="Z59" s="195"/>
-      <c r="AA59" s="195"/>
-      <c r="AB59" s="195"/>
-      <c r="AC59" s="195"/>
+      <c r="T59" s="197"/>
+      <c r="U59" s="197"/>
+      <c r="V59" s="197"/>
+      <c r="W59" s="197"/>
+      <c r="X59" s="197"/>
+      <c r="Y59" s="197"/>
+      <c r="Z59" s="197"/>
+      <c r="AA59" s="197"/>
+      <c r="AB59" s="197"/>
+      <c r="AC59" s="197"/>
       <c r="AD59" s="152"/>
       <c r="AE59" s="151">
         <v>0.5</v>
       </c>
-      <c r="AF59" s="195"/>
-      <c r="AG59" s="195"/>
-      <c r="AH59" s="195"/>
-      <c r="AI59" s="195"/>
-      <c r="AJ59" s="195"/>
-      <c r="AK59" s="195"/>
-      <c r="AL59" s="195"/>
-      <c r="AM59" s="195"/>
-      <c r="AN59" s="195"/>
-      <c r="AO59" s="195"/>
+      <c r="AF59" s="197"/>
+      <c r="AG59" s="197"/>
+      <c r="AH59" s="197"/>
+      <c r="AI59" s="197"/>
+      <c r="AJ59" s="197"/>
+      <c r="AK59" s="197"/>
+      <c r="AL59" s="197"/>
+      <c r="AM59" s="197"/>
+      <c r="AN59" s="197"/>
+      <c r="AO59" s="197"/>
     </row>
     <row r="60" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G60" s="158">
@@ -14976,11 +14989,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H9:Q9"/>
-    <mergeCell ref="T9:AC9"/>
-    <mergeCell ref="AF9:AO9"/>
-    <mergeCell ref="AF19:AO19"/>
-    <mergeCell ref="AF39:AO39"/>
     <mergeCell ref="AF59:AO59"/>
     <mergeCell ref="T19:AC19"/>
     <mergeCell ref="T39:AC39"/>
@@ -14988,6 +14996,11 @@
     <mergeCell ref="H19:Q19"/>
     <mergeCell ref="H39:Q39"/>
     <mergeCell ref="H59:Q59"/>
+    <mergeCell ref="H9:Q9"/>
+    <mergeCell ref="T9:AC9"/>
+    <mergeCell ref="AF9:AO9"/>
+    <mergeCell ref="AF19:AO19"/>
+    <mergeCell ref="AF39:AO39"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="AF20:AO28 AF60:AO68 AF40:AO48">
@@ -18202,34 +18215,34 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="193">
-        <v>1</v>
-      </c>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="H1" s="193">
-        <v>2</v>
-      </c>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="N1" s="193">
+      <c r="B1" s="194">
+        <v>1</v>
+      </c>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="H1" s="194">
+        <v>2</v>
+      </c>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="N1" s="194">
         <v>3</v>
       </c>
-      <c r="O1" s="193"/>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="193"/>
-      <c r="R1" s="193"/>
-      <c r="T1" s="193">
+      <c r="O1" s="194"/>
+      <c r="P1" s="194"/>
+      <c r="Q1" s="194"/>
+      <c r="R1" s="194"/>
+      <c r="T1" s="194">
         <v>4</v>
       </c>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
-      <c r="X1" s="193"/>
+      <c r="U1" s="194"/>
+      <c r="V1" s="194"/>
+      <c r="W1" s="194"/>
+      <c r="X1" s="194"/>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="39"/>
@@ -18298,34 +18311,34 @@
       <c r="X4" s="46"/>
     </row>
     <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="193">
+      <c r="B6" s="194">
         <v>5</v>
       </c>
-      <c r="C6" s="193"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="H6" s="193">
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="H6" s="194">
         <v>6</v>
       </c>
-      <c r="I6" s="193"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="193"/>
-      <c r="L6" s="193"/>
-      <c r="N6" s="193">
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
+      <c r="L6" s="194"/>
+      <c r="N6" s="194">
         <v>7</v>
       </c>
-      <c r="O6" s="193"/>
-      <c r="P6" s="193"/>
-      <c r="Q6" s="193"/>
-      <c r="R6" s="193"/>
-      <c r="T6" s="193">
+      <c r="O6" s="194"/>
+      <c r="P6" s="194"/>
+      <c r="Q6" s="194"/>
+      <c r="R6" s="194"/>
+      <c r="T6" s="194">
         <v>8</v>
       </c>
-      <c r="U6" s="193"/>
-      <c r="V6" s="193"/>
-      <c r="W6" s="193"/>
-      <c r="X6" s="193"/>
+      <c r="U6" s="194"/>
+      <c r="V6" s="194"/>
+      <c r="W6" s="194"/>
+      <c r="X6" s="194"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="39"/>
@@ -18394,34 +18407,34 @@
       <c r="X9" s="59"/>
     </row>
     <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="193">
+      <c r="B11" s="194">
         <v>9</v>
       </c>
-      <c r="C11" s="193"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="193"/>
-      <c r="H11" s="193">
+      <c r="C11" s="194"/>
+      <c r="D11" s="194"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="194"/>
+      <c r="H11" s="194">
         <v>10</v>
       </c>
-      <c r="I11" s="193"/>
-      <c r="J11" s="193"/>
-      <c r="K11" s="193"/>
-      <c r="L11" s="193"/>
-      <c r="N11" s="193">
+      <c r="I11" s="194"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="194"/>
+      <c r="L11" s="194"/>
+      <c r="N11" s="194">
         <v>11</v>
       </c>
-      <c r="O11" s="193"/>
-      <c r="P11" s="193"/>
-      <c r="Q11" s="193"/>
-      <c r="R11" s="193"/>
-      <c r="T11" s="193">
+      <c r="O11" s="194"/>
+      <c r="P11" s="194"/>
+      <c r="Q11" s="194"/>
+      <c r="R11" s="194"/>
+      <c r="T11" s="194">
         <v>12</v>
       </c>
-      <c r="U11" s="193"/>
-      <c r="V11" s="193"/>
-      <c r="W11" s="193"/>
-      <c r="X11" s="193"/>
+      <c r="U11" s="194"/>
+      <c r="V11" s="194"/>
+      <c r="W11" s="194"/>
+      <c r="X11" s="194"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="39"/>
@@ -18490,34 +18503,34 @@
       <c r="X14" s="46"/>
     </row>
     <row r="16" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="193">
+      <c r="B16" s="194">
         <v>13</v>
       </c>
-      <c r="C16" s="193"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="H16" s="193">
+      <c r="C16" s="194"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="194"/>
+      <c r="H16" s="194">
         <v>14</v>
       </c>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="193"/>
-      <c r="L16" s="193"/>
-      <c r="N16" s="193">
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
+      <c r="N16" s="194">
         <v>15</v>
       </c>
-      <c r="O16" s="193"/>
-      <c r="P16" s="193"/>
-      <c r="Q16" s="193"/>
-      <c r="R16" s="193"/>
-      <c r="T16" s="193">
+      <c r="O16" s="194"/>
+      <c r="P16" s="194"/>
+      <c r="Q16" s="194"/>
+      <c r="R16" s="194"/>
+      <c r="T16" s="194">
         <v>16</v>
       </c>
-      <c r="U16" s="193"/>
-      <c r="V16" s="193"/>
-      <c r="W16" s="193"/>
-      <c r="X16" s="193"/>
+      <c r="U16" s="194"/>
+      <c r="V16" s="194"/>
+      <c r="W16" s="194"/>
+      <c r="X16" s="194"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="39"/>
@@ -18586,34 +18599,34 @@
       <c r="X19" s="46"/>
     </row>
     <row r="21" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="193">
+      <c r="B21" s="194">
         <v>17</v>
       </c>
-      <c r="C21" s="193"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="H21" s="193">
+      <c r="C21" s="194"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="194"/>
+      <c r="H21" s="194">
         <v>18</v>
       </c>
-      <c r="I21" s="193"/>
-      <c r="J21" s="193"/>
-      <c r="K21" s="193"/>
-      <c r="L21" s="193"/>
-      <c r="N21" s="193">
+      <c r="I21" s="194"/>
+      <c r="J21" s="194"/>
+      <c r="K21" s="194"/>
+      <c r="L21" s="194"/>
+      <c r="N21" s="194">
         <v>19</v>
       </c>
-      <c r="O21" s="193"/>
-      <c r="P21" s="193"/>
-      <c r="Q21" s="193"/>
-      <c r="R21" s="193"/>
-      <c r="T21" s="193">
+      <c r="O21" s="194"/>
+      <c r="P21" s="194"/>
+      <c r="Q21" s="194"/>
+      <c r="R21" s="194"/>
+      <c r="T21" s="194">
         <v>20</v>
       </c>
-      <c r="U21" s="193"/>
-      <c r="V21" s="193"/>
-      <c r="W21" s="193"/>
-      <c r="X21" s="193"/>
+      <c r="U21" s="194"/>
+      <c r="V21" s="194"/>
+      <c r="W21" s="194"/>
+      <c r="X21" s="194"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="39"/>
@@ -18682,34 +18695,34 @@
       <c r="X24" s="46"/>
     </row>
     <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="193">
-        <v>21</v>
-      </c>
-      <c r="C26" s="193"/>
-      <c r="D26" s="193"/>
-      <c r="E26" s="193"/>
-      <c r="F26" s="193"/>
-      <c r="H26" s="193">
+      <c r="B26" s="194">
+        <v>21</v>
+      </c>
+      <c r="C26" s="194"/>
+      <c r="D26" s="194"/>
+      <c r="E26" s="194"/>
+      <c r="F26" s="194"/>
+      <c r="H26" s="194">
         <v>22</v>
       </c>
-      <c r="I26" s="193"/>
-      <c r="J26" s="193"/>
-      <c r="K26" s="193"/>
-      <c r="L26" s="193"/>
-      <c r="N26" s="193">
+      <c r="I26" s="194"/>
+      <c r="J26" s="194"/>
+      <c r="K26" s="194"/>
+      <c r="L26" s="194"/>
+      <c r="N26" s="194">
         <v>23</v>
       </c>
-      <c r="O26" s="193"/>
-      <c r="P26" s="193"/>
-      <c r="Q26" s="193"/>
-      <c r="R26" s="193"/>
-      <c r="T26" s="193">
+      <c r="O26" s="194"/>
+      <c r="P26" s="194"/>
+      <c r="Q26" s="194"/>
+      <c r="R26" s="194"/>
+      <c r="T26" s="194">
         <v>24</v>
       </c>
-      <c r="U26" s="193"/>
-      <c r="V26" s="193"/>
-      <c r="W26" s="193"/>
-      <c r="X26" s="193"/>
+      <c r="U26" s="194"/>
+      <c r="V26" s="194"/>
+      <c r="W26" s="194"/>
+      <c r="X26" s="194"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="39"/>
@@ -18778,13 +18791,13 @@
       <c r="X29" s="46"/>
     </row>
     <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="193">
+      <c r="B31" s="194">
         <v>25</v>
       </c>
-      <c r="C31" s="193"/>
-      <c r="D31" s="193"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
+      <c r="C31" s="194"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="194"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="39"/>
@@ -18809,6 +18822,22 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="T26:X26"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="B21:F21"/>
@@ -18818,22 +18847,6 @@
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="H16:L16"/>
     <mergeCell ref="N16:R16"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="T6:X6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18857,40 +18870,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="198" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="199"/>
-      <c r="F1" s="197" t="s">
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="200"/>
+      <c r="F1" s="198" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="198"/>
-      <c r="H1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="200"/>
       <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="178"/>
-      <c r="F2" s="176" t="s">
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="179"/>
+      <c r="F2" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="177"/>
-      <c r="H2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="179"/>
       <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="178"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="179"/>
       <c r="F3" s="13" t="s">
         <v>60</v>
       </c>
@@ -19042,10 +19055,10 @@
       <c r="B12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="179" t="s">
+      <c r="C12" s="180" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="180"/>
+      <c r="D12" s="181"/>
       <c r="F12" s="13" t="s">
         <v>67</v>
       </c>
@@ -19064,11 +19077,11 @@
       <c r="H13" s="66"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="176" t="s">
+      <c r="A14" s="177" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="177"/>
-      <c r="C14" s="177"/>
+      <c r="B14" s="178"/>
+      <c r="C14" s="178"/>
       <c r="D14" s="66"/>
       <c r="F14" s="13" t="s">
         <v>68</v>
@@ -19077,11 +19090,11 @@
       <c r="H14" s="66"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="176" t="s">
+      <c r="A15" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="177"/>
-      <c r="C15" s="177"/>
+      <c r="B15" s="178"/>
+      <c r="C15" s="178"/>
       <c r="D15" s="66"/>
       <c r="F15" s="13" t="s">
         <v>69</v>
@@ -19143,8 +19156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF38956-FDBF-4967-97AF-72744B5458AB}">
   <dimension ref="A1:AC174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H191" sqref="H191"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19276,11 +19289,11 @@
       <c r="P4" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="200" t="s">
+      <c r="Q4" s="201" t="s">
         <v>185</v>
       </c>
-      <c r="R4" s="200"/>
-      <c r="S4" s="200"/>
+      <c r="R4" s="201"/>
+      <c r="S4" s="201"/>
     </row>
     <row r="5" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E5" s="5"/>
@@ -19541,13 +19554,13 @@
       <c r="Q19" s="123"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="201" t="s">
+      <c r="A20" s="202" t="s">
         <v>200</v>
       </c>
-      <c r="B20" s="201"/>
-      <c r="C20" s="201"/>
-      <c r="D20" s="201"/>
-      <c r="E20" s="201"/>
+      <c r="B20" s="202"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="202"/>
       <c r="G20" s="1"/>
       <c r="M20" s="123"/>
       <c r="N20" s="123"/>

--- a/Conceptual/Game rules + pay amounts.xlsx
+++ b/Conceptual/Game rules + pay amounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy_\OneDrive\Documenten\GitHub\slotmachine-practice\Conceptual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A229B4-176F-4BB3-B381-F8C757C0823C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD0F889-F185-40A1-91BE-8EFFE6B7CF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28020" windowHeight="16440" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28020" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1717,6 +1717,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1774,10 +1789,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1798,28 +1813,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2421,8 +2421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2463,12 +2463,12 @@
       <c r="H1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="184" t="s">
+      <c r="K1" s="189" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="186"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="191"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="163" t="s">
@@ -2533,11 +2533,11 @@
         <f>$H$19*Tabel1[[#This Row],[Pay 5X]]</f>
         <v>2</v>
       </c>
-      <c r="K3" s="190" t="s">
+      <c r="K3" s="195" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="180"/>
-      <c r="M3" s="180"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
       <c r="N3" s="66"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2601,12 +2601,12 @@
         <f>$H$19*Tabel1[[#This Row],[Pay 5X]]</f>
         <v>1.5</v>
       </c>
-      <c r="K5" s="191" t="s">
+      <c r="K5" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="192"/>
-      <c r="M5" s="192"/>
-      <c r="N5" s="193"/>
+      <c r="L5" s="197"/>
+      <c r="M5" s="197"/>
+      <c r="N5" s="198"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="163" t="s">
@@ -2786,12 +2786,12 @@
         <f>$H$19*Tabel1[[#This Row],[Pay 5X]]</f>
         <v>0.35</v>
       </c>
-      <c r="K10" s="187" t="s">
+      <c r="K10" s="192" t="s">
         <v>92</v>
       </c>
-      <c r="L10" s="188"/>
-      <c r="M10" s="188"/>
-      <c r="N10" s="189"/>
+      <c r="L10" s="193"/>
+      <c r="M10" s="193"/>
+      <c r="N10" s="194"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2846,23 +2846,23 @@
       <c r="N13" s="66"/>
     </row>
     <row r="14" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="K14" s="184" t="s">
+      <c r="K14" s="189" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="185"/>
-      <c r="M14" s="185"/>
-      <c r="N14" s="186"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="190"/>
+      <c r="N14" s="191"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="177" t="s">
+      <c r="K15" s="182" t="s">
         <v>96</v>
       </c>
-      <c r="L15" s="178"/>
-      <c r="M15" s="178"/>
-      <c r="N15" s="179"/>
+      <c r="L15" s="183"/>
+      <c r="M15" s="183"/>
+      <c r="N15" s="184"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -2875,8 +2875,8 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D17" s="2">
-        <f>D19*D3</f>
-        <v>1</v>
+        <f>D19*D2</f>
+        <v>1.25</v>
       </c>
       <c r="K17" s="90" t="s">
         <v>38</v>
@@ -2902,10 +2902,10 @@
       <c r="G18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="182" t="s">
+      <c r="H18" s="187" t="s">
         <v>102</v>
       </c>
-      <c r="I18" s="182"/>
+      <c r="I18" s="187"/>
       <c r="K18" s="42">
         <v>6</v>
       </c>
@@ -2941,11 +2941,11 @@
         <f>A16*A28*B19</f>
         <v>125</v>
       </c>
-      <c r="H19" s="183">
+      <c r="H19" s="188">
         <f>A16*A19*B24</f>
         <v>0.25</v>
       </c>
-      <c r="I19" s="183"/>
+      <c r="I19" s="188"/>
       <c r="J19" s="85"/>
       <c r="K19" s="42">
         <v>9</v>
@@ -3079,10 +3079,10 @@
       <c r="L23" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="M23" s="180" t="s">
+      <c r="M23" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="N23" s="181"/>
+      <c r="N23" s="186"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="97">
@@ -3556,7 +3556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90B50E7-CCC4-4662-92E0-5FAF72E473B1}">
   <dimension ref="B1:T105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
@@ -3568,13 +3568,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G1" s="202" t="s">
+      <c r="G1" s="207" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
     </row>
     <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G2" s="123">
@@ -3592,16 +3592,16 @@
       <c r="K2" s="123">
         <v>270</v>
       </c>
-      <c r="O2" s="210">
-        <v>1</v>
-      </c>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="210"/>
+      <c r="O2" s="211">
+        <v>1</v>
+      </c>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="211"/>
     </row>
     <row r="3" spans="2:20" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="203" t="s">
+      <c r="E3" s="208" t="s">
         <v>211</v>
       </c>
       <c r="F3" s="123">
@@ -3625,18 +3625,18 @@
       <c r="L3" s="131">
         <v>300</v>
       </c>
-      <c r="N3" s="205">
-        <v>1</v>
-      </c>
-      <c r="O3" s="206">
+      <c r="N3" s="209">
+        <v>1</v>
+      </c>
+      <c r="O3" s="177">
         <f>N3/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="P3" s="209">
+      <c r="P3" s="180">
         <f>O3/9</f>
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="Q3" s="211">
+      <c r="Q3" s="181">
         <f>1.3*25</f>
         <v>32.5</v>
       </c>
@@ -3645,7 +3645,7 @@
       <c r="T3" s="131"/>
     </row>
     <row r="4" spans="2:20" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="203"/>
+      <c r="E4" s="208"/>
       <c r="F4" s="123">
         <v>75</v>
       </c>
@@ -3667,8 +3667,8 @@
       <c r="L4" s="123">
         <v>300</v>
       </c>
-      <c r="N4" s="204"/>
-      <c r="O4" s="207">
+      <c r="N4" s="210"/>
+      <c r="O4" s="178">
         <f>O3*2</f>
         <v>0.66666666666666663</v>
       </c>
@@ -3684,7 +3684,7 @@
       <c r="T4" s="123"/>
     </row>
     <row r="5" spans="2:20" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="203"/>
+      <c r="E5" s="208"/>
       <c r="F5" s="123">
         <v>125</v>
       </c>
@@ -3706,8 +3706,8 @@
       <c r="L5" s="123">
         <v>300</v>
       </c>
-      <c r="N5" s="204"/>
-      <c r="O5" s="208">
+      <c r="N5" s="210"/>
+      <c r="O5" s="179">
         <f>O3*3</f>
         <v>1</v>
       </c>
@@ -5290,34 +5290,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="194">
-        <v>1</v>
-      </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="H1" s="194">
-        <v>2</v>
-      </c>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="N1" s="194">
+      <c r="B1" s="199">
+        <v>1</v>
+      </c>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="H1" s="199">
+        <v>2</v>
+      </c>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="N1" s="199">
         <v>3</v>
       </c>
-      <c r="O1" s="194"/>
-      <c r="P1" s="194"/>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="194"/>
-      <c r="T1" s="194">
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
+      <c r="T1" s="199">
         <v>4</v>
       </c>
-      <c r="U1" s="194"/>
-      <c r="V1" s="194"/>
-      <c r="W1" s="194"/>
-      <c r="X1" s="194"/>
+      <c r="U1" s="199"/>
+      <c r="V1" s="199"/>
+      <c r="W1" s="199"/>
+      <c r="X1" s="199"/>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="121" t="s">
@@ -5540,37 +5540,37 @@
       <c r="X5" s="123"/>
     </row>
     <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="195">
+      <c r="B6" s="200">
         <v>5</v>
       </c>
-      <c r="C6" s="195"/>
-      <c r="D6" s="195"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
       <c r="G6" s="123"/>
-      <c r="H6" s="195">
+      <c r="H6" s="200">
         <v>6</v>
       </c>
-      <c r="I6" s="195"/>
-      <c r="J6" s="195"/>
-      <c r="K6" s="195"/>
-      <c r="L6" s="195"/>
+      <c r="I6" s="200"/>
+      <c r="J6" s="200"/>
+      <c r="K6" s="200"/>
+      <c r="L6" s="200"/>
       <c r="M6" s="123"/>
-      <c r="N6" s="195">
+      <c r="N6" s="200">
         <v>7</v>
       </c>
-      <c r="O6" s="195"/>
-      <c r="P6" s="195"/>
-      <c r="Q6" s="195"/>
-      <c r="R6" s="195"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="200"/>
       <c r="S6" s="123"/>
-      <c r="T6" s="195">
+      <c r="T6" s="200">
         <v>8</v>
       </c>
-      <c r="U6" s="195"/>
-      <c r="V6" s="195"/>
-      <c r="W6" s="195"/>
-      <c r="X6" s="195"/>
+      <c r="U6" s="200"/>
+      <c r="V6" s="200"/>
+      <c r="W6" s="200"/>
+      <c r="X6" s="200"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="105" t="s">
@@ -5793,37 +5793,37 @@
       <c r="X10" s="123"/>
     </row>
     <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="195">
+      <c r="B11" s="200">
         <v>9</v>
       </c>
-      <c r="C11" s="195"/>
-      <c r="D11" s="195"/>
-      <c r="E11" s="195"/>
-      <c r="F11" s="195"/>
+      <c r="C11" s="200"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="200"/>
       <c r="G11" s="123"/>
-      <c r="H11" s="195">
+      <c r="H11" s="200">
         <v>10</v>
       </c>
-      <c r="I11" s="195"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="195"/>
-      <c r="L11" s="195"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="200"/>
+      <c r="L11" s="200"/>
       <c r="M11" s="123"/>
-      <c r="N11" s="195">
+      <c r="N11" s="200">
         <v>11</v>
       </c>
-      <c r="O11" s="195"/>
-      <c r="P11" s="195"/>
-      <c r="Q11" s="195"/>
-      <c r="R11" s="195"/>
+      <c r="O11" s="200"/>
+      <c r="P11" s="200"/>
+      <c r="Q11" s="200"/>
+      <c r="R11" s="200"/>
       <c r="S11" s="123"/>
-      <c r="T11" s="195">
+      <c r="T11" s="200">
         <v>12</v>
       </c>
-      <c r="U11" s="195"/>
-      <c r="V11" s="195"/>
-      <c r="W11" s="195"/>
-      <c r="X11" s="195"/>
+      <c r="U11" s="200"/>
+      <c r="V11" s="200"/>
+      <c r="W11" s="200"/>
+      <c r="X11" s="200"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="105" t="s">
@@ -6046,37 +6046,37 @@
       <c r="X15" s="123"/>
     </row>
     <row r="16" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="195">
+      <c r="B16" s="200">
         <v>13</v>
       </c>
-      <c r="C16" s="195"/>
-      <c r="D16" s="195"/>
-      <c r="E16" s="195"/>
-      <c r="F16" s="195"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="200"/>
+      <c r="E16" s="200"/>
+      <c r="F16" s="200"/>
       <c r="G16" s="123"/>
-      <c r="H16" s="195">
+      <c r="H16" s="200">
         <v>14</v>
       </c>
-      <c r="I16" s="195"/>
-      <c r="J16" s="195"/>
-      <c r="K16" s="195"/>
-      <c r="L16" s="195"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="200"/>
+      <c r="L16" s="200"/>
       <c r="M16" s="123"/>
-      <c r="N16" s="195">
+      <c r="N16" s="200">
         <v>15</v>
       </c>
-      <c r="O16" s="195"/>
-      <c r="P16" s="195"/>
-      <c r="Q16" s="195"/>
-      <c r="R16" s="195"/>
+      <c r="O16" s="200"/>
+      <c r="P16" s="200"/>
+      <c r="Q16" s="200"/>
+      <c r="R16" s="200"/>
       <c r="S16" s="123"/>
-      <c r="T16" s="195">
+      <c r="T16" s="200">
         <v>16</v>
       </c>
-      <c r="U16" s="195"/>
-      <c r="V16" s="195"/>
-      <c r="W16" s="195"/>
-      <c r="X16" s="195"/>
+      <c r="U16" s="200"/>
+      <c r="V16" s="200"/>
+      <c r="W16" s="200"/>
+      <c r="X16" s="200"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="105" t="s">
@@ -6274,34 +6274,34 @@
       </c>
     </row>
     <row r="21" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="194">
+      <c r="B21" s="199">
         <v>17</v>
       </c>
-      <c r="C21" s="194"/>
-      <c r="D21" s="194"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="194"/>
-      <c r="H21" s="194">
+      <c r="C21" s="199"/>
+      <c r="D21" s="199"/>
+      <c r="E21" s="199"/>
+      <c r="F21" s="199"/>
+      <c r="H21" s="199">
         <v>18</v>
       </c>
-      <c r="I21" s="194"/>
-      <c r="J21" s="194"/>
-      <c r="K21" s="194"/>
-      <c r="L21" s="194"/>
-      <c r="N21" s="194">
+      <c r="I21" s="199"/>
+      <c r="J21" s="199"/>
+      <c r="K21" s="199"/>
+      <c r="L21" s="199"/>
+      <c r="N21" s="199">
         <v>19</v>
       </c>
-      <c r="O21" s="194"/>
-      <c r="P21" s="194"/>
-      <c r="Q21" s="194"/>
-      <c r="R21" s="194"/>
-      <c r="T21" s="194">
+      <c r="O21" s="199"/>
+      <c r="P21" s="199"/>
+      <c r="Q21" s="199"/>
+      <c r="R21" s="199"/>
+      <c r="T21" s="199">
         <v>20</v>
       </c>
-      <c r="U21" s="194"/>
-      <c r="V21" s="194"/>
-      <c r="W21" s="194"/>
-      <c r="X21" s="194"/>
+      <c r="U21" s="199"/>
+      <c r="V21" s="199"/>
+      <c r="W21" s="199"/>
+      <c r="X21" s="199"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="105" t="s">
@@ -6490,34 +6490,34 @@
       </c>
     </row>
     <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="194">
-        <v>21</v>
-      </c>
-      <c r="C26" s="194"/>
-      <c r="D26" s="194"/>
-      <c r="E26" s="194"/>
-      <c r="F26" s="194"/>
-      <c r="H26" s="194">
+      <c r="B26" s="199">
+        <v>21</v>
+      </c>
+      <c r="C26" s="199"/>
+      <c r="D26" s="199"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="199"/>
+      <c r="H26" s="199">
         <v>22</v>
       </c>
-      <c r="I26" s="194"/>
-      <c r="J26" s="194"/>
-      <c r="K26" s="194"/>
-      <c r="L26" s="194"/>
-      <c r="N26" s="194">
+      <c r="I26" s="199"/>
+      <c r="J26" s="199"/>
+      <c r="K26" s="199"/>
+      <c r="L26" s="199"/>
+      <c r="N26" s="199">
         <v>23</v>
       </c>
-      <c r="O26" s="194"/>
-      <c r="P26" s="194"/>
-      <c r="Q26" s="194"/>
-      <c r="R26" s="194"/>
-      <c r="T26" s="194">
+      <c r="O26" s="199"/>
+      <c r="P26" s="199"/>
+      <c r="Q26" s="199"/>
+      <c r="R26" s="199"/>
+      <c r="T26" s="199">
         <v>24</v>
       </c>
-      <c r="U26" s="194"/>
-      <c r="V26" s="194"/>
-      <c r="W26" s="194"/>
-      <c r="X26" s="194"/>
+      <c r="U26" s="199"/>
+      <c r="V26" s="199"/>
+      <c r="W26" s="199"/>
+      <c r="X26" s="199"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="105" t="s">
@@ -6706,13 +6706,13 @@
       </c>
     </row>
     <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="194">
+      <c r="B31" s="199">
         <v>25</v>
       </c>
-      <c r="C31" s="194"/>
-      <c r="D31" s="194"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="194"/>
+      <c r="C31" s="199"/>
+      <c r="D31" s="199"/>
+      <c r="E31" s="199"/>
+      <c r="F31" s="199"/>
       <c r="H31" s="154"/>
       <c r="I31" s="154"/>
       <c r="J31" s="154"/>
@@ -6799,22 +6799,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="T16:X16"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="H21:L21"/>
@@ -6824,6 +6808,22 @@
     <mergeCell ref="H26:L26"/>
     <mergeCell ref="N26:R26"/>
     <mergeCell ref="T26:X26"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="T6:X6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7448,48 +7448,48 @@
       <c r="G9" s="151">
         <v>0.01</v>
       </c>
-      <c r="H9" s="196" t="s">
+      <c r="H9" s="202" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="196"/>
-      <c r="J9" s="196"/>
-      <c r="K9" s="196"/>
-      <c r="L9" s="196"/>
-      <c r="M9" s="196"/>
-      <c r="N9" s="196"/>
-      <c r="O9" s="196"/>
-      <c r="P9" s="196"/>
-      <c r="Q9" s="196"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="202"/>
+      <c r="L9" s="202"/>
+      <c r="M9" s="202"/>
+      <c r="N9" s="202"/>
+      <c r="O9" s="202"/>
+      <c r="P9" s="202"/>
+      <c r="Q9" s="202"/>
       <c r="S9" s="151">
         <v>0.01</v>
       </c>
-      <c r="T9" s="188" t="s">
+      <c r="T9" s="193" t="s">
         <v>75</v>
       </c>
-      <c r="U9" s="188"/>
-      <c r="V9" s="188"/>
-      <c r="W9" s="188"/>
-      <c r="X9" s="188"/>
-      <c r="Y9" s="188"/>
-      <c r="Z9" s="188"/>
-      <c r="AA9" s="188"/>
-      <c r="AB9" s="188"/>
-      <c r="AC9" s="188"/>
+      <c r="U9" s="193"/>
+      <c r="V9" s="193"/>
+      <c r="W9" s="193"/>
+      <c r="X9" s="193"/>
+      <c r="Y9" s="193"/>
+      <c r="Z9" s="193"/>
+      <c r="AA9" s="193"/>
+      <c r="AB9" s="193"/>
+      <c r="AC9" s="193"/>
       <c r="AE9" s="151">
         <v>0.01</v>
       </c>
-      <c r="AF9" s="188" t="s">
+      <c r="AF9" s="193" t="s">
         <v>76</v>
       </c>
-      <c r="AG9" s="188"/>
-      <c r="AH9" s="188"/>
-      <c r="AI9" s="188"/>
-      <c r="AJ9" s="188"/>
-      <c r="AK9" s="188"/>
-      <c r="AL9" s="188"/>
-      <c r="AM9" s="188"/>
-      <c r="AN9" s="188"/>
-      <c r="AO9" s="188"/>
+      <c r="AG9" s="193"/>
+      <c r="AH9" s="193"/>
+      <c r="AI9" s="193"/>
+      <c r="AJ9" s="193"/>
+      <c r="AK9" s="193"/>
+      <c r="AL9" s="193"/>
+      <c r="AM9" s="193"/>
+      <c r="AN9" s="193"/>
+      <c r="AO9" s="193"/>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="101" t="s">
@@ -8779,44 +8779,44 @@
       <c r="G19" s="153">
         <v>0.03</v>
       </c>
-      <c r="H19" s="197"/>
-      <c r="I19" s="197"/>
-      <c r="J19" s="197"/>
-      <c r="K19" s="197"/>
-      <c r="L19" s="197"/>
-      <c r="M19" s="197"/>
-      <c r="N19" s="197"/>
-      <c r="O19" s="197"/>
-      <c r="P19" s="197"/>
-      <c r="Q19" s="197"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="201"/>
+      <c r="J19" s="201"/>
+      <c r="K19" s="201"/>
+      <c r="L19" s="201"/>
+      <c r="M19" s="201"/>
+      <c r="N19" s="201"/>
+      <c r="O19" s="201"/>
+      <c r="P19" s="201"/>
+      <c r="Q19" s="201"/>
       <c r="R19" s="152"/>
       <c r="S19" s="153">
         <v>0.03</v>
       </c>
-      <c r="T19" s="197"/>
-      <c r="U19" s="197"/>
-      <c r="V19" s="197"/>
-      <c r="W19" s="197"/>
-      <c r="X19" s="197"/>
-      <c r="Y19" s="197"/>
-      <c r="Z19" s="197"/>
-      <c r="AA19" s="197"/>
-      <c r="AB19" s="197"/>
-      <c r="AC19" s="197"/>
+      <c r="T19" s="201"/>
+      <c r="U19" s="201"/>
+      <c r="V19" s="201"/>
+      <c r="W19" s="201"/>
+      <c r="X19" s="201"/>
+      <c r="Y19" s="201"/>
+      <c r="Z19" s="201"/>
+      <c r="AA19" s="201"/>
+      <c r="AB19" s="201"/>
+      <c r="AC19" s="201"/>
       <c r="AD19" s="152"/>
       <c r="AE19" s="151">
         <v>0.03</v>
       </c>
-      <c r="AF19" s="197"/>
-      <c r="AG19" s="197"/>
-      <c r="AH19" s="197"/>
-      <c r="AI19" s="197"/>
-      <c r="AJ19" s="197"/>
-      <c r="AK19" s="197"/>
-      <c r="AL19" s="197"/>
-      <c r="AM19" s="197"/>
-      <c r="AN19" s="197"/>
-      <c r="AO19" s="197"/>
+      <c r="AF19" s="201"/>
+      <c r="AG19" s="201"/>
+      <c r="AH19" s="201"/>
+      <c r="AI19" s="201"/>
+      <c r="AJ19" s="201"/>
+      <c r="AK19" s="201"/>
+      <c r="AL19" s="201"/>
+      <c r="AM19" s="201"/>
+      <c r="AN19" s="201"/>
+      <c r="AO19" s="201"/>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="97">
@@ -11271,44 +11271,44 @@
       <c r="G39" s="153">
         <v>0.1</v>
       </c>
-      <c r="H39" s="197"/>
-      <c r="I39" s="197"/>
-      <c r="J39" s="197"/>
-      <c r="K39" s="197"/>
-      <c r="L39" s="197"/>
-      <c r="M39" s="197"/>
-      <c r="N39" s="197"/>
-      <c r="O39" s="197"/>
-      <c r="P39" s="197"/>
-      <c r="Q39" s="197"/>
+      <c r="H39" s="201"/>
+      <c r="I39" s="201"/>
+      <c r="J39" s="201"/>
+      <c r="K39" s="201"/>
+      <c r="L39" s="201"/>
+      <c r="M39" s="201"/>
+      <c r="N39" s="201"/>
+      <c r="O39" s="201"/>
+      <c r="P39" s="201"/>
+      <c r="Q39" s="201"/>
       <c r="R39" s="152"/>
       <c r="S39" s="153">
         <v>0.1</v>
       </c>
-      <c r="T39" s="197"/>
-      <c r="U39" s="197"/>
-      <c r="V39" s="197"/>
-      <c r="W39" s="197"/>
-      <c r="X39" s="197"/>
-      <c r="Y39" s="197"/>
-      <c r="Z39" s="197"/>
-      <c r="AA39" s="197"/>
-      <c r="AB39" s="197"/>
-      <c r="AC39" s="197"/>
+      <c r="T39" s="201"/>
+      <c r="U39" s="201"/>
+      <c r="V39" s="201"/>
+      <c r="W39" s="201"/>
+      <c r="X39" s="201"/>
+      <c r="Y39" s="201"/>
+      <c r="Z39" s="201"/>
+      <c r="AA39" s="201"/>
+      <c r="AB39" s="201"/>
+      <c r="AC39" s="201"/>
       <c r="AD39" s="152"/>
       <c r="AE39" s="151">
         <v>0.1</v>
       </c>
-      <c r="AF39" s="197"/>
-      <c r="AG39" s="197"/>
-      <c r="AH39" s="197"/>
-      <c r="AI39" s="197"/>
-      <c r="AJ39" s="197"/>
-      <c r="AK39" s="197"/>
-      <c r="AL39" s="197"/>
-      <c r="AM39" s="197"/>
-      <c r="AN39" s="197"/>
-      <c r="AO39" s="197"/>
+      <c r="AF39" s="201"/>
+      <c r="AG39" s="201"/>
+      <c r="AH39" s="201"/>
+      <c r="AI39" s="201"/>
+      <c r="AJ39" s="201"/>
+      <c r="AK39" s="201"/>
+      <c r="AL39" s="201"/>
+      <c r="AM39" s="201"/>
+      <c r="AN39" s="201"/>
+      <c r="AO39" s="201"/>
     </row>
     <row r="40" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G40" s="158">
@@ -13751,44 +13751,44 @@
       <c r="G59" s="153">
         <v>0.5</v>
       </c>
-      <c r="H59" s="197"/>
-      <c r="I59" s="197"/>
-      <c r="J59" s="197"/>
-      <c r="K59" s="197"/>
-      <c r="L59" s="197"/>
-      <c r="M59" s="197"/>
-      <c r="N59" s="197"/>
-      <c r="O59" s="197"/>
-      <c r="P59" s="197"/>
-      <c r="Q59" s="197"/>
+      <c r="H59" s="201"/>
+      <c r="I59" s="201"/>
+      <c r="J59" s="201"/>
+      <c r="K59" s="201"/>
+      <c r="L59" s="201"/>
+      <c r="M59" s="201"/>
+      <c r="N59" s="201"/>
+      <c r="O59" s="201"/>
+      <c r="P59" s="201"/>
+      <c r="Q59" s="201"/>
       <c r="R59" s="152"/>
       <c r="S59" s="153">
         <v>0.5</v>
       </c>
-      <c r="T59" s="197"/>
-      <c r="U59" s="197"/>
-      <c r="V59" s="197"/>
-      <c r="W59" s="197"/>
-      <c r="X59" s="197"/>
-      <c r="Y59" s="197"/>
-      <c r="Z59" s="197"/>
-      <c r="AA59" s="197"/>
-      <c r="AB59" s="197"/>
-      <c r="AC59" s="197"/>
+      <c r="T59" s="201"/>
+      <c r="U59" s="201"/>
+      <c r="V59" s="201"/>
+      <c r="W59" s="201"/>
+      <c r="X59" s="201"/>
+      <c r="Y59" s="201"/>
+      <c r="Z59" s="201"/>
+      <c r="AA59" s="201"/>
+      <c r="AB59" s="201"/>
+      <c r="AC59" s="201"/>
       <c r="AD59" s="152"/>
       <c r="AE59" s="151">
         <v>0.5</v>
       </c>
-      <c r="AF59" s="197"/>
-      <c r="AG59" s="197"/>
-      <c r="AH59" s="197"/>
-      <c r="AI59" s="197"/>
-      <c r="AJ59" s="197"/>
-      <c r="AK59" s="197"/>
-      <c r="AL59" s="197"/>
-      <c r="AM59" s="197"/>
-      <c r="AN59" s="197"/>
-      <c r="AO59" s="197"/>
+      <c r="AF59" s="201"/>
+      <c r="AG59" s="201"/>
+      <c r="AH59" s="201"/>
+      <c r="AI59" s="201"/>
+      <c r="AJ59" s="201"/>
+      <c r="AK59" s="201"/>
+      <c r="AL59" s="201"/>
+      <c r="AM59" s="201"/>
+      <c r="AN59" s="201"/>
+      <c r="AO59" s="201"/>
     </row>
     <row r="60" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G60" s="158">
@@ -14989,6 +14989,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H9:Q9"/>
+    <mergeCell ref="T9:AC9"/>
+    <mergeCell ref="AF9:AO9"/>
+    <mergeCell ref="AF19:AO19"/>
+    <mergeCell ref="AF39:AO39"/>
     <mergeCell ref="AF59:AO59"/>
     <mergeCell ref="T19:AC19"/>
     <mergeCell ref="T39:AC39"/>
@@ -14996,11 +15001,6 @@
     <mergeCell ref="H19:Q19"/>
     <mergeCell ref="H39:Q39"/>
     <mergeCell ref="H59:Q59"/>
-    <mergeCell ref="H9:Q9"/>
-    <mergeCell ref="T9:AC9"/>
-    <mergeCell ref="AF9:AO9"/>
-    <mergeCell ref="AF19:AO19"/>
-    <mergeCell ref="AF39:AO39"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="AF20:AO28 AF60:AO68 AF40:AO48">
@@ -18215,34 +18215,34 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="194">
-        <v>1</v>
-      </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="H1" s="194">
-        <v>2</v>
-      </c>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="N1" s="194">
+      <c r="B1" s="199">
+        <v>1</v>
+      </c>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="H1" s="199">
+        <v>2</v>
+      </c>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="N1" s="199">
         <v>3</v>
       </c>
-      <c r="O1" s="194"/>
-      <c r="P1" s="194"/>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="194"/>
-      <c r="T1" s="194">
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
+      <c r="T1" s="199">
         <v>4</v>
       </c>
-      <c r="U1" s="194"/>
-      <c r="V1" s="194"/>
-      <c r="W1" s="194"/>
-      <c r="X1" s="194"/>
+      <c r="U1" s="199"/>
+      <c r="V1" s="199"/>
+      <c r="W1" s="199"/>
+      <c r="X1" s="199"/>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="39"/>
@@ -18311,34 +18311,34 @@
       <c r="X4" s="46"/>
     </row>
     <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="194">
+      <c r="B6" s="199">
         <v>5</v>
       </c>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="H6" s="194">
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="199"/>
+      <c r="H6" s="199">
         <v>6</v>
       </c>
-      <c r="I6" s="194"/>
-      <c r="J6" s="194"/>
-      <c r="K6" s="194"/>
-      <c r="L6" s="194"/>
-      <c r="N6" s="194">
+      <c r="I6" s="199"/>
+      <c r="J6" s="199"/>
+      <c r="K6" s="199"/>
+      <c r="L6" s="199"/>
+      <c r="N6" s="199">
         <v>7</v>
       </c>
-      <c r="O6" s="194"/>
-      <c r="P6" s="194"/>
-      <c r="Q6" s="194"/>
-      <c r="R6" s="194"/>
-      <c r="T6" s="194">
+      <c r="O6" s="199"/>
+      <c r="P6" s="199"/>
+      <c r="Q6" s="199"/>
+      <c r="R6" s="199"/>
+      <c r="T6" s="199">
         <v>8</v>
       </c>
-      <c r="U6" s="194"/>
-      <c r="V6" s="194"/>
-      <c r="W6" s="194"/>
-      <c r="X6" s="194"/>
+      <c r="U6" s="199"/>
+      <c r="V6" s="199"/>
+      <c r="W6" s="199"/>
+      <c r="X6" s="199"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="39"/>
@@ -18407,34 +18407,34 @@
       <c r="X9" s="59"/>
     </row>
     <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="194">
+      <c r="B11" s="199">
         <v>9</v>
       </c>
-      <c r="C11" s="194"/>
-      <c r="D11" s="194"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="194"/>
-      <c r="H11" s="194">
+      <c r="C11" s="199"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="199"/>
+      <c r="H11" s="199">
         <v>10</v>
       </c>
-      <c r="I11" s="194"/>
-      <c r="J11" s="194"/>
-      <c r="K11" s="194"/>
-      <c r="L11" s="194"/>
-      <c r="N11" s="194">
+      <c r="I11" s="199"/>
+      <c r="J11" s="199"/>
+      <c r="K11" s="199"/>
+      <c r="L11" s="199"/>
+      <c r="N11" s="199">
         <v>11</v>
       </c>
-      <c r="O11" s="194"/>
-      <c r="P11" s="194"/>
-      <c r="Q11" s="194"/>
-      <c r="R11" s="194"/>
-      <c r="T11" s="194">
+      <c r="O11" s="199"/>
+      <c r="P11" s="199"/>
+      <c r="Q11" s="199"/>
+      <c r="R11" s="199"/>
+      <c r="T11" s="199">
         <v>12</v>
       </c>
-      <c r="U11" s="194"/>
-      <c r="V11" s="194"/>
-      <c r="W11" s="194"/>
-      <c r="X11" s="194"/>
+      <c r="U11" s="199"/>
+      <c r="V11" s="199"/>
+      <c r="W11" s="199"/>
+      <c r="X11" s="199"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="39"/>
@@ -18503,34 +18503,34 @@
       <c r="X14" s="46"/>
     </row>
     <row r="16" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="194">
+      <c r="B16" s="199">
         <v>13</v>
       </c>
-      <c r="C16" s="194"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="194"/>
-      <c r="H16" s="194">
+      <c r="C16" s="199"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
+      <c r="H16" s="199">
         <v>14</v>
       </c>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="194"/>
-      <c r="L16" s="194"/>
-      <c r="N16" s="194">
+      <c r="I16" s="199"/>
+      <c r="J16" s="199"/>
+      <c r="K16" s="199"/>
+      <c r="L16" s="199"/>
+      <c r="N16" s="199">
         <v>15</v>
       </c>
-      <c r="O16" s="194"/>
-      <c r="P16" s="194"/>
-      <c r="Q16" s="194"/>
-      <c r="R16" s="194"/>
-      <c r="T16" s="194">
+      <c r="O16" s="199"/>
+      <c r="P16" s="199"/>
+      <c r="Q16" s="199"/>
+      <c r="R16" s="199"/>
+      <c r="T16" s="199">
         <v>16</v>
       </c>
-      <c r="U16" s="194"/>
-      <c r="V16" s="194"/>
-      <c r="W16" s="194"/>
-      <c r="X16" s="194"/>
+      <c r="U16" s="199"/>
+      <c r="V16" s="199"/>
+      <c r="W16" s="199"/>
+      <c r="X16" s="199"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="39"/>
@@ -18599,34 +18599,34 @@
       <c r="X19" s="46"/>
     </row>
     <row r="21" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="194">
+      <c r="B21" s="199">
         <v>17</v>
       </c>
-      <c r="C21" s="194"/>
-      <c r="D21" s="194"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="194"/>
-      <c r="H21" s="194">
+      <c r="C21" s="199"/>
+      <c r="D21" s="199"/>
+      <c r="E21" s="199"/>
+      <c r="F21" s="199"/>
+      <c r="H21" s="199">
         <v>18</v>
       </c>
-      <c r="I21" s="194"/>
-      <c r="J21" s="194"/>
-      <c r="K21" s="194"/>
-      <c r="L21" s="194"/>
-      <c r="N21" s="194">
+      <c r="I21" s="199"/>
+      <c r="J21" s="199"/>
+      <c r="K21" s="199"/>
+      <c r="L21" s="199"/>
+      <c r="N21" s="199">
         <v>19</v>
       </c>
-      <c r="O21" s="194"/>
-      <c r="P21" s="194"/>
-      <c r="Q21" s="194"/>
-      <c r="R21" s="194"/>
-      <c r="T21" s="194">
+      <c r="O21" s="199"/>
+      <c r="P21" s="199"/>
+      <c r="Q21" s="199"/>
+      <c r="R21" s="199"/>
+      <c r="T21" s="199">
         <v>20</v>
       </c>
-      <c r="U21" s="194"/>
-      <c r="V21" s="194"/>
-      <c r="W21" s="194"/>
-      <c r="X21" s="194"/>
+      <c r="U21" s="199"/>
+      <c r="V21" s="199"/>
+      <c r="W21" s="199"/>
+      <c r="X21" s="199"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="39"/>
@@ -18695,34 +18695,34 @@
       <c r="X24" s="46"/>
     </row>
     <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="194">
-        <v>21</v>
-      </c>
-      <c r="C26" s="194"/>
-      <c r="D26" s="194"/>
-      <c r="E26" s="194"/>
-      <c r="F26" s="194"/>
-      <c r="H26" s="194">
+      <c r="B26" s="199">
+        <v>21</v>
+      </c>
+      <c r="C26" s="199"/>
+      <c r="D26" s="199"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="199"/>
+      <c r="H26" s="199">
         <v>22</v>
       </c>
-      <c r="I26" s="194"/>
-      <c r="J26" s="194"/>
-      <c r="K26" s="194"/>
-      <c r="L26" s="194"/>
-      <c r="N26" s="194">
+      <c r="I26" s="199"/>
+      <c r="J26" s="199"/>
+      <c r="K26" s="199"/>
+      <c r="L26" s="199"/>
+      <c r="N26" s="199">
         <v>23</v>
       </c>
-      <c r="O26" s="194"/>
-      <c r="P26" s="194"/>
-      <c r="Q26" s="194"/>
-      <c r="R26" s="194"/>
-      <c r="T26" s="194">
+      <c r="O26" s="199"/>
+      <c r="P26" s="199"/>
+      <c r="Q26" s="199"/>
+      <c r="R26" s="199"/>
+      <c r="T26" s="199">
         <v>24</v>
       </c>
-      <c r="U26" s="194"/>
-      <c r="V26" s="194"/>
-      <c r="W26" s="194"/>
-      <c r="X26" s="194"/>
+      <c r="U26" s="199"/>
+      <c r="V26" s="199"/>
+      <c r="W26" s="199"/>
+      <c r="X26" s="199"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="39"/>
@@ -18791,13 +18791,13 @@
       <c r="X29" s="46"/>
     </row>
     <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="194">
+      <c r="B31" s="199">
         <v>25</v>
       </c>
-      <c r="C31" s="194"/>
-      <c r="D31" s="194"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="194"/>
+      <c r="C31" s="199"/>
+      <c r="D31" s="199"/>
+      <c r="E31" s="199"/>
+      <c r="F31" s="199"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="39"/>
@@ -18822,22 +18822,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="T26:X26"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="B21:F21"/>
@@ -18847,6 +18831,22 @@
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="H16:L16"/>
     <mergeCell ref="N16:R16"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="T6:X6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18870,40 +18870,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="203" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="200"/>
-      <c r="F1" s="198" t="s">
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="205"/>
+      <c r="F1" s="203" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="199"/>
-      <c r="H1" s="200"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="205"/>
       <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="182" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="179"/>
-      <c r="F2" s="177" t="s">
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="184"/>
+      <c r="F2" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="178"/>
-      <c r="H2" s="179"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="184"/>
       <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="179"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="184"/>
       <c r="F3" s="13" t="s">
         <v>60</v>
       </c>
@@ -19055,10 +19055,10 @@
       <c r="B12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="180" t="s">
+      <c r="C12" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="181"/>
+      <c r="D12" s="186"/>
       <c r="F12" s="13" t="s">
         <v>67</v>
       </c>
@@ -19077,11 +19077,11 @@
       <c r="H13" s="66"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="177" t="s">
+      <c r="A14" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="178"/>
-      <c r="C14" s="178"/>
+      <c r="B14" s="183"/>
+      <c r="C14" s="183"/>
       <c r="D14" s="66"/>
       <c r="F14" s="13" t="s">
         <v>68</v>
@@ -19090,11 +19090,11 @@
       <c r="H14" s="66"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="178"/>
-      <c r="C15" s="178"/>
+      <c r="B15" s="183"/>
+      <c r="C15" s="183"/>
       <c r="D15" s="66"/>
       <c r="F15" s="13" t="s">
         <v>69</v>
@@ -19156,8 +19156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF38956-FDBF-4967-97AF-72744B5458AB}">
   <dimension ref="A1:AC174"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="A136" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19289,11 +19289,11 @@
       <c r="P4" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="201" t="s">
+      <c r="Q4" s="206" t="s">
         <v>185</v>
       </c>
-      <c r="R4" s="201"/>
-      <c r="S4" s="201"/>
+      <c r="R4" s="206"/>
+      <c r="S4" s="206"/>
     </row>
     <row r="5" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E5" s="5"/>
@@ -19554,13 +19554,13 @@
       <c r="Q19" s="123"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="202" t="s">
+      <c r="A20" s="207" t="s">
         <v>200</v>
       </c>
-      <c r="B20" s="202"/>
-      <c r="C20" s="202"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="202"/>
+      <c r="B20" s="207"/>
+      <c r="C20" s="207"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="207"/>
       <c r="G20" s="1"/>
       <c r="M20" s="123"/>
       <c r="N20" s="123"/>

--- a/Conceptual/Game rules + pay amounts.xlsx
+++ b/Conceptual/Game rules + pay amounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy_\OneDrive\Documenten\GitHub\slotmachine-practice\Conceptual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD0F889-F185-40A1-91BE-8EFFE6B7CF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D42CE88-570E-47DC-A8BA-2CB247F88DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28020" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28020" windowHeight="16440" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Game rules" sheetId="4" r:id="rId8"/>
     <sheet name="Blad5" sheetId="9" r:id="rId9"/>
     <sheet name="Blad6" sheetId="10" r:id="rId10"/>
+    <sheet name="Blad7" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -864,7 +865,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1333,11 +1334,247 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1732,6 +1969,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1789,10 +2032,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1822,6 +2065,36 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -2080,14 +2353,14 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2103,7 +2376,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel1" displayName="Tabel1" ref="A1:H13" totalsRowShown="0" headerRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel1" displayName="Tabel1" ref="A1:H13" totalsRowShown="0" headerRowDxfId="37">
   <autoFilter ref="A1:H13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H13">
     <sortCondition ref="B1:B13"/>
@@ -2421,7 +2694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2463,12 +2736,12 @@
       <c r="H1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="189" t="s">
+      <c r="K1" s="191" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="191"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="193"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="163" t="s">
@@ -2533,11 +2806,11 @@
         <f>$H$19*Tabel1[[#This Row],[Pay 5X]]</f>
         <v>2</v>
       </c>
-      <c r="K3" s="195" t="s">
+      <c r="K3" s="197" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="185"/>
-      <c r="M3" s="185"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
       <c r="N3" s="66"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2601,12 +2874,12 @@
         <f>$H$19*Tabel1[[#This Row],[Pay 5X]]</f>
         <v>1.5</v>
       </c>
-      <c r="K5" s="196" t="s">
+      <c r="K5" s="198" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="197"/>
-      <c r="M5" s="197"/>
-      <c r="N5" s="198"/>
+      <c r="L5" s="199"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="200"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="163" t="s">
@@ -2786,12 +3059,12 @@
         <f>$H$19*Tabel1[[#This Row],[Pay 5X]]</f>
         <v>0.35</v>
       </c>
-      <c r="K10" s="192" t="s">
+      <c r="K10" s="194" t="s">
         <v>92</v>
       </c>
-      <c r="L10" s="193"/>
-      <c r="M10" s="193"/>
-      <c r="N10" s="194"/>
+      <c r="L10" s="195"/>
+      <c r="M10" s="195"/>
+      <c r="N10" s="196"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2846,23 +3119,23 @@
       <c r="N13" s="66"/>
     </row>
     <row r="14" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="K14" s="189" t="s">
+      <c r="K14" s="191" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="190"/>
-      <c r="M14" s="190"/>
-      <c r="N14" s="191"/>
+      <c r="L14" s="192"/>
+      <c r="M14" s="192"/>
+      <c r="N14" s="193"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="182" t="s">
+      <c r="K15" s="184" t="s">
         <v>96</v>
       </c>
-      <c r="L15" s="183"/>
-      <c r="M15" s="183"/>
-      <c r="N15" s="184"/>
+      <c r="L15" s="185"/>
+      <c r="M15" s="185"/>
+      <c r="N15" s="186"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -2902,10 +3175,10 @@
       <c r="G18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="187" t="s">
+      <c r="H18" s="189" t="s">
         <v>102</v>
       </c>
-      <c r="I18" s="187"/>
+      <c r="I18" s="189"/>
       <c r="K18" s="42">
         <v>6</v>
       </c>
@@ -2941,11 +3214,11 @@
         <f>A16*A28*B19</f>
         <v>125</v>
       </c>
-      <c r="H19" s="188">
+      <c r="H19" s="190">
         <f>A16*A19*B24</f>
         <v>0.25</v>
       </c>
-      <c r="I19" s="188"/>
+      <c r="I19" s="190"/>
       <c r="J19" s="85"/>
       <c r="K19" s="42">
         <v>9</v>
@@ -3079,10 +3352,10 @@
       <c r="L23" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="M23" s="185" t="s">
+      <c r="M23" s="187" t="s">
         <v>56</v>
       </c>
-      <c r="N23" s="186"/>
+      <c r="N23" s="188"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="97">
@@ -3540,7 +3813,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="F2:H10">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="greaterThan">
       <formula>$H$19</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3568,13 +3841,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G1" s="207" t="s">
+      <c r="G1" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
     </row>
     <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G2" s="123">
@@ -3592,16 +3865,16 @@
       <c r="K2" s="123">
         <v>270</v>
       </c>
-      <c r="O2" s="211">
-        <v>1</v>
-      </c>
-      <c r="P2" s="211"/>
-      <c r="Q2" s="211"/>
-      <c r="R2" s="211"/>
-      <c r="S2" s="211"/>
+      <c r="O2" s="213">
+        <v>1</v>
+      </c>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
     </row>
     <row r="3" spans="2:20" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="208" t="s">
+      <c r="E3" s="210" t="s">
         <v>211</v>
       </c>
       <c r="F3" s="123">
@@ -3625,7 +3898,7 @@
       <c r="L3" s="131">
         <v>300</v>
       </c>
-      <c r="N3" s="209">
+      <c r="N3" s="211">
         <v>1</v>
       </c>
       <c r="O3" s="177">
@@ -3645,7 +3918,7 @@
       <c r="T3" s="131"/>
     </row>
     <row r="4" spans="2:20" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="208"/>
+      <c r="E4" s="210"/>
       <c r="F4" s="123">
         <v>75</v>
       </c>
@@ -3667,7 +3940,7 @@
       <c r="L4" s="123">
         <v>300</v>
       </c>
-      <c r="N4" s="210"/>
+      <c r="N4" s="212"/>
       <c r="O4" s="178">
         <f>O3*2</f>
         <v>0.66666666666666663</v>
@@ -3684,7 +3957,7 @@
       <c r="T4" s="123"/>
     </row>
     <row r="5" spans="2:20" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="208"/>
+      <c r="E5" s="210"/>
       <c r="F5" s="123">
         <v>125</v>
       </c>
@@ -3706,7 +3979,7 @@
       <c r="L5" s="123">
         <v>300</v>
       </c>
-      <c r="N5" s="210"/>
+      <c r="N5" s="212"/>
       <c r="O5" s="179">
         <f>O3*3</f>
         <v>1</v>
@@ -5271,6 +5544,545 @@
     <mergeCell ref="O2:S2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C736488D-13CE-4C0A-9520-326AD8BFC679}">
+  <dimension ref="L2:Q62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="17" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="12:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="233"/>
+      <c r="Q3" s="236"/>
+    </row>
+    <row r="4" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="183">
+        <v>20</v>
+      </c>
+      <c r="M4" s="42"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="234"/>
+      <c r="Q4" s="237"/>
+    </row>
+    <row r="5" spans="12:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="183"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="235"/>
+      <c r="Q5" s="238"/>
+    </row>
+    <row r="6" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="183"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="216"/>
+    </row>
+    <row r="7" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="183">
+        <v>19</v>
+      </c>
+      <c r="M7" s="42"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="43"/>
+    </row>
+    <row r="8" spans="12:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="183"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="46"/>
+    </row>
+    <row r="9" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="183"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="233"/>
+      <c r="P9" s="239"/>
+      <c r="Q9" s="230"/>
+    </row>
+    <row r="10" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="183">
+        <v>18</v>
+      </c>
+      <c r="M10" s="42"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="234"/>
+      <c r="P10" s="240"/>
+      <c r="Q10" s="231"/>
+    </row>
+    <row r="11" spans="12:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="183"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="235"/>
+      <c r="P11" s="238"/>
+      <c r="Q11" s="232"/>
+    </row>
+    <row r="12" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="183"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="215"/>
+      <c r="Q12" s="41"/>
+    </row>
+    <row r="13" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="183">
+        <v>17</v>
+      </c>
+      <c r="M13" s="42"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="43"/>
+    </row>
+    <row r="14" spans="12:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="183"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="147"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="46"/>
+    </row>
+    <row r="15" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="183"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="233"/>
+      <c r="O15" s="236"/>
+      <c r="P15" s="227"/>
+      <c r="Q15" s="41"/>
+    </row>
+    <row r="16" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="183">
+        <v>16</v>
+      </c>
+      <c r="M16" s="42"/>
+      <c r="N16" s="234"/>
+      <c r="O16" s="237"/>
+      <c r="P16" s="228"/>
+      <c r="Q16" s="43"/>
+    </row>
+    <row r="17" spans="12:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="183"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="235"/>
+      <c r="O17" s="238"/>
+      <c r="P17" s="229"/>
+      <c r="Q17" s="46"/>
+    </row>
+    <row r="18" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="183"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="215"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="41"/>
+    </row>
+    <row r="19" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="183">
+        <v>15</v>
+      </c>
+      <c r="M19" s="42"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="43"/>
+    </row>
+    <row r="20" spans="12:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="183"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="46"/>
+    </row>
+    <row r="21" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="183"/>
+      <c r="M21" s="241"/>
+      <c r="N21" s="236"/>
+      <c r="O21" s="227"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="41"/>
+    </row>
+    <row r="22" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="183">
+        <v>14</v>
+      </c>
+      <c r="M22" s="242"/>
+      <c r="N22" s="237"/>
+      <c r="O22" s="228"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="43"/>
+    </row>
+    <row r="23" spans="12:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="183"/>
+      <c r="M23" s="243"/>
+      <c r="N23" s="238"/>
+      <c r="O23" s="229"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="46"/>
+    </row>
+    <row r="24" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="183"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="215"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="41"/>
+    </row>
+    <row r="25" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="183">
+        <v>13</v>
+      </c>
+      <c r="M25" s="42"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="43"/>
+    </row>
+    <row r="26" spans="12:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="183"/>
+      <c r="M26" s="217"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="46"/>
+    </row>
+    <row r="27" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="182"/>
+      <c r="M27" s="236"/>
+      <c r="N27" s="227"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="41"/>
+    </row>
+    <row r="28" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="182">
+        <v>12</v>
+      </c>
+      <c r="M28" s="237"/>
+      <c r="N28" s="228"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="43"/>
+    </row>
+    <row r="29" spans="12:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="182"/>
+      <c r="M29" s="238"/>
+      <c r="N29" s="229"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="46"/>
+    </row>
+    <row r="30" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="183"/>
+      <c r="M30" s="214"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="41"/>
+    </row>
+    <row r="31" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L31" s="183">
+        <v>11</v>
+      </c>
+      <c r="M31" s="42"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="43"/>
+    </row>
+    <row r="32" spans="12:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="183"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="46"/>
+    </row>
+    <row r="33" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="183"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="41"/>
+    </row>
+    <row r="34" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="183">
+        <v>10</v>
+      </c>
+      <c r="M34" s="42"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="43"/>
+    </row>
+    <row r="35" spans="12:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="183"/>
+      <c r="M35" s="217"/>
+      <c r="N35" s="147"/>
+      <c r="O35" s="147"/>
+      <c r="P35" s="147"/>
+      <c r="Q35" s="218"/>
+    </row>
+    <row r="36" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="183"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="41"/>
+    </row>
+    <row r="37" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="183">
+        <v>9</v>
+      </c>
+      <c r="M37" s="42"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="43"/>
+    </row>
+    <row r="38" spans="12:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L38" s="183"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="46"/>
+    </row>
+    <row r="39" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L39" s="183"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="41"/>
+    </row>
+    <row r="40" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L40" s="183">
+        <v>8</v>
+      </c>
+      <c r="M40" s="42"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="43"/>
+    </row>
+    <row r="41" spans="12:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L41" s="183"/>
+      <c r="M41" s="217"/>
+      <c r="N41" s="147"/>
+      <c r="O41" s="147"/>
+      <c r="P41" s="147"/>
+      <c r="Q41" s="218"/>
+    </row>
+    <row r="42" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L42" s="183"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="41"/>
+    </row>
+    <row r="43" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L43" s="183">
+        <v>7</v>
+      </c>
+      <c r="M43" s="42"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="43"/>
+    </row>
+    <row r="44" spans="12:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="183"/>
+      <c r="M44" s="217"/>
+      <c r="N44" s="147"/>
+      <c r="O44" s="147"/>
+      <c r="P44" s="147"/>
+      <c r="Q44" s="218"/>
+    </row>
+    <row r="45" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L45" s="183"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="41"/>
+    </row>
+    <row r="46" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L46" s="183">
+        <v>6</v>
+      </c>
+      <c r="M46" s="42"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="43"/>
+    </row>
+    <row r="47" spans="12:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L47" s="183"/>
+      <c r="M47" s="217"/>
+      <c r="N47" s="147"/>
+      <c r="O47" s="147"/>
+      <c r="P47" s="147"/>
+      <c r="Q47" s="218"/>
+    </row>
+    <row r="48" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L48" s="183"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="41"/>
+    </row>
+    <row r="49" spans="12:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L49" s="183">
+        <v>5</v>
+      </c>
+      <c r="M49" s="42"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="43"/>
+    </row>
+    <row r="50" spans="12:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L50" s="183"/>
+      <c r="M50" s="217"/>
+      <c r="N50" s="147"/>
+      <c r="O50" s="147"/>
+      <c r="P50" s="147"/>
+      <c r="Q50" s="218"/>
+    </row>
+    <row r="51" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L51" s="183"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="41"/>
+    </row>
+    <row r="52" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L52" s="183">
+        <v>4</v>
+      </c>
+      <c r="M52" s="42"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="43"/>
+    </row>
+    <row r="53" spans="12:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L53" s="183"/>
+      <c r="M53" s="217"/>
+      <c r="N53" s="147"/>
+      <c r="O53" s="147"/>
+      <c r="P53" s="147"/>
+      <c r="Q53" s="218"/>
+    </row>
+    <row r="54" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L54" s="183"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="41"/>
+    </row>
+    <row r="55" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L55" s="183">
+        <v>3</v>
+      </c>
+      <c r="M55" s="42"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
+      <c r="P55" s="38"/>
+      <c r="Q55" s="43"/>
+    </row>
+    <row r="56" spans="12:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L56" s="183"/>
+      <c r="M56" s="217"/>
+      <c r="N56" s="147"/>
+      <c r="O56" s="147"/>
+      <c r="P56" s="147"/>
+      <c r="Q56" s="218"/>
+    </row>
+    <row r="57" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L57" s="183"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="41"/>
+    </row>
+    <row r="58" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L58" s="183">
+        <v>2</v>
+      </c>
+      <c r="M58" s="42"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
+      <c r="P58" s="38"/>
+      <c r="Q58" s="43"/>
+    </row>
+    <row r="59" spans="12:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L59" s="183"/>
+      <c r="M59" s="217"/>
+      <c r="N59" s="147"/>
+      <c r="O59" s="147"/>
+      <c r="P59" s="147"/>
+      <c r="Q59" s="218"/>
+    </row>
+    <row r="60" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L60" s="183"/>
+      <c r="M60" s="219"/>
+      <c r="N60" s="220"/>
+      <c r="O60" s="220"/>
+      <c r="P60" s="220"/>
+      <c r="Q60" s="221"/>
+    </row>
+    <row r="61" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L61" s="183">
+        <v>1</v>
+      </c>
+      <c r="M61" s="222"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="223"/>
+    </row>
+    <row r="62" spans="12:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M62" s="224"/>
+      <c r="N62" s="225"/>
+      <c r="O62" s="225"/>
+      <c r="P62" s="225"/>
+      <c r="Q62" s="226"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5290,34 +6102,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="199">
-        <v>1</v>
-      </c>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="H1" s="199">
-        <v>2</v>
-      </c>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="N1" s="199">
+      <c r="B1" s="201">
+        <v>1</v>
+      </c>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="H1" s="201">
+        <v>2</v>
+      </c>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="N1" s="201">
         <v>3</v>
       </c>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="199"/>
-      <c r="T1" s="199">
+      <c r="O1" s="201"/>
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="201"/>
+      <c r="T1" s="201">
         <v>4</v>
       </c>
-      <c r="U1" s="199"/>
-      <c r="V1" s="199"/>
-      <c r="W1" s="199"/>
-      <c r="X1" s="199"/>
+      <c r="U1" s="201"/>
+      <c r="V1" s="201"/>
+      <c r="W1" s="201"/>
+      <c r="X1" s="201"/>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="121" t="s">
@@ -5540,37 +6352,37 @@
       <c r="X5" s="123"/>
     </row>
     <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="200">
+      <c r="B6" s="202">
         <v>5</v>
       </c>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
       <c r="G6" s="123"/>
-      <c r="H6" s="200">
+      <c r="H6" s="202">
         <v>6</v>
       </c>
-      <c r="I6" s="200"/>
-      <c r="J6" s="200"/>
-      <c r="K6" s="200"/>
-      <c r="L6" s="200"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="202"/>
+      <c r="K6" s="202"/>
+      <c r="L6" s="202"/>
       <c r="M6" s="123"/>
-      <c r="N6" s="200">
+      <c r="N6" s="202">
         <v>7</v>
       </c>
-      <c r="O6" s="200"/>
-      <c r="P6" s="200"/>
-      <c r="Q6" s="200"/>
-      <c r="R6" s="200"/>
+      <c r="O6" s="202"/>
+      <c r="P6" s="202"/>
+      <c r="Q6" s="202"/>
+      <c r="R6" s="202"/>
       <c r="S6" s="123"/>
-      <c r="T6" s="200">
+      <c r="T6" s="202">
         <v>8</v>
       </c>
-      <c r="U6" s="200"/>
-      <c r="V6" s="200"/>
-      <c r="W6" s="200"/>
-      <c r="X6" s="200"/>
+      <c r="U6" s="202"/>
+      <c r="V6" s="202"/>
+      <c r="W6" s="202"/>
+      <c r="X6" s="202"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="105" t="s">
@@ -5793,37 +6605,37 @@
       <c r="X10" s="123"/>
     </row>
     <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="200">
+      <c r="B11" s="202">
         <v>9</v>
       </c>
-      <c r="C11" s="200"/>
-      <c r="D11" s="200"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="200"/>
+      <c r="C11" s="202"/>
+      <c r="D11" s="202"/>
+      <c r="E11" s="202"/>
+      <c r="F11" s="202"/>
       <c r="G11" s="123"/>
-      <c r="H11" s="200">
+      <c r="H11" s="202">
         <v>10</v>
       </c>
-      <c r="I11" s="200"/>
-      <c r="J11" s="200"/>
-      <c r="K11" s="200"/>
-      <c r="L11" s="200"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="202"/>
       <c r="M11" s="123"/>
-      <c r="N11" s="200">
+      <c r="N11" s="202">
         <v>11</v>
       </c>
-      <c r="O11" s="200"/>
-      <c r="P11" s="200"/>
-      <c r="Q11" s="200"/>
-      <c r="R11" s="200"/>
+      <c r="O11" s="202"/>
+      <c r="P11" s="202"/>
+      <c r="Q11" s="202"/>
+      <c r="R11" s="202"/>
       <c r="S11" s="123"/>
-      <c r="T11" s="200">
+      <c r="T11" s="202">
         <v>12</v>
       </c>
-      <c r="U11" s="200"/>
-      <c r="V11" s="200"/>
-      <c r="W11" s="200"/>
-      <c r="X11" s="200"/>
+      <c r="U11" s="202"/>
+      <c r="V11" s="202"/>
+      <c r="W11" s="202"/>
+      <c r="X11" s="202"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="105" t="s">
@@ -6046,37 +6858,37 @@
       <c r="X15" s="123"/>
     </row>
     <row r="16" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="200">
+      <c r="B16" s="202">
         <v>13</v>
       </c>
-      <c r="C16" s="200"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="200"/>
-      <c r="F16" s="200"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="202"/>
+      <c r="E16" s="202"/>
+      <c r="F16" s="202"/>
       <c r="G16" s="123"/>
-      <c r="H16" s="200">
+      <c r="H16" s="202">
         <v>14</v>
       </c>
-      <c r="I16" s="200"/>
-      <c r="J16" s="200"/>
-      <c r="K16" s="200"/>
-      <c r="L16" s="200"/>
+      <c r="I16" s="202"/>
+      <c r="J16" s="202"/>
+      <c r="K16" s="202"/>
+      <c r="L16" s="202"/>
       <c r="M16" s="123"/>
-      <c r="N16" s="200">
+      <c r="N16" s="202">
         <v>15</v>
       </c>
-      <c r="O16" s="200"/>
-      <c r="P16" s="200"/>
-      <c r="Q16" s="200"/>
-      <c r="R16" s="200"/>
+      <c r="O16" s="202"/>
+      <c r="P16" s="202"/>
+      <c r="Q16" s="202"/>
+      <c r="R16" s="202"/>
       <c r="S16" s="123"/>
-      <c r="T16" s="200">
+      <c r="T16" s="202">
         <v>16</v>
       </c>
-      <c r="U16" s="200"/>
-      <c r="V16" s="200"/>
-      <c r="W16" s="200"/>
-      <c r="X16" s="200"/>
+      <c r="U16" s="202"/>
+      <c r="V16" s="202"/>
+      <c r="W16" s="202"/>
+      <c r="X16" s="202"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="105" t="s">
@@ -6274,34 +7086,34 @@
       </c>
     </row>
     <row r="21" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="199">
+      <c r="B21" s="201">
         <v>17</v>
       </c>
-      <c r="C21" s="199"/>
-      <c r="D21" s="199"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="199"/>
-      <c r="H21" s="199">
+      <c r="C21" s="201"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="201"/>
+      <c r="H21" s="201">
         <v>18</v>
       </c>
-      <c r="I21" s="199"/>
-      <c r="J21" s="199"/>
-      <c r="K21" s="199"/>
-      <c r="L21" s="199"/>
-      <c r="N21" s="199">
+      <c r="I21" s="201"/>
+      <c r="J21" s="201"/>
+      <c r="K21" s="201"/>
+      <c r="L21" s="201"/>
+      <c r="N21" s="201">
         <v>19</v>
       </c>
-      <c r="O21" s="199"/>
-      <c r="P21" s="199"/>
-      <c r="Q21" s="199"/>
-      <c r="R21" s="199"/>
-      <c r="T21" s="199">
+      <c r="O21" s="201"/>
+      <c r="P21" s="201"/>
+      <c r="Q21" s="201"/>
+      <c r="R21" s="201"/>
+      <c r="T21" s="201">
         <v>20</v>
       </c>
-      <c r="U21" s="199"/>
-      <c r="V21" s="199"/>
-      <c r="W21" s="199"/>
-      <c r="X21" s="199"/>
+      <c r="U21" s="201"/>
+      <c r="V21" s="201"/>
+      <c r="W21" s="201"/>
+      <c r="X21" s="201"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="105" t="s">
@@ -6490,34 +7302,34 @@
       </c>
     </row>
     <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="199">
-        <v>21</v>
-      </c>
-      <c r="C26" s="199"/>
-      <c r="D26" s="199"/>
-      <c r="E26" s="199"/>
-      <c r="F26" s="199"/>
-      <c r="H26" s="199">
+      <c r="B26" s="201">
+        <v>21</v>
+      </c>
+      <c r="C26" s="201"/>
+      <c r="D26" s="201"/>
+      <c r="E26" s="201"/>
+      <c r="F26" s="201"/>
+      <c r="H26" s="201">
         <v>22</v>
       </c>
-      <c r="I26" s="199"/>
-      <c r="J26" s="199"/>
-      <c r="K26" s="199"/>
-      <c r="L26" s="199"/>
-      <c r="N26" s="199">
+      <c r="I26" s="201"/>
+      <c r="J26" s="201"/>
+      <c r="K26" s="201"/>
+      <c r="L26" s="201"/>
+      <c r="N26" s="201">
         <v>23</v>
       </c>
-      <c r="O26" s="199"/>
-      <c r="P26" s="199"/>
-      <c r="Q26" s="199"/>
-      <c r="R26" s="199"/>
-      <c r="T26" s="199">
+      <c r="O26" s="201"/>
+      <c r="P26" s="201"/>
+      <c r="Q26" s="201"/>
+      <c r="R26" s="201"/>
+      <c r="T26" s="201">
         <v>24</v>
       </c>
-      <c r="U26" s="199"/>
-      <c r="V26" s="199"/>
-      <c r="W26" s="199"/>
-      <c r="X26" s="199"/>
+      <c r="U26" s="201"/>
+      <c r="V26" s="201"/>
+      <c r="W26" s="201"/>
+      <c r="X26" s="201"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="105" t="s">
@@ -6706,13 +7518,13 @@
       </c>
     </row>
     <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="199">
+      <c r="B31" s="201">
         <v>25</v>
       </c>
-      <c r="C31" s="199"/>
-      <c r="D31" s="199"/>
-      <c r="E31" s="199"/>
-      <c r="F31" s="199"/>
+      <c r="C31" s="201"/>
+      <c r="D31" s="201"/>
+      <c r="E31" s="201"/>
+      <c r="F31" s="201"/>
       <c r="H31" s="154"/>
       <c r="I31" s="154"/>
       <c r="J31" s="154"/>
@@ -6799,6 +7611,22 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="T16:X16"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="H21:L21"/>
@@ -6808,22 +7636,6 @@
     <mergeCell ref="H26:L26"/>
     <mergeCell ref="N26:R26"/>
     <mergeCell ref="T26:X26"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="T6:X6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7448,48 +8260,48 @@
       <c r="G9" s="151">
         <v>0.01</v>
       </c>
-      <c r="H9" s="202" t="s">
+      <c r="H9" s="203" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="202"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="202"/>
-      <c r="L9" s="202"/>
-      <c r="M9" s="202"/>
-      <c r="N9" s="202"/>
-      <c r="O9" s="202"/>
-      <c r="P9" s="202"/>
-      <c r="Q9" s="202"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="203"/>
+      <c r="L9" s="203"/>
+      <c r="M9" s="203"/>
+      <c r="N9" s="203"/>
+      <c r="O9" s="203"/>
+      <c r="P9" s="203"/>
+      <c r="Q9" s="203"/>
       <c r="S9" s="151">
         <v>0.01</v>
       </c>
-      <c r="T9" s="193" t="s">
+      <c r="T9" s="195" t="s">
         <v>75</v>
       </c>
-      <c r="U9" s="193"/>
-      <c r="V9" s="193"/>
-      <c r="W9" s="193"/>
-      <c r="X9" s="193"/>
-      <c r="Y9" s="193"/>
-      <c r="Z9" s="193"/>
-      <c r="AA9" s="193"/>
-      <c r="AB9" s="193"/>
-      <c r="AC9" s="193"/>
+      <c r="U9" s="195"/>
+      <c r="V9" s="195"/>
+      <c r="W9" s="195"/>
+      <c r="X9" s="195"/>
+      <c r="Y9" s="195"/>
+      <c r="Z9" s="195"/>
+      <c r="AA9" s="195"/>
+      <c r="AB9" s="195"/>
+      <c r="AC9" s="195"/>
       <c r="AE9" s="151">
         <v>0.01</v>
       </c>
-      <c r="AF9" s="193" t="s">
+      <c r="AF9" s="195" t="s">
         <v>76</v>
       </c>
-      <c r="AG9" s="193"/>
-      <c r="AH9" s="193"/>
-      <c r="AI9" s="193"/>
-      <c r="AJ9" s="193"/>
-      <c r="AK9" s="193"/>
-      <c r="AL9" s="193"/>
-      <c r="AM9" s="193"/>
-      <c r="AN9" s="193"/>
-      <c r="AO9" s="193"/>
+      <c r="AG9" s="195"/>
+      <c r="AH9" s="195"/>
+      <c r="AI9" s="195"/>
+      <c r="AJ9" s="195"/>
+      <c r="AK9" s="195"/>
+      <c r="AL9" s="195"/>
+      <c r="AM9" s="195"/>
+      <c r="AN9" s="195"/>
+      <c r="AO9" s="195"/>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="101" t="s">
@@ -8779,44 +9591,44 @@
       <c r="G19" s="153">
         <v>0.03</v>
       </c>
-      <c r="H19" s="201"/>
-      <c r="I19" s="201"/>
-      <c r="J19" s="201"/>
-      <c r="K19" s="201"/>
-      <c r="L19" s="201"/>
-      <c r="M19" s="201"/>
-      <c r="N19" s="201"/>
-      <c r="O19" s="201"/>
-      <c r="P19" s="201"/>
-      <c r="Q19" s="201"/>
+      <c r="H19" s="204"/>
+      <c r="I19" s="204"/>
+      <c r="J19" s="204"/>
+      <c r="K19" s="204"/>
+      <c r="L19" s="204"/>
+      <c r="M19" s="204"/>
+      <c r="N19" s="204"/>
+      <c r="O19" s="204"/>
+      <c r="P19" s="204"/>
+      <c r="Q19" s="204"/>
       <c r="R19" s="152"/>
       <c r="S19" s="153">
         <v>0.03</v>
       </c>
-      <c r="T19" s="201"/>
-      <c r="U19" s="201"/>
-      <c r="V19" s="201"/>
-      <c r="W19" s="201"/>
-      <c r="X19" s="201"/>
-      <c r="Y19" s="201"/>
-      <c r="Z19" s="201"/>
-      <c r="AA19" s="201"/>
-      <c r="AB19" s="201"/>
-      <c r="AC19" s="201"/>
+      <c r="T19" s="204"/>
+      <c r="U19" s="204"/>
+      <c r="V19" s="204"/>
+      <c r="W19" s="204"/>
+      <c r="X19" s="204"/>
+      <c r="Y19" s="204"/>
+      <c r="Z19" s="204"/>
+      <c r="AA19" s="204"/>
+      <c r="AB19" s="204"/>
+      <c r="AC19" s="204"/>
       <c r="AD19" s="152"/>
       <c r="AE19" s="151">
         <v>0.03</v>
       </c>
-      <c r="AF19" s="201"/>
-      <c r="AG19" s="201"/>
-      <c r="AH19" s="201"/>
-      <c r="AI19" s="201"/>
-      <c r="AJ19" s="201"/>
-      <c r="AK19" s="201"/>
-      <c r="AL19" s="201"/>
-      <c r="AM19" s="201"/>
-      <c r="AN19" s="201"/>
-      <c r="AO19" s="201"/>
+      <c r="AF19" s="204"/>
+      <c r="AG19" s="204"/>
+      <c r="AH19" s="204"/>
+      <c r="AI19" s="204"/>
+      <c r="AJ19" s="204"/>
+      <c r="AK19" s="204"/>
+      <c r="AL19" s="204"/>
+      <c r="AM19" s="204"/>
+      <c r="AN19" s="204"/>
+      <c r="AO19" s="204"/>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="97">
@@ -11271,44 +12083,44 @@
       <c r="G39" s="153">
         <v>0.1</v>
       </c>
-      <c r="H39" s="201"/>
-      <c r="I39" s="201"/>
-      <c r="J39" s="201"/>
-      <c r="K39" s="201"/>
-      <c r="L39" s="201"/>
-      <c r="M39" s="201"/>
-      <c r="N39" s="201"/>
-      <c r="O39" s="201"/>
-      <c r="P39" s="201"/>
-      <c r="Q39" s="201"/>
+      <c r="H39" s="204"/>
+      <c r="I39" s="204"/>
+      <c r="J39" s="204"/>
+      <c r="K39" s="204"/>
+      <c r="L39" s="204"/>
+      <c r="M39" s="204"/>
+      <c r="N39" s="204"/>
+      <c r="O39" s="204"/>
+      <c r="P39" s="204"/>
+      <c r="Q39" s="204"/>
       <c r="R39" s="152"/>
       <c r="S39" s="153">
         <v>0.1</v>
       </c>
-      <c r="T39" s="201"/>
-      <c r="U39" s="201"/>
-      <c r="V39" s="201"/>
-      <c r="W39" s="201"/>
-      <c r="X39" s="201"/>
-      <c r="Y39" s="201"/>
-      <c r="Z39" s="201"/>
-      <c r="AA39" s="201"/>
-      <c r="AB39" s="201"/>
-      <c r="AC39" s="201"/>
+      <c r="T39" s="204"/>
+      <c r="U39" s="204"/>
+      <c r="V39" s="204"/>
+      <c r="W39" s="204"/>
+      <c r="X39" s="204"/>
+      <c r="Y39" s="204"/>
+      <c r="Z39" s="204"/>
+      <c r="AA39" s="204"/>
+      <c r="AB39" s="204"/>
+      <c r="AC39" s="204"/>
       <c r="AD39" s="152"/>
       <c r="AE39" s="151">
         <v>0.1</v>
       </c>
-      <c r="AF39" s="201"/>
-      <c r="AG39" s="201"/>
-      <c r="AH39" s="201"/>
-      <c r="AI39" s="201"/>
-      <c r="AJ39" s="201"/>
-      <c r="AK39" s="201"/>
-      <c r="AL39" s="201"/>
-      <c r="AM39" s="201"/>
-      <c r="AN39" s="201"/>
-      <c r="AO39" s="201"/>
+      <c r="AF39" s="204"/>
+      <c r="AG39" s="204"/>
+      <c r="AH39" s="204"/>
+      <c r="AI39" s="204"/>
+      <c r="AJ39" s="204"/>
+      <c r="AK39" s="204"/>
+      <c r="AL39" s="204"/>
+      <c r="AM39" s="204"/>
+      <c r="AN39" s="204"/>
+      <c r="AO39" s="204"/>
     </row>
     <row r="40" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G40" s="158">
@@ -13751,44 +14563,44 @@
       <c r="G59" s="153">
         <v>0.5</v>
       </c>
-      <c r="H59" s="201"/>
-      <c r="I59" s="201"/>
-      <c r="J59" s="201"/>
-      <c r="K59" s="201"/>
-      <c r="L59" s="201"/>
-      <c r="M59" s="201"/>
-      <c r="N59" s="201"/>
-      <c r="O59" s="201"/>
-      <c r="P59" s="201"/>
-      <c r="Q59" s="201"/>
+      <c r="H59" s="204"/>
+      <c r="I59" s="204"/>
+      <c r="J59" s="204"/>
+      <c r="K59" s="204"/>
+      <c r="L59" s="204"/>
+      <c r="M59" s="204"/>
+      <c r="N59" s="204"/>
+      <c r="O59" s="204"/>
+      <c r="P59" s="204"/>
+      <c r="Q59" s="204"/>
       <c r="R59" s="152"/>
       <c r="S59" s="153">
         <v>0.5</v>
       </c>
-      <c r="T59" s="201"/>
-      <c r="U59" s="201"/>
-      <c r="V59" s="201"/>
-      <c r="W59" s="201"/>
-      <c r="X59" s="201"/>
-      <c r="Y59" s="201"/>
-      <c r="Z59" s="201"/>
-      <c r="AA59" s="201"/>
-      <c r="AB59" s="201"/>
-      <c r="AC59" s="201"/>
+      <c r="T59" s="204"/>
+      <c r="U59" s="204"/>
+      <c r="V59" s="204"/>
+      <c r="W59" s="204"/>
+      <c r="X59" s="204"/>
+      <c r="Y59" s="204"/>
+      <c r="Z59" s="204"/>
+      <c r="AA59" s="204"/>
+      <c r="AB59" s="204"/>
+      <c r="AC59" s="204"/>
       <c r="AD59" s="152"/>
       <c r="AE59" s="151">
         <v>0.5</v>
       </c>
-      <c r="AF59" s="201"/>
-      <c r="AG59" s="201"/>
-      <c r="AH59" s="201"/>
-      <c r="AI59" s="201"/>
-      <c r="AJ59" s="201"/>
-      <c r="AK59" s="201"/>
-      <c r="AL59" s="201"/>
-      <c r="AM59" s="201"/>
-      <c r="AN59" s="201"/>
-      <c r="AO59" s="201"/>
+      <c r="AF59" s="204"/>
+      <c r="AG59" s="204"/>
+      <c r="AH59" s="204"/>
+      <c r="AI59" s="204"/>
+      <c r="AJ59" s="204"/>
+      <c r="AK59" s="204"/>
+      <c r="AL59" s="204"/>
+      <c r="AM59" s="204"/>
+      <c r="AN59" s="204"/>
+      <c r="AO59" s="204"/>
     </row>
     <row r="60" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G60" s="158">
@@ -14989,11 +15801,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H9:Q9"/>
-    <mergeCell ref="T9:AC9"/>
-    <mergeCell ref="AF9:AO9"/>
-    <mergeCell ref="AF19:AO19"/>
-    <mergeCell ref="AF39:AO39"/>
     <mergeCell ref="AF59:AO59"/>
     <mergeCell ref="T19:AC19"/>
     <mergeCell ref="T39:AC39"/>
@@ -15001,6 +15808,11 @@
     <mergeCell ref="H19:Q19"/>
     <mergeCell ref="H39:Q39"/>
     <mergeCell ref="H59:Q59"/>
+    <mergeCell ref="H9:Q9"/>
+    <mergeCell ref="T9:AC9"/>
+    <mergeCell ref="AF9:AO9"/>
+    <mergeCell ref="AF19:AO19"/>
+    <mergeCell ref="AF39:AO39"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="AF20:AO28 AF60:AO68 AF40:AO48">
@@ -18215,34 +19027,34 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="199">
-        <v>1</v>
-      </c>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="H1" s="199">
-        <v>2</v>
-      </c>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="N1" s="199">
+      <c r="B1" s="201">
+        <v>1</v>
+      </c>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="H1" s="201">
+        <v>2</v>
+      </c>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="N1" s="201">
         <v>3</v>
       </c>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="199"/>
-      <c r="T1" s="199">
+      <c r="O1" s="201"/>
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="201"/>
+      <c r="T1" s="201">
         <v>4</v>
       </c>
-      <c r="U1" s="199"/>
-      <c r="V1" s="199"/>
-      <c r="W1" s="199"/>
-      <c r="X1" s="199"/>
+      <c r="U1" s="201"/>
+      <c r="V1" s="201"/>
+      <c r="W1" s="201"/>
+      <c r="X1" s="201"/>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="39"/>
@@ -18311,34 +19123,34 @@
       <c r="X4" s="46"/>
     </row>
     <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="199">
+      <c r="B6" s="201">
         <v>5</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
-      <c r="H6" s="199">
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="H6" s="201">
         <v>6</v>
       </c>
-      <c r="I6" s="199"/>
-      <c r="J6" s="199"/>
-      <c r="K6" s="199"/>
-      <c r="L6" s="199"/>
-      <c r="N6" s="199">
+      <c r="I6" s="201"/>
+      <c r="J6" s="201"/>
+      <c r="K6" s="201"/>
+      <c r="L6" s="201"/>
+      <c r="N6" s="201">
         <v>7</v>
       </c>
-      <c r="O6" s="199"/>
-      <c r="P6" s="199"/>
-      <c r="Q6" s="199"/>
-      <c r="R6" s="199"/>
-      <c r="T6" s="199">
+      <c r="O6" s="201"/>
+      <c r="P6" s="201"/>
+      <c r="Q6" s="201"/>
+      <c r="R6" s="201"/>
+      <c r="T6" s="201">
         <v>8</v>
       </c>
-      <c r="U6" s="199"/>
-      <c r="V6" s="199"/>
-      <c r="W6" s="199"/>
-      <c r="X6" s="199"/>
+      <c r="U6" s="201"/>
+      <c r="V6" s="201"/>
+      <c r="W6" s="201"/>
+      <c r="X6" s="201"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="39"/>
@@ -18407,34 +19219,34 @@
       <c r="X9" s="59"/>
     </row>
     <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="199">
+      <c r="B11" s="201">
         <v>9</v>
       </c>
-      <c r="C11" s="199"/>
-      <c r="D11" s="199"/>
-      <c r="E11" s="199"/>
-      <c r="F11" s="199"/>
-      <c r="H11" s="199">
+      <c r="C11" s="201"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="H11" s="201">
         <v>10</v>
       </c>
-      <c r="I11" s="199"/>
-      <c r="J11" s="199"/>
-      <c r="K11" s="199"/>
-      <c r="L11" s="199"/>
-      <c r="N11" s="199">
+      <c r="I11" s="201"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="201"/>
+      <c r="L11" s="201"/>
+      <c r="N11" s="201">
         <v>11</v>
       </c>
-      <c r="O11" s="199"/>
-      <c r="P11" s="199"/>
-      <c r="Q11" s="199"/>
-      <c r="R11" s="199"/>
-      <c r="T11" s="199">
+      <c r="O11" s="201"/>
+      <c r="P11" s="201"/>
+      <c r="Q11" s="201"/>
+      <c r="R11" s="201"/>
+      <c r="T11" s="201">
         <v>12</v>
       </c>
-      <c r="U11" s="199"/>
-      <c r="V11" s="199"/>
-      <c r="W11" s="199"/>
-      <c r="X11" s="199"/>
+      <c r="U11" s="201"/>
+      <c r="V11" s="201"/>
+      <c r="W11" s="201"/>
+      <c r="X11" s="201"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="39"/>
@@ -18503,34 +19315,34 @@
       <c r="X14" s="46"/>
     </row>
     <row r="16" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="199">
+      <c r="B16" s="201">
         <v>13</v>
       </c>
-      <c r="C16" s="199"/>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="H16" s="199">
+      <c r="C16" s="201"/>
+      <c r="D16" s="201"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="201"/>
+      <c r="H16" s="201">
         <v>14</v>
       </c>
-      <c r="I16" s="199"/>
-      <c r="J16" s="199"/>
-      <c r="K16" s="199"/>
-      <c r="L16" s="199"/>
-      <c r="N16" s="199">
+      <c r="I16" s="201"/>
+      <c r="J16" s="201"/>
+      <c r="K16" s="201"/>
+      <c r="L16" s="201"/>
+      <c r="N16" s="201">
         <v>15</v>
       </c>
-      <c r="O16" s="199"/>
-      <c r="P16" s="199"/>
-      <c r="Q16" s="199"/>
-      <c r="R16" s="199"/>
-      <c r="T16" s="199">
+      <c r="O16" s="201"/>
+      <c r="P16" s="201"/>
+      <c r="Q16" s="201"/>
+      <c r="R16" s="201"/>
+      <c r="T16" s="201">
         <v>16</v>
       </c>
-      <c r="U16" s="199"/>
-      <c r="V16" s="199"/>
-      <c r="W16" s="199"/>
-      <c r="X16" s="199"/>
+      <c r="U16" s="201"/>
+      <c r="V16" s="201"/>
+      <c r="W16" s="201"/>
+      <c r="X16" s="201"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="39"/>
@@ -18599,34 +19411,34 @@
       <c r="X19" s="46"/>
     </row>
     <row r="21" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="199">
+      <c r="B21" s="201">
         <v>17</v>
       </c>
-      <c r="C21" s="199"/>
-      <c r="D21" s="199"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="199"/>
-      <c r="H21" s="199">
+      <c r="C21" s="201"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="201"/>
+      <c r="H21" s="201">
         <v>18</v>
       </c>
-      <c r="I21" s="199"/>
-      <c r="J21" s="199"/>
-      <c r="K21" s="199"/>
-      <c r="L21" s="199"/>
-      <c r="N21" s="199">
+      <c r="I21" s="201"/>
+      <c r="J21" s="201"/>
+      <c r="K21" s="201"/>
+      <c r="L21" s="201"/>
+      <c r="N21" s="201">
         <v>19</v>
       </c>
-      <c r="O21" s="199"/>
-      <c r="P21" s="199"/>
-      <c r="Q21" s="199"/>
-      <c r="R21" s="199"/>
-      <c r="T21" s="199">
+      <c r="O21" s="201"/>
+      <c r="P21" s="201"/>
+      <c r="Q21" s="201"/>
+      <c r="R21" s="201"/>
+      <c r="T21" s="201">
         <v>20</v>
       </c>
-      <c r="U21" s="199"/>
-      <c r="V21" s="199"/>
-      <c r="W21" s="199"/>
-      <c r="X21" s="199"/>
+      <c r="U21" s="201"/>
+      <c r="V21" s="201"/>
+      <c r="W21" s="201"/>
+      <c r="X21" s="201"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="39"/>
@@ -18695,34 +19507,34 @@
       <c r="X24" s="46"/>
     </row>
     <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="199">
-        <v>21</v>
-      </c>
-      <c r="C26" s="199"/>
-      <c r="D26" s="199"/>
-      <c r="E26" s="199"/>
-      <c r="F26" s="199"/>
-      <c r="H26" s="199">
+      <c r="B26" s="201">
+        <v>21</v>
+      </c>
+      <c r="C26" s="201"/>
+      <c r="D26" s="201"/>
+      <c r="E26" s="201"/>
+      <c r="F26" s="201"/>
+      <c r="H26" s="201">
         <v>22</v>
       </c>
-      <c r="I26" s="199"/>
-      <c r="J26" s="199"/>
-      <c r="K26" s="199"/>
-      <c r="L26" s="199"/>
-      <c r="N26" s="199">
+      <c r="I26" s="201"/>
+      <c r="J26" s="201"/>
+      <c r="K26" s="201"/>
+      <c r="L26" s="201"/>
+      <c r="N26" s="201">
         <v>23</v>
       </c>
-      <c r="O26" s="199"/>
-      <c r="P26" s="199"/>
-      <c r="Q26" s="199"/>
-      <c r="R26" s="199"/>
-      <c r="T26" s="199">
+      <c r="O26" s="201"/>
+      <c r="P26" s="201"/>
+      <c r="Q26" s="201"/>
+      <c r="R26" s="201"/>
+      <c r="T26" s="201">
         <v>24</v>
       </c>
-      <c r="U26" s="199"/>
-      <c r="V26" s="199"/>
-      <c r="W26" s="199"/>
-      <c r="X26" s="199"/>
+      <c r="U26" s="201"/>
+      <c r="V26" s="201"/>
+      <c r="W26" s="201"/>
+      <c r="X26" s="201"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="39"/>
@@ -18791,13 +19603,13 @@
       <c r="X29" s="46"/>
     </row>
     <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="199">
+      <c r="B31" s="201">
         <v>25</v>
       </c>
-      <c r="C31" s="199"/>
-      <c r="D31" s="199"/>
-      <c r="E31" s="199"/>
-      <c r="F31" s="199"/>
+      <c r="C31" s="201"/>
+      <c r="D31" s="201"/>
+      <c r="E31" s="201"/>
+      <c r="F31" s="201"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="39"/>
@@ -18822,6 +19634,22 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="T26:X26"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="B21:F21"/>
@@ -18831,22 +19659,6 @@
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="H16:L16"/>
     <mergeCell ref="N16:R16"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="T6:X6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18870,40 +19682,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="205" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="205"/>
-      <c r="F1" s="203" t="s">
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="207"/>
+      <c r="F1" s="205" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="204"/>
-      <c r="H1" s="205"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="207"/>
       <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="184"/>
-      <c r="F2" s="182" t="s">
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
+      <c r="F2" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="183"/>
-      <c r="H2" s="184"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="186"/>
       <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="184"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="186"/>
       <c r="F3" s="13" t="s">
         <v>60</v>
       </c>
@@ -19055,10 +19867,10 @@
       <c r="B12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="185" t="s">
+      <c r="C12" s="187" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="186"/>
+      <c r="D12" s="188"/>
       <c r="F12" s="13" t="s">
         <v>67</v>
       </c>
@@ -19077,11 +19889,11 @@
       <c r="H13" s="66"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="182" t="s">
+      <c r="A14" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="183"/>
-      <c r="C14" s="183"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="185"/>
       <c r="D14" s="66"/>
       <c r="F14" s="13" t="s">
         <v>68</v>
@@ -19090,11 +19902,11 @@
       <c r="H14" s="66"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="182" t="s">
+      <c r="A15" s="184" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="183"/>
-      <c r="C15" s="183"/>
+      <c r="B15" s="185"/>
+      <c r="C15" s="185"/>
       <c r="D15" s="66"/>
       <c r="F15" s="13" t="s">
         <v>69</v>
@@ -19289,11 +20101,11 @@
       <c r="P4" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="206" t="s">
+      <c r="Q4" s="208" t="s">
         <v>185</v>
       </c>
-      <c r="R4" s="206"/>
-      <c r="S4" s="206"/>
+      <c r="R4" s="208"/>
+      <c r="S4" s="208"/>
     </row>
     <row r="5" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E5" s="5"/>
@@ -19554,13 +20366,13 @@
       <c r="Q19" s="123"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="207" t="s">
+      <c r="A20" s="209" t="s">
         <v>200</v>
       </c>
-      <c r="B20" s="207"/>
-      <c r="C20" s="207"/>
-      <c r="D20" s="207"/>
-      <c r="E20" s="207"/>
+      <c r="B20" s="209"/>
+      <c r="C20" s="209"/>
+      <c r="D20" s="209"/>
+      <c r="E20" s="209"/>
       <c r="G20" s="1"/>
       <c r="M20" s="123"/>
       <c r="N20" s="123"/>
